--- a/broadband_app/library_database_v2.xlsx
+++ b/broadband_app/library_database_v2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="279">
   <si>
     <t>state</t>
   </si>
@@ -732,7 +732,13 @@
     <t>Henagar Public Library</t>
   </si>
   <si>
+    <t>Makenzie Hughes</t>
+  </si>
+  <si>
     <t>(256) 657-6282</t>
+  </si>
+  <si>
+    <t>PO Box 39</t>
   </si>
   <si>
     <t>Henagar</t>
@@ -744,7 +750,13 @@
     <t>Rainsville Public Library</t>
   </si>
   <si>
+    <t>rpl1@farmerstel.com</t>
+  </si>
+  <si>
     <t>(256) 638-3311</t>
+  </si>
+  <si>
+    <t>PO Box 509</t>
   </si>
   <si>
     <t>Rainsville</t>
@@ -847,7 +859,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -860,6 +872,15 @@
     </font>
     <font>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -899,7 +920,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -917,6 +938,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -935,14 +959,29 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -1180,11 +1219,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="7.63"/>
-    <col customWidth="1" min="3" max="3" width="13.5"/>
+    <col customWidth="1" min="3" max="3" width="41.75"/>
     <col customWidth="1" min="4" max="4" width="15.25"/>
     <col customWidth="1" min="5" max="5" width="14.13"/>
     <col customWidth="1" min="6" max="6" width="12.38"/>
-    <col customWidth="1" min="7" max="7" width="8.38"/>
+    <col customWidth="1" min="7" max="7" width="27.25"/>
     <col customWidth="1" min="8" max="8" width="8.75"/>
     <col customWidth="1" min="9" max="15" width="7.63"/>
     <col customWidth="1" min="16" max="16" width="9.63"/>
@@ -2487,7 +2526,7 @@
       <c r="J21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="4"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -2724,31 +2763,43 @@
       <c r="Y25" s="6"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11" t="s">
+      <c r="E26" s="11"/>
+      <c r="F26" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="8">
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="9">
         <v>35740.0</v>
       </c>
       <c r="P26" s="4" t="s">
@@ -2757,45 +2808,57 @@
       <c r="Q26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R26" s="8" t="s">
+      <c r="R26" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="S26" s="8" t="s">
+      <c r="S26" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="T26" s="10"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
       <c r="Y26" s="6"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11" t="s">
+      <c r="E27" s="11"/>
+      <c r="F27" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="8">
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="9">
         <v>35772.0</v>
       </c>
       <c r="P27" s="4" t="s">
@@ -2804,51 +2867,51 @@
       <c r="Q27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R27" s="8" t="s">
+      <c r="R27" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="S27" s="8" t="s">
+      <c r="S27" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="T27" s="10"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
       <c r="Y27" s="6"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="9" t="s">
+      <c r="E28" s="11"/>
+      <c r="F28" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="9" t="s">
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
       <c r="M28" s="10"/>
-      <c r="N28" s="9" t="s">
+      <c r="N28" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="9">
         <v>35768.0</v>
       </c>
       <c r="P28" s="4" t="s">
@@ -2857,45 +2920,49 @@
       <c r="Q28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R28" s="8" t="s">
+      <c r="R28" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="S28" s="8" t="s">
+      <c r="S28" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="T28" s="10"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
       <c r="Y28" s="6"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11" t="s">
+      <c r="E29" s="11"/>
+      <c r="F29" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="8">
+      <c r="N29" s="11"/>
+      <c r="O29" s="9">
         <v>35967.0</v>
       </c>
       <c r="P29" s="4" t="s">
@@ -2904,45 +2971,51 @@
       <c r="Q29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R29" s="8" t="s">
+      <c r="R29" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="S29" s="8" t="s">
+      <c r="S29" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="T29" s="10"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
       <c r="Y29" s="6"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11" t="s">
+      <c r="E30" s="11"/>
+      <c r="F30" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="11"/>
+      <c r="L30" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="8">
+      <c r="N30" s="11"/>
+      <c r="O30" s="9">
         <v>35961.0</v>
       </c>
       <c r="P30" s="4" t="s">
@@ -2951,47 +3024,53 @@
       <c r="Q30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R30" s="8" t="s">
+      <c r="R30" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="S30" s="8" t="s">
+      <c r="S30" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="T30" s="10"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
       <c r="Y30" s="6"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11" t="s">
+      <c r="D31" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="9" t="s">
+      <c r="E31" s="11"/>
+      <c r="F31" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="8">
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" s="9">
         <v>35978.0</v>
       </c>
       <c r="P31" s="4" t="s">
@@ -3000,43 +3079,53 @@
       <c r="Q31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R31" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="S31" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="T31" s="10"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
+      <c r="R31" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="T31" s="11"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
       <c r="Y31" s="6"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="8">
+      <c r="C32" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" s="9">
         <v>35986.0</v>
       </c>
       <c r="P32" s="4" t="s">
@@ -3045,47 +3134,57 @@
       <c r="Q32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R32" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="S32" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="T32" s="10"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
+      <c r="R32" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="T32" s="11"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
       <c r="Y32" s="6"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11" t="s">
+      <c r="A33" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="9" t="s">
+      <c r="B33" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="N33" s="10"/>
-      <c r="O33" s="8">
+      <c r="J33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" s="9">
         <v>30752.0</v>
       </c>
       <c r="P33" s="4" t="s">
@@ -3094,45 +3193,57 @@
       <c r="Q33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R33" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="S33" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="T33" s="10"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
+      <c r="R33" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="T33" s="11"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
       <c r="Y33" s="6"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="15">
+      <c r="A34" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" s="20">
         <v>30707.0</v>
       </c>
       <c r="P34" s="4" t="s">
@@ -3141,55 +3252,53 @@
       <c r="Q34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R34" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="S34" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="T34" s="10"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
+      <c r="R34" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="S34" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="T34" s="11"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
       <c r="Y34" s="6"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="9" t="s">
+      <c r="A35" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="10"/>
-      <c r="L35" s="9" t="s">
+      <c r="K35" s="11"/>
+      <c r="L35" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="M35" s="10"/>
+      <c r="N35" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="N35" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O35" s="8">
+      <c r="O35" s="9">
         <v>30736.0</v>
       </c>
       <c r="P35" s="4" t="s">
@@ -3198,47 +3307,53 @@
       <c r="Q35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R35" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="S35" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="T35" s="10"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
+      <c r="R35" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="T35" s="11"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
       <c r="Y35" s="6"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="9" t="s">
+      <c r="A36" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="8">
+      <c r="J36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" s="9">
         <v>30720.0</v>
       </c>
       <c r="P36" s="4" t="s">
@@ -3247,47 +3362,51 @@
       <c r="Q36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R36" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="S36" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="T36" s="10"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
+      <c r="R36" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="S36" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="T36" s="11"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
       <c r="Y36" s="6"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B37" s="8" t="s">
+      <c r="A37" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="9" t="s">
+      <c r="E37" s="11"/>
+      <c r="F37" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="8">
+      <c r="J37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" s="9">
         <v>30705.0</v>
       </c>
       <c r="P37" s="4" t="s">
@@ -3296,11 +3415,11 @@
       <c r="Q37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R37" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="S37" s="8" t="s">
-        <v>274</v>
+      <c r="R37" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="S37" s="9" t="s">
+        <v>278</v>
       </c>
       <c r="T37" s="4"/>
       <c r="U37" s="6"/>
@@ -3319,12 +3438,12 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+      <c r="J38" s="21"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
-      <c r="O38" s="16"/>
+      <c r="O38" s="22"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
@@ -3351,7 +3470,7 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-      <c r="O39" s="16"/>
+      <c r="O39" s="22"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
@@ -3378,7 +3497,7 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="16"/>
+      <c r="O40" s="22"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
@@ -3405,7 +3524,7 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="16"/>
+      <c r="O41" s="22"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
@@ -3432,7 +3551,7 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="16"/>
+      <c r="O42" s="22"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
@@ -3459,7 +3578,7 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
-      <c r="O43" s="16"/>
+      <c r="O43" s="22"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
@@ -3486,7 +3605,7 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="16"/>
+      <c r="O44" s="22"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
@@ -3513,7 +3632,7 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-      <c r="O45" s="16"/>
+      <c r="O45" s="22"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
@@ -3540,7 +3659,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
-      <c r="O46" s="16"/>
+      <c r="O46" s="22"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
@@ -3567,7 +3686,7 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
-      <c r="O47" s="16"/>
+      <c r="O47" s="22"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
@@ -3594,7 +3713,7 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
-      <c r="O48" s="16"/>
+      <c r="O48" s="22"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
@@ -3621,7 +3740,7 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
-      <c r="O49" s="16"/>
+      <c r="O49" s="22"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
@@ -3648,7 +3767,7 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
-      <c r="O50" s="16"/>
+      <c r="O50" s="22"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
@@ -3675,7 +3794,7 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
-      <c r="O51" s="16"/>
+      <c r="O51" s="22"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
@@ -3702,7 +3821,7 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
-      <c r="O52" s="16"/>
+      <c r="O52" s="22"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
@@ -3729,7 +3848,7 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
-      <c r="O53" s="16"/>
+      <c r="O53" s="22"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
@@ -3756,7 +3875,7 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
-      <c r="O54" s="16"/>
+      <c r="O54" s="22"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
@@ -3783,7 +3902,7 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
-      <c r="O55" s="16"/>
+      <c r="O55" s="22"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
@@ -3810,7 +3929,7 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
-      <c r="O56" s="16"/>
+      <c r="O56" s="22"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
@@ -3837,7 +3956,7 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
-      <c r="O57" s="16"/>
+      <c r="O57" s="22"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
@@ -3864,7 +3983,7 @@
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
-      <c r="O58" s="16"/>
+      <c r="O58" s="22"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
@@ -3891,7 +4010,7 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
-      <c r="O59" s="16"/>
+      <c r="O59" s="22"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
@@ -3918,7 +4037,7 @@
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
-      <c r="O60" s="16"/>
+      <c r="O60" s="22"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
@@ -3945,7 +4064,7 @@
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
-      <c r="O61" s="16"/>
+      <c r="O61" s="22"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
@@ -3972,7 +4091,7 @@
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
-      <c r="O62" s="16"/>
+      <c r="O62" s="22"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
@@ -3999,7 +4118,7 @@
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
-      <c r="O63" s="16"/>
+      <c r="O63" s="22"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
@@ -4026,7 +4145,7 @@
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
-      <c r="O64" s="16"/>
+      <c r="O64" s="22"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
@@ -4053,7 +4172,7 @@
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
-      <c r="O65" s="16"/>
+      <c r="O65" s="22"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
@@ -4080,7 +4199,7 @@
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
-      <c r="O66" s="16"/>
+      <c r="O66" s="22"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
@@ -4107,7 +4226,7 @@
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
-      <c r="O67" s="16"/>
+      <c r="O67" s="22"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
@@ -4134,7 +4253,7 @@
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
-      <c r="O68" s="16"/>
+      <c r="O68" s="22"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
@@ -4161,7 +4280,7 @@
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
-      <c r="O69" s="16"/>
+      <c r="O69" s="22"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
@@ -4188,7 +4307,7 @@
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
-      <c r="O70" s="16"/>
+      <c r="O70" s="22"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
@@ -4215,7 +4334,7 @@
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
-      <c r="O71" s="16"/>
+      <c r="O71" s="22"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
@@ -4242,7 +4361,7 @@
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
-      <c r="O72" s="16"/>
+      <c r="O72" s="22"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
@@ -4269,7 +4388,7 @@
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
-      <c r="O73" s="16"/>
+      <c r="O73" s="22"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
@@ -4296,7 +4415,7 @@
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
-      <c r="O74" s="16"/>
+      <c r="O74" s="22"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
@@ -4323,7 +4442,7 @@
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
-      <c r="O75" s="16"/>
+      <c r="O75" s="22"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
@@ -4350,7 +4469,7 @@
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
-      <c r="O76" s="16"/>
+      <c r="O76" s="22"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
@@ -4377,7 +4496,7 @@
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
-      <c r="O77" s="16"/>
+      <c r="O77" s="22"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
@@ -4404,7 +4523,7 @@
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
-      <c r="O78" s="16"/>
+      <c r="O78" s="22"/>
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
@@ -4431,7 +4550,7 @@
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
-      <c r="O79" s="16"/>
+      <c r="O79" s="22"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
@@ -4458,7 +4577,7 @@
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
-      <c r="O80" s="16"/>
+      <c r="O80" s="22"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
@@ -4485,7 +4604,7 @@
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
-      <c r="O81" s="16"/>
+      <c r="O81" s="22"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
@@ -4512,7 +4631,7 @@
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
-      <c r="O82" s="16"/>
+      <c r="O82" s="22"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
@@ -4539,7 +4658,7 @@
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
-      <c r="O83" s="16"/>
+      <c r="O83" s="22"/>
       <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
@@ -4566,7 +4685,7 @@
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
-      <c r="O84" s="16"/>
+      <c r="O84" s="22"/>
       <c r="P84" s="6"/>
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
@@ -4593,7 +4712,7 @@
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
-      <c r="O85" s="16"/>
+      <c r="O85" s="22"/>
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
@@ -4620,7 +4739,7 @@
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
-      <c r="O86" s="16"/>
+      <c r="O86" s="22"/>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
@@ -4647,7 +4766,7 @@
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
-      <c r="O87" s="16"/>
+      <c r="O87" s="22"/>
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
@@ -4674,7 +4793,7 @@
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
-      <c r="O88" s="16"/>
+      <c r="O88" s="22"/>
       <c r="P88" s="6"/>
       <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
@@ -4701,7 +4820,7 @@
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
-      <c r="O89" s="16"/>
+      <c r="O89" s="22"/>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
@@ -4728,7 +4847,7 @@
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
-      <c r="O90" s="16"/>
+      <c r="O90" s="22"/>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
@@ -4755,7 +4874,7 @@
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
-      <c r="O91" s="16"/>
+      <c r="O91" s="22"/>
       <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
@@ -4782,7 +4901,7 @@
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
-      <c r="O92" s="16"/>
+      <c r="O92" s="22"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
@@ -4809,7 +4928,7 @@
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
-      <c r="O93" s="16"/>
+      <c r="O93" s="22"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
       <c r="R93" s="6"/>
@@ -4836,7 +4955,7 @@
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
-      <c r="O94" s="16"/>
+      <c r="O94" s="22"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
       <c r="R94" s="6"/>
@@ -4863,7 +4982,7 @@
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
-      <c r="O95" s="16"/>
+      <c r="O95" s="22"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
@@ -4890,7 +5009,7 @@
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
-      <c r="O96" s="16"/>
+      <c r="O96" s="22"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
@@ -4917,7 +5036,7 @@
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
-      <c r="O97" s="16"/>
+      <c r="O97" s="22"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
@@ -4944,7 +5063,7 @@
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
-      <c r="O98" s="16"/>
+      <c r="O98" s="22"/>
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
@@ -4971,7 +5090,7 @@
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
-      <c r="O99" s="16"/>
+      <c r="O99" s="22"/>
       <c r="P99" s="6"/>
       <c r="Q99" s="6"/>
       <c r="R99" s="6"/>
@@ -4998,7 +5117,7 @@
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
       <c r="N100" s="6"/>
-      <c r="O100" s="16"/>
+      <c r="O100" s="22"/>
       <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
       <c r="R100" s="6"/>
@@ -5025,7 +5144,7 @@
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
       <c r="N101" s="6"/>
-      <c r="O101" s="16"/>
+      <c r="O101" s="22"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
       <c r="R101" s="6"/>
@@ -5052,7 +5171,7 @@
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
       <c r="N102" s="6"/>
-      <c r="O102" s="16"/>
+      <c r="O102" s="22"/>
       <c r="P102" s="6"/>
       <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
@@ -5079,7 +5198,7 @@
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
       <c r="N103" s="6"/>
-      <c r="O103" s="16"/>
+      <c r="O103" s="22"/>
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
       <c r="R103" s="6"/>
@@ -5106,7 +5225,7 @@
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
-      <c r="O104" s="16"/>
+      <c r="O104" s="22"/>
       <c r="P104" s="6"/>
       <c r="Q104" s="6"/>
       <c r="R104" s="6"/>
@@ -5133,7 +5252,7 @@
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
       <c r="N105" s="6"/>
-      <c r="O105" s="16"/>
+      <c r="O105" s="22"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
@@ -5160,7 +5279,7 @@
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
       <c r="N106" s="6"/>
-      <c r="O106" s="16"/>
+      <c r="O106" s="22"/>
       <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
       <c r="R106" s="6"/>
@@ -5187,7 +5306,7 @@
       <c r="L107" s="6"/>
       <c r="M107" s="6"/>
       <c r="N107" s="6"/>
-      <c r="O107" s="16"/>
+      <c r="O107" s="22"/>
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
       <c r="R107" s="6"/>
@@ -5214,7 +5333,7 @@
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
       <c r="N108" s="6"/>
-      <c r="O108" s="16"/>
+      <c r="O108" s="22"/>
       <c r="P108" s="6"/>
       <c r="Q108" s="6"/>
       <c r="R108" s="6"/>
@@ -5241,7 +5360,7 @@
       <c r="L109" s="6"/>
       <c r="M109" s="6"/>
       <c r="N109" s="6"/>
-      <c r="O109" s="16"/>
+      <c r="O109" s="22"/>
       <c r="P109" s="6"/>
       <c r="Q109" s="6"/>
       <c r="R109" s="6"/>
@@ -5268,7 +5387,7 @@
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
       <c r="N110" s="6"/>
-      <c r="O110" s="16"/>
+      <c r="O110" s="22"/>
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
       <c r="R110" s="6"/>
@@ -5295,7 +5414,7 @@
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
       <c r="N111" s="6"/>
-      <c r="O111" s="16"/>
+      <c r="O111" s="22"/>
       <c r="P111" s="6"/>
       <c r="Q111" s="6"/>
       <c r="R111" s="6"/>
@@ -5322,7 +5441,7 @@
       <c r="L112" s="6"/>
       <c r="M112" s="6"/>
       <c r="N112" s="6"/>
-      <c r="O112" s="16"/>
+      <c r="O112" s="22"/>
       <c r="P112" s="6"/>
       <c r="Q112" s="6"/>
       <c r="R112" s="6"/>
@@ -5349,7 +5468,7 @@
       <c r="L113" s="6"/>
       <c r="M113" s="6"/>
       <c r="N113" s="6"/>
-      <c r="O113" s="16"/>
+      <c r="O113" s="22"/>
       <c r="P113" s="6"/>
       <c r="Q113" s="6"/>
       <c r="R113" s="6"/>
@@ -5376,7 +5495,7 @@
       <c r="L114" s="6"/>
       <c r="M114" s="6"/>
       <c r="N114" s="6"/>
-      <c r="O114" s="16"/>
+      <c r="O114" s="22"/>
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
@@ -5403,7 +5522,7 @@
       <c r="L115" s="6"/>
       <c r="M115" s="6"/>
       <c r="N115" s="6"/>
-      <c r="O115" s="16"/>
+      <c r="O115" s="22"/>
       <c r="P115" s="6"/>
       <c r="Q115" s="6"/>
       <c r="R115" s="6"/>
@@ -5430,7 +5549,7 @@
       <c r="L116" s="6"/>
       <c r="M116" s="6"/>
       <c r="N116" s="6"/>
-      <c r="O116" s="16"/>
+      <c r="O116" s="22"/>
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
       <c r="R116" s="6"/>
@@ -5457,7 +5576,7 @@
       <c r="L117" s="6"/>
       <c r="M117" s="6"/>
       <c r="N117" s="6"/>
-      <c r="O117" s="16"/>
+      <c r="O117" s="22"/>
       <c r="P117" s="6"/>
       <c r="Q117" s="6"/>
       <c r="R117" s="6"/>
@@ -5484,7 +5603,7 @@
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
-      <c r="O118" s="16"/>
+      <c r="O118" s="22"/>
       <c r="P118" s="6"/>
       <c r="Q118" s="6"/>
       <c r="R118" s="6"/>
@@ -5511,7 +5630,7 @@
       <c r="L119" s="6"/>
       <c r="M119" s="6"/>
       <c r="N119" s="6"/>
-      <c r="O119" s="16"/>
+      <c r="O119" s="22"/>
       <c r="P119" s="6"/>
       <c r="Q119" s="6"/>
       <c r="R119" s="6"/>
@@ -5538,7 +5657,7 @@
       <c r="L120" s="6"/>
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
-      <c r="O120" s="16"/>
+      <c r="O120" s="22"/>
       <c r="P120" s="6"/>
       <c r="Q120" s="6"/>
       <c r="R120" s="6"/>
@@ -5565,7 +5684,7 @@
       <c r="L121" s="6"/>
       <c r="M121" s="6"/>
       <c r="N121" s="6"/>
-      <c r="O121" s="16"/>
+      <c r="O121" s="22"/>
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
       <c r="R121" s="6"/>
@@ -5592,7 +5711,7 @@
       <c r="L122" s="6"/>
       <c r="M122" s="6"/>
       <c r="N122" s="6"/>
-      <c r="O122" s="16"/>
+      <c r="O122" s="22"/>
       <c r="P122" s="6"/>
       <c r="Q122" s="6"/>
       <c r="R122" s="6"/>
@@ -5619,7 +5738,7 @@
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
       <c r="N123" s="6"/>
-      <c r="O123" s="16"/>
+      <c r="O123" s="22"/>
       <c r="P123" s="6"/>
       <c r="Q123" s="6"/>
       <c r="R123" s="6"/>
@@ -5646,7 +5765,7 @@
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
       <c r="N124" s="6"/>
-      <c r="O124" s="16"/>
+      <c r="O124" s="22"/>
       <c r="P124" s="6"/>
       <c r="Q124" s="6"/>
       <c r="R124" s="6"/>
@@ -5673,7 +5792,7 @@
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
       <c r="N125" s="6"/>
-      <c r="O125" s="16"/>
+      <c r="O125" s="22"/>
       <c r="P125" s="6"/>
       <c r="Q125" s="6"/>
       <c r="R125" s="6"/>
@@ -5700,7 +5819,7 @@
       <c r="L126" s="6"/>
       <c r="M126" s="6"/>
       <c r="N126" s="6"/>
-      <c r="O126" s="16"/>
+      <c r="O126" s="22"/>
       <c r="P126" s="6"/>
       <c r="Q126" s="6"/>
       <c r="R126" s="6"/>
@@ -5727,7 +5846,7 @@
       <c r="L127" s="6"/>
       <c r="M127" s="6"/>
       <c r="N127" s="6"/>
-      <c r="O127" s="16"/>
+      <c r="O127" s="22"/>
       <c r="P127" s="6"/>
       <c r="Q127" s="6"/>
       <c r="R127" s="6"/>
@@ -5754,7 +5873,7 @@
       <c r="L128" s="6"/>
       <c r="M128" s="6"/>
       <c r="N128" s="6"/>
-      <c r="O128" s="16"/>
+      <c r="O128" s="22"/>
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
       <c r="R128" s="6"/>
@@ -5781,7 +5900,7 @@
       <c r="L129" s="6"/>
       <c r="M129" s="6"/>
       <c r="N129" s="6"/>
-      <c r="O129" s="16"/>
+      <c r="O129" s="22"/>
       <c r="P129" s="6"/>
       <c r="Q129" s="6"/>
       <c r="R129" s="6"/>
@@ -5808,7 +5927,7 @@
       <c r="L130" s="6"/>
       <c r="M130" s="6"/>
       <c r="N130" s="6"/>
-      <c r="O130" s="16"/>
+      <c r="O130" s="22"/>
       <c r="P130" s="6"/>
       <c r="Q130" s="6"/>
       <c r="R130" s="6"/>
@@ -5835,7 +5954,7 @@
       <c r="L131" s="6"/>
       <c r="M131" s="6"/>
       <c r="N131" s="6"/>
-      <c r="O131" s="16"/>
+      <c r="O131" s="22"/>
       <c r="P131" s="6"/>
       <c r="Q131" s="6"/>
       <c r="R131" s="6"/>
@@ -5862,7 +5981,7 @@
       <c r="L132" s="6"/>
       <c r="M132" s="6"/>
       <c r="N132" s="6"/>
-      <c r="O132" s="16"/>
+      <c r="O132" s="22"/>
       <c r="P132" s="6"/>
       <c r="Q132" s="6"/>
       <c r="R132" s="6"/>
@@ -5889,7 +6008,7 @@
       <c r="L133" s="6"/>
       <c r="M133" s="6"/>
       <c r="N133" s="6"/>
-      <c r="O133" s="16"/>
+      <c r="O133" s="22"/>
       <c r="P133" s="6"/>
       <c r="Q133" s="6"/>
       <c r="R133" s="6"/>
@@ -5916,7 +6035,7 @@
       <c r="L134" s="6"/>
       <c r="M134" s="6"/>
       <c r="N134" s="6"/>
-      <c r="O134" s="16"/>
+      <c r="O134" s="22"/>
       <c r="P134" s="6"/>
       <c r="Q134" s="6"/>
       <c r="R134" s="6"/>
@@ -5943,7 +6062,7 @@
       <c r="L135" s="6"/>
       <c r="M135" s="6"/>
       <c r="N135" s="6"/>
-      <c r="O135" s="16"/>
+      <c r="O135" s="22"/>
       <c r="P135" s="6"/>
       <c r="Q135" s="6"/>
       <c r="R135" s="6"/>
@@ -5970,7 +6089,7 @@
       <c r="L136" s="6"/>
       <c r="M136" s="6"/>
       <c r="N136" s="6"/>
-      <c r="O136" s="16"/>
+      <c r="O136" s="22"/>
       <c r="P136" s="6"/>
       <c r="Q136" s="6"/>
       <c r="R136" s="6"/>
@@ -5997,7 +6116,7 @@
       <c r="L137" s="6"/>
       <c r="M137" s="6"/>
       <c r="N137" s="6"/>
-      <c r="O137" s="16"/>
+      <c r="O137" s="22"/>
       <c r="P137" s="6"/>
       <c r="Q137" s="6"/>
       <c r="R137" s="6"/>
@@ -6024,7 +6143,7 @@
       <c r="L138" s="6"/>
       <c r="M138" s="6"/>
       <c r="N138" s="6"/>
-      <c r="O138" s="16"/>
+      <c r="O138" s="22"/>
       <c r="P138" s="6"/>
       <c r="Q138" s="6"/>
       <c r="R138" s="6"/>
@@ -6051,7 +6170,7 @@
       <c r="L139" s="6"/>
       <c r="M139" s="6"/>
       <c r="N139" s="6"/>
-      <c r="O139" s="16"/>
+      <c r="O139" s="22"/>
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
       <c r="R139" s="6"/>
@@ -6078,7 +6197,7 @@
       <c r="L140" s="6"/>
       <c r="M140" s="6"/>
       <c r="N140" s="6"/>
-      <c r="O140" s="16"/>
+      <c r="O140" s="22"/>
       <c r="P140" s="6"/>
       <c r="Q140" s="6"/>
       <c r="R140" s="6"/>
@@ -6105,7 +6224,7 @@
       <c r="L141" s="6"/>
       <c r="M141" s="6"/>
       <c r="N141" s="6"/>
-      <c r="O141" s="16"/>
+      <c r="O141" s="22"/>
       <c r="P141" s="6"/>
       <c r="Q141" s="6"/>
       <c r="R141" s="6"/>
@@ -6132,7 +6251,7 @@
       <c r="L142" s="6"/>
       <c r="M142" s="6"/>
       <c r="N142" s="6"/>
-      <c r="O142" s="16"/>
+      <c r="O142" s="22"/>
       <c r="P142" s="6"/>
       <c r="Q142" s="6"/>
       <c r="R142" s="6"/>
@@ -6159,7 +6278,7 @@
       <c r="L143" s="6"/>
       <c r="M143" s="6"/>
       <c r="N143" s="6"/>
-      <c r="O143" s="16"/>
+      <c r="O143" s="22"/>
       <c r="P143" s="6"/>
       <c r="Q143" s="6"/>
       <c r="R143" s="6"/>
@@ -6186,7 +6305,7 @@
       <c r="L144" s="6"/>
       <c r="M144" s="6"/>
       <c r="N144" s="6"/>
-      <c r="O144" s="16"/>
+      <c r="O144" s="22"/>
       <c r="P144" s="6"/>
       <c r="Q144" s="6"/>
       <c r="R144" s="6"/>
@@ -6213,7 +6332,7 @@
       <c r="L145" s="6"/>
       <c r="M145" s="6"/>
       <c r="N145" s="6"/>
-      <c r="O145" s="16"/>
+      <c r="O145" s="22"/>
       <c r="P145" s="6"/>
       <c r="Q145" s="6"/>
       <c r="R145" s="6"/>
@@ -6240,7 +6359,7 @@
       <c r="L146" s="6"/>
       <c r="M146" s="6"/>
       <c r="N146" s="6"/>
-      <c r="O146" s="16"/>
+      <c r="O146" s="22"/>
       <c r="P146" s="6"/>
       <c r="Q146" s="6"/>
       <c r="R146" s="6"/>
@@ -6267,7 +6386,7 @@
       <c r="L147" s="6"/>
       <c r="M147" s="6"/>
       <c r="N147" s="6"/>
-      <c r="O147" s="16"/>
+      <c r="O147" s="22"/>
       <c r="P147" s="6"/>
       <c r="Q147" s="6"/>
       <c r="R147" s="6"/>
@@ -6294,7 +6413,7 @@
       <c r="L148" s="6"/>
       <c r="M148" s="6"/>
       <c r="N148" s="6"/>
-      <c r="O148" s="16"/>
+      <c r="O148" s="22"/>
       <c r="P148" s="6"/>
       <c r="Q148" s="6"/>
       <c r="R148" s="6"/>
@@ -6321,7 +6440,7 @@
       <c r="L149" s="6"/>
       <c r="M149" s="6"/>
       <c r="N149" s="6"/>
-      <c r="O149" s="16"/>
+      <c r="O149" s="22"/>
       <c r="P149" s="6"/>
       <c r="Q149" s="6"/>
       <c r="R149" s="6"/>
@@ -6348,7 +6467,7 @@
       <c r="L150" s="6"/>
       <c r="M150" s="6"/>
       <c r="N150" s="6"/>
-      <c r="O150" s="16"/>
+      <c r="O150" s="22"/>
       <c r="P150" s="6"/>
       <c r="Q150" s="6"/>
       <c r="R150" s="6"/>
@@ -6375,7 +6494,7 @@
       <c r="L151" s="6"/>
       <c r="M151" s="6"/>
       <c r="N151" s="6"/>
-      <c r="O151" s="16"/>
+      <c r="O151" s="22"/>
       <c r="P151" s="6"/>
       <c r="Q151" s="6"/>
       <c r="R151" s="6"/>
@@ -6402,7 +6521,7 @@
       <c r="L152" s="6"/>
       <c r="M152" s="6"/>
       <c r="N152" s="6"/>
-      <c r="O152" s="16"/>
+      <c r="O152" s="22"/>
       <c r="P152" s="6"/>
       <c r="Q152" s="6"/>
       <c r="R152" s="6"/>
@@ -6429,7 +6548,7 @@
       <c r="L153" s="6"/>
       <c r="M153" s="6"/>
       <c r="N153" s="6"/>
-      <c r="O153" s="16"/>
+      <c r="O153" s="22"/>
       <c r="P153" s="6"/>
       <c r="Q153" s="6"/>
       <c r="R153" s="6"/>
@@ -6456,7 +6575,7 @@
       <c r="L154" s="6"/>
       <c r="M154" s="6"/>
       <c r="N154" s="6"/>
-      <c r="O154" s="16"/>
+      <c r="O154" s="22"/>
       <c r="P154" s="6"/>
       <c r="Q154" s="6"/>
       <c r="R154" s="6"/>
@@ -6483,7 +6602,7 @@
       <c r="L155" s="6"/>
       <c r="M155" s="6"/>
       <c r="N155" s="6"/>
-      <c r="O155" s="16"/>
+      <c r="O155" s="22"/>
       <c r="P155" s="6"/>
       <c r="Q155" s="6"/>
       <c r="R155" s="6"/>
@@ -6510,7 +6629,7 @@
       <c r="L156" s="6"/>
       <c r="M156" s="6"/>
       <c r="N156" s="6"/>
-      <c r="O156" s="16"/>
+      <c r="O156" s="22"/>
       <c r="P156" s="6"/>
       <c r="Q156" s="6"/>
       <c r="R156" s="6"/>
@@ -6537,7 +6656,7 @@
       <c r="L157" s="6"/>
       <c r="M157" s="6"/>
       <c r="N157" s="6"/>
-      <c r="O157" s="16"/>
+      <c r="O157" s="22"/>
       <c r="P157" s="6"/>
       <c r="Q157" s="6"/>
       <c r="R157" s="6"/>
@@ -6564,7 +6683,7 @@
       <c r="L158" s="6"/>
       <c r="M158" s="6"/>
       <c r="N158" s="6"/>
-      <c r="O158" s="16"/>
+      <c r="O158" s="22"/>
       <c r="P158" s="6"/>
       <c r="Q158" s="6"/>
       <c r="R158" s="6"/>
@@ -6591,7 +6710,7 @@
       <c r="L159" s="6"/>
       <c r="M159" s="6"/>
       <c r="N159" s="6"/>
-      <c r="O159" s="16"/>
+      <c r="O159" s="22"/>
       <c r="P159" s="6"/>
       <c r="Q159" s="6"/>
       <c r="R159" s="6"/>
@@ -6618,7 +6737,7 @@
       <c r="L160" s="6"/>
       <c r="M160" s="6"/>
       <c r="N160" s="6"/>
-      <c r="O160" s="16"/>
+      <c r="O160" s="22"/>
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
       <c r="R160" s="6"/>
@@ -6645,7 +6764,7 @@
       <c r="L161" s="6"/>
       <c r="M161" s="6"/>
       <c r="N161" s="6"/>
-      <c r="O161" s="16"/>
+      <c r="O161" s="22"/>
       <c r="P161" s="6"/>
       <c r="Q161" s="6"/>
       <c r="R161" s="6"/>
@@ -6672,7 +6791,7 @@
       <c r="L162" s="6"/>
       <c r="M162" s="6"/>
       <c r="N162" s="6"/>
-      <c r="O162" s="16"/>
+      <c r="O162" s="22"/>
       <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
       <c r="R162" s="6"/>
@@ -6699,7 +6818,7 @@
       <c r="L163" s="6"/>
       <c r="M163" s="6"/>
       <c r="N163" s="6"/>
-      <c r="O163" s="16"/>
+      <c r="O163" s="22"/>
       <c r="P163" s="6"/>
       <c r="Q163" s="6"/>
       <c r="R163" s="6"/>
@@ -6726,7 +6845,7 @@
       <c r="L164" s="6"/>
       <c r="M164" s="6"/>
       <c r="N164" s="6"/>
-      <c r="O164" s="16"/>
+      <c r="O164" s="22"/>
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
       <c r="R164" s="6"/>
@@ -6753,7 +6872,7 @@
       <c r="L165" s="6"/>
       <c r="M165" s="6"/>
       <c r="N165" s="6"/>
-      <c r="O165" s="16"/>
+      <c r="O165" s="22"/>
       <c r="P165" s="6"/>
       <c r="Q165" s="6"/>
       <c r="R165" s="6"/>
@@ -6780,7 +6899,7 @@
       <c r="L166" s="6"/>
       <c r="M166" s="6"/>
       <c r="N166" s="6"/>
-      <c r="O166" s="16"/>
+      <c r="O166" s="22"/>
       <c r="P166" s="6"/>
       <c r="Q166" s="6"/>
       <c r="R166" s="6"/>
@@ -6807,7 +6926,7 @@
       <c r="L167" s="6"/>
       <c r="M167" s="6"/>
       <c r="N167" s="6"/>
-      <c r="O167" s="16"/>
+      <c r="O167" s="22"/>
       <c r="P167" s="6"/>
       <c r="Q167" s="6"/>
       <c r="R167" s="6"/>
@@ -6834,7 +6953,7 @@
       <c r="L168" s="6"/>
       <c r="M168" s="6"/>
       <c r="N168" s="6"/>
-      <c r="O168" s="16"/>
+      <c r="O168" s="22"/>
       <c r="P168" s="6"/>
       <c r="Q168" s="6"/>
       <c r="R168" s="6"/>
@@ -6861,7 +6980,7 @@
       <c r="L169" s="6"/>
       <c r="M169" s="6"/>
       <c r="N169" s="6"/>
-      <c r="O169" s="16"/>
+      <c r="O169" s="22"/>
       <c r="P169" s="6"/>
       <c r="Q169" s="6"/>
       <c r="R169" s="6"/>
@@ -6888,7 +7007,7 @@
       <c r="L170" s="6"/>
       <c r="M170" s="6"/>
       <c r="N170" s="6"/>
-      <c r="O170" s="16"/>
+      <c r="O170" s="22"/>
       <c r="P170" s="6"/>
       <c r="Q170" s="6"/>
       <c r="R170" s="6"/>
@@ -6915,7 +7034,7 @@
       <c r="L171" s="6"/>
       <c r="M171" s="6"/>
       <c r="N171" s="6"/>
-      <c r="O171" s="16"/>
+      <c r="O171" s="22"/>
       <c r="P171" s="6"/>
       <c r="Q171" s="6"/>
       <c r="R171" s="6"/>
@@ -6942,7 +7061,7 @@
       <c r="L172" s="6"/>
       <c r="M172" s="6"/>
       <c r="N172" s="6"/>
-      <c r="O172" s="16"/>
+      <c r="O172" s="22"/>
       <c r="P172" s="6"/>
       <c r="Q172" s="6"/>
       <c r="R172" s="6"/>
@@ -6969,7 +7088,7 @@
       <c r="L173" s="6"/>
       <c r="M173" s="6"/>
       <c r="N173" s="6"/>
-      <c r="O173" s="16"/>
+      <c r="O173" s="22"/>
       <c r="P173" s="6"/>
       <c r="Q173" s="6"/>
       <c r="R173" s="6"/>
@@ -6996,7 +7115,7 @@
       <c r="L174" s="6"/>
       <c r="M174" s="6"/>
       <c r="N174" s="6"/>
-      <c r="O174" s="16"/>
+      <c r="O174" s="22"/>
       <c r="P174" s="6"/>
       <c r="Q174" s="6"/>
       <c r="R174" s="6"/>
@@ -7023,7 +7142,7 @@
       <c r="L175" s="6"/>
       <c r="M175" s="6"/>
       <c r="N175" s="6"/>
-      <c r="O175" s="16"/>
+      <c r="O175" s="22"/>
       <c r="P175" s="6"/>
       <c r="Q175" s="6"/>
       <c r="R175" s="6"/>
@@ -7050,7 +7169,7 @@
       <c r="L176" s="6"/>
       <c r="M176" s="6"/>
       <c r="N176" s="6"/>
-      <c r="O176" s="16"/>
+      <c r="O176" s="22"/>
       <c r="P176" s="6"/>
       <c r="Q176" s="6"/>
       <c r="R176" s="6"/>
@@ -7077,7 +7196,7 @@
       <c r="L177" s="6"/>
       <c r="M177" s="6"/>
       <c r="N177" s="6"/>
-      <c r="O177" s="16"/>
+      <c r="O177" s="22"/>
       <c r="P177" s="6"/>
       <c r="Q177" s="6"/>
       <c r="R177" s="6"/>
@@ -7104,7 +7223,7 @@
       <c r="L178" s="6"/>
       <c r="M178" s="6"/>
       <c r="N178" s="6"/>
-      <c r="O178" s="16"/>
+      <c r="O178" s="22"/>
       <c r="P178" s="6"/>
       <c r="Q178" s="6"/>
       <c r="R178" s="6"/>
@@ -7131,7 +7250,7 @@
       <c r="L179" s="6"/>
       <c r="M179" s="6"/>
       <c r="N179" s="6"/>
-      <c r="O179" s="16"/>
+      <c r="O179" s="22"/>
       <c r="P179" s="6"/>
       <c r="Q179" s="6"/>
       <c r="R179" s="6"/>
@@ -7158,7 +7277,7 @@
       <c r="L180" s="6"/>
       <c r="M180" s="6"/>
       <c r="N180" s="6"/>
-      <c r="O180" s="16"/>
+      <c r="O180" s="22"/>
       <c r="P180" s="6"/>
       <c r="Q180" s="6"/>
       <c r="R180" s="6"/>
@@ -7185,7 +7304,7 @@
       <c r="L181" s="6"/>
       <c r="M181" s="6"/>
       <c r="N181" s="6"/>
-      <c r="O181" s="16"/>
+      <c r="O181" s="22"/>
       <c r="P181" s="6"/>
       <c r="Q181" s="6"/>
       <c r="R181" s="6"/>
@@ -7212,7 +7331,7 @@
       <c r="L182" s="6"/>
       <c r="M182" s="6"/>
       <c r="N182" s="6"/>
-      <c r="O182" s="16"/>
+      <c r="O182" s="22"/>
       <c r="P182" s="6"/>
       <c r="Q182" s="6"/>
       <c r="R182" s="6"/>
@@ -7239,7 +7358,7 @@
       <c r="L183" s="6"/>
       <c r="M183" s="6"/>
       <c r="N183" s="6"/>
-      <c r="O183" s="16"/>
+      <c r="O183" s="22"/>
       <c r="P183" s="6"/>
       <c r="Q183" s="6"/>
       <c r="R183" s="6"/>
@@ -7266,7 +7385,7 @@
       <c r="L184" s="6"/>
       <c r="M184" s="6"/>
       <c r="N184" s="6"/>
-      <c r="O184" s="16"/>
+      <c r="O184" s="22"/>
       <c r="P184" s="6"/>
       <c r="Q184" s="6"/>
       <c r="R184" s="6"/>
@@ -7293,7 +7412,7 @@
       <c r="L185" s="6"/>
       <c r="M185" s="6"/>
       <c r="N185" s="6"/>
-      <c r="O185" s="16"/>
+      <c r="O185" s="22"/>
       <c r="P185" s="6"/>
       <c r="Q185" s="6"/>
       <c r="R185" s="6"/>
@@ -7320,7 +7439,7 @@
       <c r="L186" s="6"/>
       <c r="M186" s="6"/>
       <c r="N186" s="6"/>
-      <c r="O186" s="16"/>
+      <c r="O186" s="22"/>
       <c r="P186" s="6"/>
       <c r="Q186" s="6"/>
       <c r="R186" s="6"/>
@@ -7347,7 +7466,7 @@
       <c r="L187" s="6"/>
       <c r="M187" s="6"/>
       <c r="N187" s="6"/>
-      <c r="O187" s="16"/>
+      <c r="O187" s="22"/>
       <c r="P187" s="6"/>
       <c r="Q187" s="6"/>
       <c r="R187" s="6"/>
@@ -7374,7 +7493,7 @@
       <c r="L188" s="6"/>
       <c r="M188" s="6"/>
       <c r="N188" s="6"/>
-      <c r="O188" s="16"/>
+      <c r="O188" s="22"/>
       <c r="P188" s="6"/>
       <c r="Q188" s="6"/>
       <c r="R188" s="6"/>
@@ -7401,7 +7520,7 @@
       <c r="L189" s="6"/>
       <c r="M189" s="6"/>
       <c r="N189" s="6"/>
-      <c r="O189" s="16"/>
+      <c r="O189" s="22"/>
       <c r="P189" s="6"/>
       <c r="Q189" s="6"/>
       <c r="R189" s="6"/>
@@ -7428,7 +7547,7 @@
       <c r="L190" s="6"/>
       <c r="M190" s="6"/>
       <c r="N190" s="6"/>
-      <c r="O190" s="16"/>
+      <c r="O190" s="22"/>
       <c r="P190" s="6"/>
       <c r="Q190" s="6"/>
       <c r="R190" s="6"/>
@@ -7455,7 +7574,7 @@
       <c r="L191" s="6"/>
       <c r="M191" s="6"/>
       <c r="N191" s="6"/>
-      <c r="O191" s="16"/>
+      <c r="O191" s="22"/>
       <c r="P191" s="6"/>
       <c r="Q191" s="6"/>
       <c r="R191" s="6"/>
@@ -7482,7 +7601,7 @@
       <c r="L192" s="6"/>
       <c r="M192" s="6"/>
       <c r="N192" s="6"/>
-      <c r="O192" s="16"/>
+      <c r="O192" s="22"/>
       <c r="P192" s="6"/>
       <c r="Q192" s="6"/>
       <c r="R192" s="6"/>
@@ -7509,7 +7628,7 @@
       <c r="L193" s="6"/>
       <c r="M193" s="6"/>
       <c r="N193" s="6"/>
-      <c r="O193" s="16"/>
+      <c r="O193" s="22"/>
       <c r="P193" s="6"/>
       <c r="Q193" s="6"/>
       <c r="R193" s="6"/>
@@ -7536,7 +7655,7 @@
       <c r="L194" s="6"/>
       <c r="M194" s="6"/>
       <c r="N194" s="6"/>
-      <c r="O194" s="16"/>
+      <c r="O194" s="22"/>
       <c r="P194" s="6"/>
       <c r="Q194" s="6"/>
       <c r="R194" s="6"/>
@@ -7563,7 +7682,7 @@
       <c r="L195" s="6"/>
       <c r="M195" s="6"/>
       <c r="N195" s="6"/>
-      <c r="O195" s="16"/>
+      <c r="O195" s="22"/>
       <c r="P195" s="6"/>
       <c r="Q195" s="6"/>
       <c r="R195" s="6"/>
@@ -7590,7 +7709,7 @@
       <c r="L196" s="6"/>
       <c r="M196" s="6"/>
       <c r="N196" s="6"/>
-      <c r="O196" s="16"/>
+      <c r="O196" s="22"/>
       <c r="P196" s="6"/>
       <c r="Q196" s="6"/>
       <c r="R196" s="6"/>
@@ -7617,7 +7736,7 @@
       <c r="L197" s="6"/>
       <c r="M197" s="6"/>
       <c r="N197" s="6"/>
-      <c r="O197" s="16"/>
+      <c r="O197" s="22"/>
       <c r="P197" s="6"/>
       <c r="Q197" s="6"/>
       <c r="R197" s="6"/>
@@ -7644,7 +7763,7 @@
       <c r="L198" s="6"/>
       <c r="M198" s="6"/>
       <c r="N198" s="6"/>
-      <c r="O198" s="16"/>
+      <c r="O198" s="22"/>
       <c r="P198" s="6"/>
       <c r="Q198" s="6"/>
       <c r="R198" s="6"/>
@@ -7671,7 +7790,7 @@
       <c r="L199" s="6"/>
       <c r="M199" s="6"/>
       <c r="N199" s="6"/>
-      <c r="O199" s="16"/>
+      <c r="O199" s="22"/>
       <c r="P199" s="6"/>
       <c r="Q199" s="6"/>
       <c r="R199" s="6"/>
@@ -7698,7 +7817,7 @@
       <c r="L200" s="6"/>
       <c r="M200" s="6"/>
       <c r="N200" s="6"/>
-      <c r="O200" s="16"/>
+      <c r="O200" s="22"/>
       <c r="P200" s="6"/>
       <c r="Q200" s="6"/>
       <c r="R200" s="6"/>
@@ -7725,7 +7844,7 @@
       <c r="L201" s="6"/>
       <c r="M201" s="6"/>
       <c r="N201" s="6"/>
-      <c r="O201" s="16"/>
+      <c r="O201" s="22"/>
       <c r="P201" s="6"/>
       <c r="Q201" s="6"/>
       <c r="R201" s="6"/>
@@ -7752,7 +7871,7 @@
       <c r="L202" s="6"/>
       <c r="M202" s="6"/>
       <c r="N202" s="6"/>
-      <c r="O202" s="16"/>
+      <c r="O202" s="22"/>
       <c r="P202" s="6"/>
       <c r="Q202" s="6"/>
       <c r="R202" s="6"/>
@@ -7779,7 +7898,7 @@
       <c r="L203" s="6"/>
       <c r="M203" s="6"/>
       <c r="N203" s="6"/>
-      <c r="O203" s="16"/>
+      <c r="O203" s="22"/>
       <c r="P203" s="6"/>
       <c r="Q203" s="6"/>
       <c r="R203" s="6"/>
@@ -7806,7 +7925,7 @@
       <c r="L204" s="6"/>
       <c r="M204" s="6"/>
       <c r="N204" s="6"/>
-      <c r="O204" s="16"/>
+      <c r="O204" s="22"/>
       <c r="P204" s="6"/>
       <c r="Q204" s="6"/>
       <c r="R204" s="6"/>
@@ -7833,7 +7952,7 @@
       <c r="L205" s="6"/>
       <c r="M205" s="6"/>
       <c r="N205" s="6"/>
-      <c r="O205" s="16"/>
+      <c r="O205" s="22"/>
       <c r="P205" s="6"/>
       <c r="Q205" s="6"/>
       <c r="R205" s="6"/>
@@ -7860,7 +7979,7 @@
       <c r="L206" s="6"/>
       <c r="M206" s="6"/>
       <c r="N206" s="6"/>
-      <c r="O206" s="16"/>
+      <c r="O206" s="22"/>
       <c r="P206" s="6"/>
       <c r="Q206" s="6"/>
       <c r="R206" s="6"/>
@@ -7887,7 +8006,7 @@
       <c r="L207" s="6"/>
       <c r="M207" s="6"/>
       <c r="N207" s="6"/>
-      <c r="O207" s="16"/>
+      <c r="O207" s="22"/>
       <c r="P207" s="6"/>
       <c r="Q207" s="6"/>
       <c r="R207" s="6"/>
@@ -7914,7 +8033,7 @@
       <c r="L208" s="6"/>
       <c r="M208" s="6"/>
       <c r="N208" s="6"/>
-      <c r="O208" s="16"/>
+      <c r="O208" s="22"/>
       <c r="P208" s="6"/>
       <c r="Q208" s="6"/>
       <c r="R208" s="6"/>
@@ -7941,7 +8060,7 @@
       <c r="L209" s="6"/>
       <c r="M209" s="6"/>
       <c r="N209" s="6"/>
-      <c r="O209" s="16"/>
+      <c r="O209" s="22"/>
       <c r="P209" s="6"/>
       <c r="Q209" s="6"/>
       <c r="R209" s="6"/>
@@ -7968,7 +8087,7 @@
       <c r="L210" s="6"/>
       <c r="M210" s="6"/>
       <c r="N210" s="6"/>
-      <c r="O210" s="16"/>
+      <c r="O210" s="22"/>
       <c r="P210" s="6"/>
       <c r="Q210" s="6"/>
       <c r="R210" s="6"/>
@@ -7995,7 +8114,7 @@
       <c r="L211" s="6"/>
       <c r="M211" s="6"/>
       <c r="N211" s="6"/>
-      <c r="O211" s="16"/>
+      <c r="O211" s="22"/>
       <c r="P211" s="6"/>
       <c r="Q211" s="6"/>
       <c r="R211" s="6"/>
@@ -8022,7 +8141,7 @@
       <c r="L212" s="6"/>
       <c r="M212" s="6"/>
       <c r="N212" s="6"/>
-      <c r="O212" s="16"/>
+      <c r="O212" s="22"/>
       <c r="P212" s="6"/>
       <c r="Q212" s="6"/>
       <c r="R212" s="6"/>
@@ -8049,7 +8168,7 @@
       <c r="L213" s="6"/>
       <c r="M213" s="6"/>
       <c r="N213" s="6"/>
-      <c r="O213" s="16"/>
+      <c r="O213" s="22"/>
       <c r="P213" s="6"/>
       <c r="Q213" s="6"/>
       <c r="R213" s="6"/>
@@ -8076,7 +8195,7 @@
       <c r="L214" s="6"/>
       <c r="M214" s="6"/>
       <c r="N214" s="6"/>
-      <c r="O214" s="16"/>
+      <c r="O214" s="22"/>
       <c r="P214" s="6"/>
       <c r="Q214" s="6"/>
       <c r="R214" s="6"/>
@@ -8103,7 +8222,7 @@
       <c r="L215" s="6"/>
       <c r="M215" s="6"/>
       <c r="N215" s="6"/>
-      <c r="O215" s="16"/>
+      <c r="O215" s="22"/>
       <c r="P215" s="6"/>
       <c r="Q215" s="6"/>
       <c r="R215" s="6"/>
@@ -8130,7 +8249,7 @@
       <c r="L216" s="6"/>
       <c r="M216" s="6"/>
       <c r="N216" s="6"/>
-      <c r="O216" s="16"/>
+      <c r="O216" s="22"/>
       <c r="P216" s="6"/>
       <c r="Q216" s="6"/>
       <c r="R216" s="6"/>
@@ -8157,7 +8276,7 @@
       <c r="L217" s="6"/>
       <c r="M217" s="6"/>
       <c r="N217" s="6"/>
-      <c r="O217" s="16"/>
+      <c r="O217" s="22"/>
       <c r="P217" s="6"/>
       <c r="Q217" s="6"/>
       <c r="R217" s="6"/>
@@ -8184,7 +8303,7 @@
       <c r="L218" s="6"/>
       <c r="M218" s="6"/>
       <c r="N218" s="6"/>
-      <c r="O218" s="16"/>
+      <c r="O218" s="22"/>
       <c r="P218" s="6"/>
       <c r="Q218" s="6"/>
       <c r="R218" s="6"/>
@@ -8211,7 +8330,7 @@
       <c r="L219" s="6"/>
       <c r="M219" s="6"/>
       <c r="N219" s="6"/>
-      <c r="O219" s="16"/>
+      <c r="O219" s="22"/>
       <c r="P219" s="6"/>
       <c r="Q219" s="6"/>
       <c r="R219" s="6"/>
@@ -8238,7 +8357,7 @@
       <c r="L220" s="6"/>
       <c r="M220" s="6"/>
       <c r="N220" s="6"/>
-      <c r="O220" s="16"/>
+      <c r="O220" s="22"/>
       <c r="P220" s="6"/>
       <c r="Q220" s="6"/>
       <c r="R220" s="6"/>
@@ -8265,7 +8384,7 @@
       <c r="L221" s="6"/>
       <c r="M221" s="6"/>
       <c r="N221" s="6"/>
-      <c r="O221" s="16"/>
+      <c r="O221" s="22"/>
       <c r="P221" s="6"/>
       <c r="Q221" s="6"/>
       <c r="R221" s="6"/>
@@ -8292,7 +8411,7 @@
       <c r="L222" s="6"/>
       <c r="M222" s="6"/>
       <c r="N222" s="6"/>
-      <c r="O222" s="16"/>
+      <c r="O222" s="22"/>
       <c r="P222" s="6"/>
       <c r="Q222" s="6"/>
       <c r="R222" s="6"/>
@@ -8319,7 +8438,7 @@
       <c r="L223" s="6"/>
       <c r="M223" s="6"/>
       <c r="N223" s="6"/>
-      <c r="O223" s="16"/>
+      <c r="O223" s="22"/>
       <c r="P223" s="6"/>
       <c r="Q223" s="6"/>
       <c r="R223" s="6"/>
@@ -8346,7 +8465,7 @@
       <c r="L224" s="6"/>
       <c r="M224" s="6"/>
       <c r="N224" s="6"/>
-      <c r="O224" s="16"/>
+      <c r="O224" s="22"/>
       <c r="P224" s="6"/>
       <c r="Q224" s="6"/>
       <c r="R224" s="6"/>
@@ -8373,7 +8492,7 @@
       <c r="L225" s="6"/>
       <c r="M225" s="6"/>
       <c r="N225" s="6"/>
-      <c r="O225" s="16"/>
+      <c r="O225" s="22"/>
       <c r="P225" s="6"/>
       <c r="Q225" s="6"/>
       <c r="R225" s="6"/>
@@ -8400,7 +8519,7 @@
       <c r="L226" s="6"/>
       <c r="M226" s="6"/>
       <c r="N226" s="6"/>
-      <c r="O226" s="16"/>
+      <c r="O226" s="22"/>
       <c r="P226" s="6"/>
       <c r="Q226" s="6"/>
       <c r="R226" s="6"/>
@@ -8427,7 +8546,7 @@
       <c r="L227" s="6"/>
       <c r="M227" s="6"/>
       <c r="N227" s="6"/>
-      <c r="O227" s="16"/>
+      <c r="O227" s="22"/>
       <c r="P227" s="6"/>
       <c r="Q227" s="6"/>
       <c r="R227" s="6"/>
@@ -8454,7 +8573,7 @@
       <c r="L228" s="6"/>
       <c r="M228" s="6"/>
       <c r="N228" s="6"/>
-      <c r="O228" s="16"/>
+      <c r="O228" s="22"/>
       <c r="P228" s="6"/>
       <c r="Q228" s="6"/>
       <c r="R228" s="6"/>
@@ -8481,7 +8600,7 @@
       <c r="L229" s="6"/>
       <c r="M229" s="6"/>
       <c r="N229" s="6"/>
-      <c r="O229" s="16"/>
+      <c r="O229" s="22"/>
       <c r="P229" s="6"/>
       <c r="Q229" s="6"/>
       <c r="R229" s="6"/>
@@ -8508,7 +8627,7 @@
       <c r="L230" s="6"/>
       <c r="M230" s="6"/>
       <c r="N230" s="6"/>
-      <c r="O230" s="16"/>
+      <c r="O230" s="22"/>
       <c r="P230" s="6"/>
       <c r="Q230" s="6"/>
       <c r="R230" s="6"/>
@@ -8535,7 +8654,7 @@
       <c r="L231" s="6"/>
       <c r="M231" s="6"/>
       <c r="N231" s="6"/>
-      <c r="O231" s="16"/>
+      <c r="O231" s="22"/>
       <c r="P231" s="6"/>
       <c r="Q231" s="6"/>
       <c r="R231" s="6"/>
@@ -8562,7 +8681,7 @@
       <c r="L232" s="6"/>
       <c r="M232" s="6"/>
       <c r="N232" s="6"/>
-      <c r="O232" s="16"/>
+      <c r="O232" s="22"/>
       <c r="P232" s="6"/>
       <c r="Q232" s="6"/>
       <c r="R232" s="6"/>
@@ -8589,7 +8708,7 @@
       <c r="L233" s="6"/>
       <c r="M233" s="6"/>
       <c r="N233" s="6"/>
-      <c r="O233" s="16"/>
+      <c r="O233" s="22"/>
       <c r="P233" s="6"/>
       <c r="Q233" s="6"/>
       <c r="R233" s="6"/>
@@ -8616,7 +8735,7 @@
       <c r="L234" s="6"/>
       <c r="M234" s="6"/>
       <c r="N234" s="6"/>
-      <c r="O234" s="16"/>
+      <c r="O234" s="22"/>
       <c r="P234" s="6"/>
       <c r="Q234" s="6"/>
       <c r="R234" s="6"/>
@@ -8643,7 +8762,7 @@
       <c r="L235" s="6"/>
       <c r="M235" s="6"/>
       <c r="N235" s="6"/>
-      <c r="O235" s="16"/>
+      <c r="O235" s="22"/>
       <c r="P235" s="6"/>
       <c r="Q235" s="6"/>
       <c r="R235" s="6"/>
@@ -8670,7 +8789,7 @@
       <c r="L236" s="6"/>
       <c r="M236" s="6"/>
       <c r="N236" s="6"/>
-      <c r="O236" s="16"/>
+      <c r="O236" s="22"/>
       <c r="P236" s="6"/>
       <c r="Q236" s="6"/>
       <c r="R236" s="6"/>
@@ -8697,7 +8816,7 @@
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
       <c r="N237" s="6"/>
-      <c r="O237" s="16"/>
+      <c r="O237" s="22"/>
       <c r="P237" s="6"/>
       <c r="Q237" s="6"/>
       <c r="R237" s="6"/>
@@ -8724,7 +8843,7 @@
       <c r="L238" s="6"/>
       <c r="M238" s="6"/>
       <c r="N238" s="6"/>
-      <c r="O238" s="16"/>
+      <c r="O238" s="22"/>
       <c r="P238" s="6"/>
       <c r="Q238" s="6"/>
       <c r="R238" s="6"/>
@@ -8751,7 +8870,7 @@
       <c r="L239" s="6"/>
       <c r="M239" s="6"/>
       <c r="N239" s="6"/>
-      <c r="O239" s="16"/>
+      <c r="O239" s="22"/>
       <c r="P239" s="6"/>
       <c r="Q239" s="6"/>
       <c r="R239" s="6"/>
@@ -8778,7 +8897,7 @@
       <c r="L240" s="6"/>
       <c r="M240" s="6"/>
       <c r="N240" s="6"/>
-      <c r="O240" s="16"/>
+      <c r="O240" s="22"/>
       <c r="P240" s="6"/>
       <c r="Q240" s="6"/>
       <c r="R240" s="6"/>
@@ -8805,7 +8924,7 @@
       <c r="L241" s="6"/>
       <c r="M241" s="6"/>
       <c r="N241" s="6"/>
-      <c r="O241" s="16"/>
+      <c r="O241" s="22"/>
       <c r="P241" s="6"/>
       <c r="Q241" s="6"/>
       <c r="R241" s="6"/>
@@ -8832,7 +8951,7 @@
       <c r="L242" s="6"/>
       <c r="M242" s="6"/>
       <c r="N242" s="6"/>
-      <c r="O242" s="16"/>
+      <c r="O242" s="22"/>
       <c r="P242" s="6"/>
       <c r="Q242" s="6"/>
       <c r="R242" s="6"/>
@@ -8859,7 +8978,7 @@
       <c r="L243" s="6"/>
       <c r="M243" s="6"/>
       <c r="N243" s="6"/>
-      <c r="O243" s="16"/>
+      <c r="O243" s="22"/>
       <c r="P243" s="6"/>
       <c r="Q243" s="6"/>
       <c r="R243" s="6"/>
@@ -8886,7 +9005,7 @@
       <c r="L244" s="6"/>
       <c r="M244" s="6"/>
       <c r="N244" s="6"/>
-      <c r="O244" s="16"/>
+      <c r="O244" s="22"/>
       <c r="P244" s="6"/>
       <c r="Q244" s="6"/>
       <c r="R244" s="6"/>
@@ -8913,7 +9032,7 @@
       <c r="L245" s="6"/>
       <c r="M245" s="6"/>
       <c r="N245" s="6"/>
-      <c r="O245" s="16"/>
+      <c r="O245" s="22"/>
       <c r="P245" s="6"/>
       <c r="Q245" s="6"/>
       <c r="R245" s="6"/>
@@ -8940,7 +9059,7 @@
       <c r="L246" s="6"/>
       <c r="M246" s="6"/>
       <c r="N246" s="6"/>
-      <c r="O246" s="16"/>
+      <c r="O246" s="22"/>
       <c r="P246" s="6"/>
       <c r="Q246" s="6"/>
       <c r="R246" s="6"/>
@@ -8967,7 +9086,7 @@
       <c r="L247" s="6"/>
       <c r="M247" s="6"/>
       <c r="N247" s="6"/>
-      <c r="O247" s="16"/>
+      <c r="O247" s="22"/>
       <c r="P247" s="6"/>
       <c r="Q247" s="6"/>
       <c r="R247" s="6"/>
@@ -8994,7 +9113,7 @@
       <c r="L248" s="6"/>
       <c r="M248" s="6"/>
       <c r="N248" s="6"/>
-      <c r="O248" s="16"/>
+      <c r="O248" s="22"/>
       <c r="P248" s="6"/>
       <c r="Q248" s="6"/>
       <c r="R248" s="6"/>
@@ -9021,7 +9140,7 @@
       <c r="L249" s="6"/>
       <c r="M249" s="6"/>
       <c r="N249" s="6"/>
-      <c r="O249" s="16"/>
+      <c r="O249" s="22"/>
       <c r="P249" s="6"/>
       <c r="Q249" s="6"/>
       <c r="R249" s="6"/>
@@ -9048,7 +9167,7 @@
       <c r="L250" s="6"/>
       <c r="M250" s="6"/>
       <c r="N250" s="6"/>
-      <c r="O250" s="16"/>
+      <c r="O250" s="22"/>
       <c r="P250" s="6"/>
       <c r="Q250" s="6"/>
       <c r="R250" s="6"/>
@@ -9075,7 +9194,7 @@
       <c r="L251" s="6"/>
       <c r="M251" s="6"/>
       <c r="N251" s="6"/>
-      <c r="O251" s="16"/>
+      <c r="O251" s="22"/>
       <c r="P251" s="6"/>
       <c r="Q251" s="6"/>
       <c r="R251" s="6"/>
@@ -9102,7 +9221,7 @@
       <c r="L252" s="6"/>
       <c r="M252" s="6"/>
       <c r="N252" s="6"/>
-      <c r="O252" s="16"/>
+      <c r="O252" s="22"/>
       <c r="P252" s="6"/>
       <c r="Q252" s="6"/>
       <c r="R252" s="6"/>
@@ -9129,7 +9248,7 @@
       <c r="L253" s="6"/>
       <c r="M253" s="6"/>
       <c r="N253" s="6"/>
-      <c r="O253" s="16"/>
+      <c r="O253" s="22"/>
       <c r="P253" s="6"/>
       <c r="Q253" s="6"/>
       <c r="R253" s="6"/>
@@ -9156,7 +9275,7 @@
       <c r="L254" s="6"/>
       <c r="M254" s="6"/>
       <c r="N254" s="6"/>
-      <c r="O254" s="16"/>
+      <c r="O254" s="22"/>
       <c r="P254" s="6"/>
       <c r="Q254" s="6"/>
       <c r="R254" s="6"/>
@@ -9183,7 +9302,7 @@
       <c r="L255" s="6"/>
       <c r="M255" s="6"/>
       <c r="N255" s="6"/>
-      <c r="O255" s="16"/>
+      <c r="O255" s="22"/>
       <c r="P255" s="6"/>
       <c r="Q255" s="6"/>
       <c r="R255" s="6"/>
@@ -9210,7 +9329,7 @@
       <c r="L256" s="6"/>
       <c r="M256" s="6"/>
       <c r="N256" s="6"/>
-      <c r="O256" s="16"/>
+      <c r="O256" s="22"/>
       <c r="P256" s="6"/>
       <c r="Q256" s="6"/>
       <c r="R256" s="6"/>
@@ -9237,7 +9356,7 @@
       <c r="L257" s="6"/>
       <c r="M257" s="6"/>
       <c r="N257" s="6"/>
-      <c r="O257" s="16"/>
+      <c r="O257" s="22"/>
       <c r="P257" s="6"/>
       <c r="Q257" s="6"/>
       <c r="R257" s="6"/>
@@ -9264,7 +9383,7 @@
       <c r="L258" s="6"/>
       <c r="M258" s="6"/>
       <c r="N258" s="6"/>
-      <c r="O258" s="16"/>
+      <c r="O258" s="22"/>
       <c r="P258" s="6"/>
       <c r="Q258" s="6"/>
       <c r="R258" s="6"/>
@@ -9291,7 +9410,7 @@
       <c r="L259" s="6"/>
       <c r="M259" s="6"/>
       <c r="N259" s="6"/>
-      <c r="O259" s="16"/>
+      <c r="O259" s="22"/>
       <c r="P259" s="6"/>
       <c r="Q259" s="6"/>
       <c r="R259" s="6"/>
@@ -9318,7 +9437,7 @@
       <c r="L260" s="6"/>
       <c r="M260" s="6"/>
       <c r="N260" s="6"/>
-      <c r="O260" s="16"/>
+      <c r="O260" s="22"/>
       <c r="P260" s="6"/>
       <c r="Q260" s="6"/>
       <c r="R260" s="6"/>
@@ -9345,7 +9464,7 @@
       <c r="L261" s="6"/>
       <c r="M261" s="6"/>
       <c r="N261" s="6"/>
-      <c r="O261" s="16"/>
+      <c r="O261" s="22"/>
       <c r="P261" s="6"/>
       <c r="Q261" s="6"/>
       <c r="R261" s="6"/>
@@ -9372,7 +9491,7 @@
       <c r="L262" s="6"/>
       <c r="M262" s="6"/>
       <c r="N262" s="6"/>
-      <c r="O262" s="16"/>
+      <c r="O262" s="22"/>
       <c r="P262" s="6"/>
       <c r="Q262" s="6"/>
       <c r="R262" s="6"/>
@@ -9399,7 +9518,7 @@
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
       <c r="N263" s="6"/>
-      <c r="O263" s="16"/>
+      <c r="O263" s="22"/>
       <c r="P263" s="6"/>
       <c r="Q263" s="6"/>
       <c r="R263" s="6"/>
@@ -9426,7 +9545,7 @@
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
       <c r="N264" s="6"/>
-      <c r="O264" s="16"/>
+      <c r="O264" s="22"/>
       <c r="P264" s="6"/>
       <c r="Q264" s="6"/>
       <c r="R264" s="6"/>
@@ -9453,7 +9572,7 @@
       <c r="L265" s="6"/>
       <c r="M265" s="6"/>
       <c r="N265" s="6"/>
-      <c r="O265" s="16"/>
+      <c r="O265" s="22"/>
       <c r="P265" s="6"/>
       <c r="Q265" s="6"/>
       <c r="R265" s="6"/>
@@ -9480,7 +9599,7 @@
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
       <c r="N266" s="6"/>
-      <c r="O266" s="16"/>
+      <c r="O266" s="22"/>
       <c r="P266" s="6"/>
       <c r="Q266" s="6"/>
       <c r="R266" s="6"/>
@@ -9507,7 +9626,7 @@
       <c r="L267" s="6"/>
       <c r="M267" s="6"/>
       <c r="N267" s="6"/>
-      <c r="O267" s="16"/>
+      <c r="O267" s="22"/>
       <c r="P267" s="6"/>
       <c r="Q267" s="6"/>
       <c r="R267" s="6"/>
@@ -9534,7 +9653,7 @@
       <c r="L268" s="6"/>
       <c r="M268" s="6"/>
       <c r="N268" s="6"/>
-      <c r="O268" s="16"/>
+      <c r="O268" s="22"/>
       <c r="P268" s="6"/>
       <c r="Q268" s="6"/>
       <c r="R268" s="6"/>
@@ -9561,7 +9680,7 @@
       <c r="L269" s="6"/>
       <c r="M269" s="6"/>
       <c r="N269" s="6"/>
-      <c r="O269" s="16"/>
+      <c r="O269" s="22"/>
       <c r="P269" s="6"/>
       <c r="Q269" s="6"/>
       <c r="R269" s="6"/>
@@ -9588,7 +9707,7 @@
       <c r="L270" s="6"/>
       <c r="M270" s="6"/>
       <c r="N270" s="6"/>
-      <c r="O270" s="16"/>
+      <c r="O270" s="22"/>
       <c r="P270" s="6"/>
       <c r="Q270" s="6"/>
       <c r="R270" s="6"/>
@@ -9615,7 +9734,7 @@
       <c r="L271" s="6"/>
       <c r="M271" s="6"/>
       <c r="N271" s="6"/>
-      <c r="O271" s="16"/>
+      <c r="O271" s="22"/>
       <c r="P271" s="6"/>
       <c r="Q271" s="6"/>
       <c r="R271" s="6"/>
@@ -9642,7 +9761,7 @@
       <c r="L272" s="6"/>
       <c r="M272" s="6"/>
       <c r="N272" s="6"/>
-      <c r="O272" s="16"/>
+      <c r="O272" s="22"/>
       <c r="P272" s="6"/>
       <c r="Q272" s="6"/>
       <c r="R272" s="6"/>
@@ -9669,7 +9788,7 @@
       <c r="L273" s="6"/>
       <c r="M273" s="6"/>
       <c r="N273" s="6"/>
-      <c r="O273" s="16"/>
+      <c r="O273" s="22"/>
       <c r="P273" s="6"/>
       <c r="Q273" s="6"/>
       <c r="R273" s="6"/>
@@ -9696,7 +9815,7 @@
       <c r="L274" s="6"/>
       <c r="M274" s="6"/>
       <c r="N274" s="6"/>
-      <c r="O274" s="16"/>
+      <c r="O274" s="22"/>
       <c r="P274" s="6"/>
       <c r="Q274" s="6"/>
       <c r="R274" s="6"/>
@@ -9723,7 +9842,7 @@
       <c r="L275" s="6"/>
       <c r="M275" s="6"/>
       <c r="N275" s="6"/>
-      <c r="O275" s="16"/>
+      <c r="O275" s="22"/>
       <c r="P275" s="6"/>
       <c r="Q275" s="6"/>
       <c r="R275" s="6"/>
@@ -9750,7 +9869,7 @@
       <c r="L276" s="6"/>
       <c r="M276" s="6"/>
       <c r="N276" s="6"/>
-      <c r="O276" s="16"/>
+      <c r="O276" s="22"/>
       <c r="P276" s="6"/>
       <c r="Q276" s="6"/>
       <c r="R276" s="6"/>
@@ -9777,7 +9896,7 @@
       <c r="L277" s="6"/>
       <c r="M277" s="6"/>
       <c r="N277" s="6"/>
-      <c r="O277" s="16"/>
+      <c r="O277" s="22"/>
       <c r="P277" s="6"/>
       <c r="Q277" s="6"/>
       <c r="R277" s="6"/>
@@ -9804,7 +9923,7 @@
       <c r="L278" s="6"/>
       <c r="M278" s="6"/>
       <c r="N278" s="6"/>
-      <c r="O278" s="16"/>
+      <c r="O278" s="22"/>
       <c r="P278" s="6"/>
       <c r="Q278" s="6"/>
       <c r="R278" s="6"/>
@@ -9831,7 +9950,7 @@
       <c r="L279" s="6"/>
       <c r="M279" s="6"/>
       <c r="N279" s="6"/>
-      <c r="O279" s="16"/>
+      <c r="O279" s="22"/>
       <c r="P279" s="6"/>
       <c r="Q279" s="6"/>
       <c r="R279" s="6"/>
@@ -9858,7 +9977,7 @@
       <c r="L280" s="6"/>
       <c r="M280" s="6"/>
       <c r="N280" s="6"/>
-      <c r="O280" s="16"/>
+      <c r="O280" s="22"/>
       <c r="P280" s="6"/>
       <c r="Q280" s="6"/>
       <c r="R280" s="6"/>
@@ -9885,7 +10004,7 @@
       <c r="L281" s="6"/>
       <c r="M281" s="6"/>
       <c r="N281" s="6"/>
-      <c r="O281" s="16"/>
+      <c r="O281" s="22"/>
       <c r="P281" s="6"/>
       <c r="Q281" s="6"/>
       <c r="R281" s="6"/>
@@ -9912,7 +10031,7 @@
       <c r="L282" s="6"/>
       <c r="M282" s="6"/>
       <c r="N282" s="6"/>
-      <c r="O282" s="16"/>
+      <c r="O282" s="22"/>
       <c r="P282" s="6"/>
       <c r="Q282" s="6"/>
       <c r="R282" s="6"/>
@@ -9939,7 +10058,7 @@
       <c r="L283" s="6"/>
       <c r="M283" s="6"/>
       <c r="N283" s="6"/>
-      <c r="O283" s="16"/>
+      <c r="O283" s="22"/>
       <c r="P283" s="6"/>
       <c r="Q283" s="6"/>
       <c r="R283" s="6"/>
@@ -9966,7 +10085,7 @@
       <c r="L284" s="6"/>
       <c r="M284" s="6"/>
       <c r="N284" s="6"/>
-      <c r="O284" s="16"/>
+      <c r="O284" s="22"/>
       <c r="P284" s="6"/>
       <c r="Q284" s="6"/>
       <c r="R284" s="6"/>
@@ -9993,7 +10112,7 @@
       <c r="L285" s="6"/>
       <c r="M285" s="6"/>
       <c r="N285" s="6"/>
-      <c r="O285" s="16"/>
+      <c r="O285" s="22"/>
       <c r="P285" s="6"/>
       <c r="Q285" s="6"/>
       <c r="R285" s="6"/>
@@ -10020,7 +10139,7 @@
       <c r="L286" s="6"/>
       <c r="M286" s="6"/>
       <c r="N286" s="6"/>
-      <c r="O286" s="16"/>
+      <c r="O286" s="22"/>
       <c r="P286" s="6"/>
       <c r="Q286" s="6"/>
       <c r="R286" s="6"/>
@@ -10047,7 +10166,7 @@
       <c r="L287" s="6"/>
       <c r="M287" s="6"/>
       <c r="N287" s="6"/>
-      <c r="O287" s="16"/>
+      <c r="O287" s="22"/>
       <c r="P287" s="6"/>
       <c r="Q287" s="6"/>
       <c r="R287" s="6"/>
@@ -10074,7 +10193,7 @@
       <c r="L288" s="6"/>
       <c r="M288" s="6"/>
       <c r="N288" s="6"/>
-      <c r="O288" s="16"/>
+      <c r="O288" s="22"/>
       <c r="P288" s="6"/>
       <c r="Q288" s="6"/>
       <c r="R288" s="6"/>
@@ -10101,7 +10220,7 @@
       <c r="L289" s="6"/>
       <c r="M289" s="6"/>
       <c r="N289" s="6"/>
-      <c r="O289" s="16"/>
+      <c r="O289" s="22"/>
       <c r="P289" s="6"/>
       <c r="Q289" s="6"/>
       <c r="R289" s="6"/>
@@ -10128,7 +10247,7 @@
       <c r="L290" s="6"/>
       <c r="M290" s="6"/>
       <c r="N290" s="6"/>
-      <c r="O290" s="16"/>
+      <c r="O290" s="22"/>
       <c r="P290" s="6"/>
       <c r="Q290" s="6"/>
       <c r="R290" s="6"/>
@@ -10155,7 +10274,7 @@
       <c r="L291" s="6"/>
       <c r="M291" s="6"/>
       <c r="N291" s="6"/>
-      <c r="O291" s="16"/>
+      <c r="O291" s="22"/>
       <c r="P291" s="6"/>
       <c r="Q291" s="6"/>
       <c r="R291" s="6"/>
@@ -10182,7 +10301,7 @@
       <c r="L292" s="6"/>
       <c r="M292" s="6"/>
       <c r="N292" s="6"/>
-      <c r="O292" s="16"/>
+      <c r="O292" s="22"/>
       <c r="P292" s="6"/>
       <c r="Q292" s="6"/>
       <c r="R292" s="6"/>
@@ -10209,7 +10328,7 @@
       <c r="L293" s="6"/>
       <c r="M293" s="6"/>
       <c r="N293" s="6"/>
-      <c r="O293" s="16"/>
+      <c r="O293" s="22"/>
       <c r="P293" s="6"/>
       <c r="Q293" s="6"/>
       <c r="R293" s="6"/>
@@ -10236,7 +10355,7 @@
       <c r="L294" s="6"/>
       <c r="M294" s="6"/>
       <c r="N294" s="6"/>
-      <c r="O294" s="16"/>
+      <c r="O294" s="22"/>
       <c r="P294" s="6"/>
       <c r="Q294" s="6"/>
       <c r="R294" s="6"/>
@@ -10263,7 +10382,7 @@
       <c r="L295" s="6"/>
       <c r="M295" s="6"/>
       <c r="N295" s="6"/>
-      <c r="O295" s="16"/>
+      <c r="O295" s="22"/>
       <c r="P295" s="6"/>
       <c r="Q295" s="6"/>
       <c r="R295" s="6"/>
@@ -10290,7 +10409,7 @@
       <c r="L296" s="6"/>
       <c r="M296" s="6"/>
       <c r="N296" s="6"/>
-      <c r="O296" s="16"/>
+      <c r="O296" s="22"/>
       <c r="P296" s="6"/>
       <c r="Q296" s="6"/>
       <c r="R296" s="6"/>
@@ -10317,7 +10436,7 @@
       <c r="L297" s="6"/>
       <c r="M297" s="6"/>
       <c r="N297" s="6"/>
-      <c r="O297" s="16"/>
+      <c r="O297" s="22"/>
       <c r="P297" s="6"/>
       <c r="Q297" s="6"/>
       <c r="R297" s="6"/>
@@ -10344,7 +10463,7 @@
       <c r="L298" s="6"/>
       <c r="M298" s="6"/>
       <c r="N298" s="6"/>
-      <c r="O298" s="16"/>
+      <c r="O298" s="22"/>
       <c r="P298" s="6"/>
       <c r="Q298" s="6"/>
       <c r="R298" s="6"/>
@@ -10371,7 +10490,7 @@
       <c r="L299" s="6"/>
       <c r="M299" s="6"/>
       <c r="N299" s="6"/>
-      <c r="O299" s="16"/>
+      <c r="O299" s="22"/>
       <c r="P299" s="6"/>
       <c r="Q299" s="6"/>
       <c r="R299" s="6"/>
@@ -10398,7 +10517,7 @@
       <c r="L300" s="6"/>
       <c r="M300" s="6"/>
       <c r="N300" s="6"/>
-      <c r="O300" s="16"/>
+      <c r="O300" s="22"/>
       <c r="P300" s="6"/>
       <c r="Q300" s="6"/>
       <c r="R300" s="6"/>
@@ -10425,7 +10544,7 @@
       <c r="L301" s="6"/>
       <c r="M301" s="6"/>
       <c r="N301" s="6"/>
-      <c r="O301" s="16"/>
+      <c r="O301" s="22"/>
       <c r="P301" s="6"/>
       <c r="Q301" s="6"/>
       <c r="R301" s="6"/>
@@ -10452,7 +10571,7 @@
       <c r="L302" s="6"/>
       <c r="M302" s="6"/>
       <c r="N302" s="6"/>
-      <c r="O302" s="16"/>
+      <c r="O302" s="22"/>
       <c r="P302" s="6"/>
       <c r="Q302" s="6"/>
       <c r="R302" s="6"/>
@@ -10479,7 +10598,7 @@
       <c r="L303" s="6"/>
       <c r="M303" s="6"/>
       <c r="N303" s="6"/>
-      <c r="O303" s="16"/>
+      <c r="O303" s="22"/>
       <c r="P303" s="6"/>
       <c r="Q303" s="6"/>
       <c r="R303" s="6"/>
@@ -10506,7 +10625,7 @@
       <c r="L304" s="6"/>
       <c r="M304" s="6"/>
       <c r="N304" s="6"/>
-      <c r="O304" s="16"/>
+      <c r="O304" s="22"/>
       <c r="P304" s="6"/>
       <c r="Q304" s="6"/>
       <c r="R304" s="6"/>
@@ -10533,7 +10652,7 @@
       <c r="L305" s="6"/>
       <c r="M305" s="6"/>
       <c r="N305" s="6"/>
-      <c r="O305" s="16"/>
+      <c r="O305" s="22"/>
       <c r="P305" s="6"/>
       <c r="Q305" s="6"/>
       <c r="R305" s="6"/>
@@ -10560,7 +10679,7 @@
       <c r="L306" s="6"/>
       <c r="M306" s="6"/>
       <c r="N306" s="6"/>
-      <c r="O306" s="16"/>
+      <c r="O306" s="22"/>
       <c r="P306" s="6"/>
       <c r="Q306" s="6"/>
       <c r="R306" s="6"/>
@@ -10587,7 +10706,7 @@
       <c r="L307" s="6"/>
       <c r="M307" s="6"/>
       <c r="N307" s="6"/>
-      <c r="O307" s="16"/>
+      <c r="O307" s="22"/>
       <c r="P307" s="6"/>
       <c r="Q307" s="6"/>
       <c r="R307" s="6"/>
@@ -10614,7 +10733,7 @@
       <c r="L308" s="6"/>
       <c r="M308" s="6"/>
       <c r="N308" s="6"/>
-      <c r="O308" s="16"/>
+      <c r="O308" s="22"/>
       <c r="P308" s="6"/>
       <c r="Q308" s="6"/>
       <c r="R308" s="6"/>
@@ -10641,7 +10760,7 @@
       <c r="L309" s="6"/>
       <c r="M309" s="6"/>
       <c r="N309" s="6"/>
-      <c r="O309" s="16"/>
+      <c r="O309" s="22"/>
       <c r="P309" s="6"/>
       <c r="Q309" s="6"/>
       <c r="R309" s="6"/>
@@ -10668,7 +10787,7 @@
       <c r="L310" s="6"/>
       <c r="M310" s="6"/>
       <c r="N310" s="6"/>
-      <c r="O310" s="16"/>
+      <c r="O310" s="22"/>
       <c r="P310" s="6"/>
       <c r="Q310" s="6"/>
       <c r="R310" s="6"/>
@@ -10695,7 +10814,7 @@
       <c r="L311" s="6"/>
       <c r="M311" s="6"/>
       <c r="N311" s="6"/>
-      <c r="O311" s="16"/>
+      <c r="O311" s="22"/>
       <c r="P311" s="6"/>
       <c r="Q311" s="6"/>
       <c r="R311" s="6"/>
@@ -10722,7 +10841,7 @@
       <c r="L312" s="6"/>
       <c r="M312" s="6"/>
       <c r="N312" s="6"/>
-      <c r="O312" s="16"/>
+      <c r="O312" s="22"/>
       <c r="P312" s="6"/>
       <c r="Q312" s="6"/>
       <c r="R312" s="6"/>
@@ -10749,7 +10868,7 @@
       <c r="L313" s="6"/>
       <c r="M313" s="6"/>
       <c r="N313" s="6"/>
-      <c r="O313" s="16"/>
+      <c r="O313" s="22"/>
       <c r="P313" s="6"/>
       <c r="Q313" s="6"/>
       <c r="R313" s="6"/>
@@ -10776,7 +10895,7 @@
       <c r="L314" s="6"/>
       <c r="M314" s="6"/>
       <c r="N314" s="6"/>
-      <c r="O314" s="16"/>
+      <c r="O314" s="22"/>
       <c r="P314" s="6"/>
       <c r="Q314" s="6"/>
       <c r="R314" s="6"/>
@@ -10803,7 +10922,7 @@
       <c r="L315" s="6"/>
       <c r="M315" s="6"/>
       <c r="N315" s="6"/>
-      <c r="O315" s="16"/>
+      <c r="O315" s="22"/>
       <c r="P315" s="6"/>
       <c r="Q315" s="6"/>
       <c r="R315" s="6"/>
@@ -10830,7 +10949,7 @@
       <c r="L316" s="6"/>
       <c r="M316" s="6"/>
       <c r="N316" s="6"/>
-      <c r="O316" s="16"/>
+      <c r="O316" s="22"/>
       <c r="P316" s="6"/>
       <c r="Q316" s="6"/>
       <c r="R316" s="6"/>
@@ -10857,7 +10976,7 @@
       <c r="L317" s="6"/>
       <c r="M317" s="6"/>
       <c r="N317" s="6"/>
-      <c r="O317" s="16"/>
+      <c r="O317" s="22"/>
       <c r="P317" s="6"/>
       <c r="Q317" s="6"/>
       <c r="R317" s="6"/>
@@ -10884,7 +11003,7 @@
       <c r="L318" s="6"/>
       <c r="M318" s="6"/>
       <c r="N318" s="6"/>
-      <c r="O318" s="16"/>
+      <c r="O318" s="22"/>
       <c r="P318" s="6"/>
       <c r="Q318" s="6"/>
       <c r="R318" s="6"/>
@@ -10911,7 +11030,7 @@
       <c r="L319" s="6"/>
       <c r="M319" s="6"/>
       <c r="N319" s="6"/>
-      <c r="O319" s="16"/>
+      <c r="O319" s="22"/>
       <c r="P319" s="6"/>
       <c r="Q319" s="6"/>
       <c r="R319" s="6"/>
@@ -10938,7 +11057,7 @@
       <c r="L320" s="6"/>
       <c r="M320" s="6"/>
       <c r="N320" s="6"/>
-      <c r="O320" s="16"/>
+      <c r="O320" s="22"/>
       <c r="P320" s="6"/>
       <c r="Q320" s="6"/>
       <c r="R320" s="6"/>
@@ -10965,7 +11084,7 @@
       <c r="L321" s="6"/>
       <c r="M321" s="6"/>
       <c r="N321" s="6"/>
-      <c r="O321" s="16"/>
+      <c r="O321" s="22"/>
       <c r="P321" s="6"/>
       <c r="Q321" s="6"/>
       <c r="R321" s="6"/>
@@ -10992,7 +11111,7 @@
       <c r="L322" s="6"/>
       <c r="M322" s="6"/>
       <c r="N322" s="6"/>
-      <c r="O322" s="16"/>
+      <c r="O322" s="22"/>
       <c r="P322" s="6"/>
       <c r="Q322" s="6"/>
       <c r="R322" s="6"/>
@@ -11019,7 +11138,7 @@
       <c r="L323" s="6"/>
       <c r="M323" s="6"/>
       <c r="N323" s="6"/>
-      <c r="O323" s="16"/>
+      <c r="O323" s="22"/>
       <c r="P323" s="6"/>
       <c r="Q323" s="6"/>
       <c r="R323" s="6"/>
@@ -11046,7 +11165,7 @@
       <c r="L324" s="6"/>
       <c r="M324" s="6"/>
       <c r="N324" s="6"/>
-      <c r="O324" s="16"/>
+      <c r="O324" s="22"/>
       <c r="P324" s="6"/>
       <c r="Q324" s="6"/>
       <c r="R324" s="6"/>
@@ -11073,7 +11192,7 @@
       <c r="L325" s="6"/>
       <c r="M325" s="6"/>
       <c r="N325" s="6"/>
-      <c r="O325" s="16"/>
+      <c r="O325" s="22"/>
       <c r="P325" s="6"/>
       <c r="Q325" s="6"/>
       <c r="R325" s="6"/>
@@ -11100,7 +11219,7 @@
       <c r="L326" s="6"/>
       <c r="M326" s="6"/>
       <c r="N326" s="6"/>
-      <c r="O326" s="16"/>
+      <c r="O326" s="22"/>
       <c r="P326" s="6"/>
       <c r="Q326" s="6"/>
       <c r="R326" s="6"/>
@@ -11127,7 +11246,7 @@
       <c r="L327" s="6"/>
       <c r="M327" s="6"/>
       <c r="N327" s="6"/>
-      <c r="O327" s="16"/>
+      <c r="O327" s="22"/>
       <c r="P327" s="6"/>
       <c r="Q327" s="6"/>
       <c r="R327" s="6"/>
@@ -11154,7 +11273,7 @@
       <c r="L328" s="6"/>
       <c r="M328" s="6"/>
       <c r="N328" s="6"/>
-      <c r="O328" s="16"/>
+      <c r="O328" s="22"/>
       <c r="P328" s="6"/>
       <c r="Q328" s="6"/>
       <c r="R328" s="6"/>
@@ -11181,7 +11300,7 @@
       <c r="L329" s="6"/>
       <c r="M329" s="6"/>
       <c r="N329" s="6"/>
-      <c r="O329" s="16"/>
+      <c r="O329" s="22"/>
       <c r="P329" s="6"/>
       <c r="Q329" s="6"/>
       <c r="R329" s="6"/>
@@ -11208,7 +11327,7 @@
       <c r="L330" s="6"/>
       <c r="M330" s="6"/>
       <c r="N330" s="6"/>
-      <c r="O330" s="16"/>
+      <c r="O330" s="22"/>
       <c r="P330" s="6"/>
       <c r="Q330" s="6"/>
       <c r="R330" s="6"/>
@@ -11235,7 +11354,7 @@
       <c r="L331" s="6"/>
       <c r="M331" s="6"/>
       <c r="N331" s="6"/>
-      <c r="O331" s="16"/>
+      <c r="O331" s="22"/>
       <c r="P331" s="6"/>
       <c r="Q331" s="6"/>
       <c r="R331" s="6"/>
@@ -11262,7 +11381,7 @@
       <c r="L332" s="6"/>
       <c r="M332" s="6"/>
       <c r="N332" s="6"/>
-      <c r="O332" s="16"/>
+      <c r="O332" s="22"/>
       <c r="P332" s="6"/>
       <c r="Q332" s="6"/>
       <c r="R332" s="6"/>
@@ -11289,7 +11408,7 @@
       <c r="L333" s="6"/>
       <c r="M333" s="6"/>
       <c r="N333" s="6"/>
-      <c r="O333" s="16"/>
+      <c r="O333" s="22"/>
       <c r="P333" s="6"/>
       <c r="Q333" s="6"/>
       <c r="R333" s="6"/>
@@ -11316,7 +11435,7 @@
       <c r="L334" s="6"/>
       <c r="M334" s="6"/>
       <c r="N334" s="6"/>
-      <c r="O334" s="16"/>
+      <c r="O334" s="22"/>
       <c r="P334" s="6"/>
       <c r="Q334" s="6"/>
       <c r="R334" s="6"/>
@@ -11343,7 +11462,7 @@
       <c r="L335" s="6"/>
       <c r="M335" s="6"/>
       <c r="N335" s="6"/>
-      <c r="O335" s="16"/>
+      <c r="O335" s="22"/>
       <c r="P335" s="6"/>
       <c r="Q335" s="6"/>
       <c r="R335" s="6"/>
@@ -11370,7 +11489,7 @@
       <c r="L336" s="6"/>
       <c r="M336" s="6"/>
       <c r="N336" s="6"/>
-      <c r="O336" s="16"/>
+      <c r="O336" s="22"/>
       <c r="P336" s="6"/>
       <c r="Q336" s="6"/>
       <c r="R336" s="6"/>
@@ -11397,7 +11516,7 @@
       <c r="L337" s="6"/>
       <c r="M337" s="6"/>
       <c r="N337" s="6"/>
-      <c r="O337" s="16"/>
+      <c r="O337" s="22"/>
       <c r="P337" s="6"/>
       <c r="Q337" s="6"/>
       <c r="R337" s="6"/>
@@ -11424,7 +11543,7 @@
       <c r="L338" s="6"/>
       <c r="M338" s="6"/>
       <c r="N338" s="6"/>
-      <c r="O338" s="16"/>
+      <c r="O338" s="22"/>
       <c r="P338" s="6"/>
       <c r="Q338" s="6"/>
       <c r="R338" s="6"/>
@@ -11451,7 +11570,7 @@
       <c r="L339" s="6"/>
       <c r="M339" s="6"/>
       <c r="N339" s="6"/>
-      <c r="O339" s="16"/>
+      <c r="O339" s="22"/>
       <c r="P339" s="6"/>
       <c r="Q339" s="6"/>
       <c r="R339" s="6"/>
@@ -11478,7 +11597,7 @@
       <c r="L340" s="6"/>
       <c r="M340" s="6"/>
       <c r="N340" s="6"/>
-      <c r="O340" s="16"/>
+      <c r="O340" s="22"/>
       <c r="P340" s="6"/>
       <c r="Q340" s="6"/>
       <c r="R340" s="6"/>
@@ -11505,7 +11624,7 @@
       <c r="L341" s="6"/>
       <c r="M341" s="6"/>
       <c r="N341" s="6"/>
-      <c r="O341" s="16"/>
+      <c r="O341" s="22"/>
       <c r="P341" s="6"/>
       <c r="Q341" s="6"/>
       <c r="R341" s="6"/>
@@ -11532,7 +11651,7 @@
       <c r="L342" s="6"/>
       <c r="M342" s="6"/>
       <c r="N342" s="6"/>
-      <c r="O342" s="16"/>
+      <c r="O342" s="22"/>
       <c r="P342" s="6"/>
       <c r="Q342" s="6"/>
       <c r="R342" s="6"/>
@@ -11559,7 +11678,7 @@
       <c r="L343" s="6"/>
       <c r="M343" s="6"/>
       <c r="N343" s="6"/>
-      <c r="O343" s="16"/>
+      <c r="O343" s="22"/>
       <c r="P343" s="6"/>
       <c r="Q343" s="6"/>
       <c r="R343" s="6"/>
@@ -11586,7 +11705,7 @@
       <c r="L344" s="6"/>
       <c r="M344" s="6"/>
       <c r="N344" s="6"/>
-      <c r="O344" s="16"/>
+      <c r="O344" s="22"/>
       <c r="P344" s="6"/>
       <c r="Q344" s="6"/>
       <c r="R344" s="6"/>
@@ -11613,7 +11732,7 @@
       <c r="L345" s="6"/>
       <c r="M345" s="6"/>
       <c r="N345" s="6"/>
-      <c r="O345" s="16"/>
+      <c r="O345" s="22"/>
       <c r="P345" s="6"/>
       <c r="Q345" s="6"/>
       <c r="R345" s="6"/>
@@ -11640,7 +11759,7 @@
       <c r="L346" s="6"/>
       <c r="M346" s="6"/>
       <c r="N346" s="6"/>
-      <c r="O346" s="16"/>
+      <c r="O346" s="22"/>
       <c r="P346" s="6"/>
       <c r="Q346" s="6"/>
       <c r="R346" s="6"/>
@@ -11667,7 +11786,7 @@
       <c r="L347" s="6"/>
       <c r="M347" s="6"/>
       <c r="N347" s="6"/>
-      <c r="O347" s="16"/>
+      <c r="O347" s="22"/>
       <c r="P347" s="6"/>
       <c r="Q347" s="6"/>
       <c r="R347" s="6"/>
@@ -11694,7 +11813,7 @@
       <c r="L348" s="6"/>
       <c r="M348" s="6"/>
       <c r="N348" s="6"/>
-      <c r="O348" s="16"/>
+      <c r="O348" s="22"/>
       <c r="P348" s="6"/>
       <c r="Q348" s="6"/>
       <c r="R348" s="6"/>
@@ -11721,7 +11840,7 @@
       <c r="L349" s="6"/>
       <c r="M349" s="6"/>
       <c r="N349" s="6"/>
-      <c r="O349" s="16"/>
+      <c r="O349" s="22"/>
       <c r="P349" s="6"/>
       <c r="Q349" s="6"/>
       <c r="R349" s="6"/>
@@ -11748,7 +11867,7 @@
       <c r="L350" s="6"/>
       <c r="M350" s="6"/>
       <c r="N350" s="6"/>
-      <c r="O350" s="16"/>
+      <c r="O350" s="22"/>
       <c r="P350" s="6"/>
       <c r="Q350" s="6"/>
       <c r="R350" s="6"/>
@@ -11775,7 +11894,7 @@
       <c r="L351" s="6"/>
       <c r="M351" s="6"/>
       <c r="N351" s="6"/>
-      <c r="O351" s="16"/>
+      <c r="O351" s="22"/>
       <c r="P351" s="6"/>
       <c r="Q351" s="6"/>
       <c r="R351" s="6"/>
@@ -11802,7 +11921,7 @@
       <c r="L352" s="6"/>
       <c r="M352" s="6"/>
       <c r="N352" s="6"/>
-      <c r="O352" s="16"/>
+      <c r="O352" s="22"/>
       <c r="P352" s="6"/>
       <c r="Q352" s="6"/>
       <c r="R352" s="6"/>
@@ -11829,7 +11948,7 @@
       <c r="L353" s="6"/>
       <c r="M353" s="6"/>
       <c r="N353" s="6"/>
-      <c r="O353" s="16"/>
+      <c r="O353" s="22"/>
       <c r="P353" s="6"/>
       <c r="Q353" s="6"/>
       <c r="R353" s="6"/>
@@ -11856,7 +11975,7 @@
       <c r="L354" s="6"/>
       <c r="M354" s="6"/>
       <c r="N354" s="6"/>
-      <c r="O354" s="16"/>
+      <c r="O354" s="22"/>
       <c r="P354" s="6"/>
       <c r="Q354" s="6"/>
       <c r="R354" s="6"/>
@@ -11883,7 +12002,7 @@
       <c r="L355" s="6"/>
       <c r="M355" s="6"/>
       <c r="N355" s="6"/>
-      <c r="O355" s="16"/>
+      <c r="O355" s="22"/>
       <c r="P355" s="6"/>
       <c r="Q355" s="6"/>
       <c r="R355" s="6"/>
@@ -11910,7 +12029,7 @@
       <c r="L356" s="6"/>
       <c r="M356" s="6"/>
       <c r="N356" s="6"/>
-      <c r="O356" s="16"/>
+      <c r="O356" s="22"/>
       <c r="P356" s="6"/>
       <c r="Q356" s="6"/>
       <c r="R356" s="6"/>
@@ -11937,7 +12056,7 @@
       <c r="L357" s="6"/>
       <c r="M357" s="6"/>
       <c r="N357" s="6"/>
-      <c r="O357" s="16"/>
+      <c r="O357" s="22"/>
       <c r="P357" s="6"/>
       <c r="Q357" s="6"/>
       <c r="R357" s="6"/>
@@ -11964,7 +12083,7 @@
       <c r="L358" s="6"/>
       <c r="M358" s="6"/>
       <c r="N358" s="6"/>
-      <c r="O358" s="16"/>
+      <c r="O358" s="22"/>
       <c r="P358" s="6"/>
       <c r="Q358" s="6"/>
       <c r="R358" s="6"/>
@@ -11991,7 +12110,7 @@
       <c r="L359" s="6"/>
       <c r="M359" s="6"/>
       <c r="N359" s="6"/>
-      <c r="O359" s="16"/>
+      <c r="O359" s="22"/>
       <c r="P359" s="6"/>
       <c r="Q359" s="6"/>
       <c r="R359" s="6"/>
@@ -12018,7 +12137,7 @@
       <c r="L360" s="6"/>
       <c r="M360" s="6"/>
       <c r="N360" s="6"/>
-      <c r="O360" s="16"/>
+      <c r="O360" s="22"/>
       <c r="P360" s="6"/>
       <c r="Q360" s="6"/>
       <c r="R360" s="6"/>
@@ -12045,7 +12164,7 @@
       <c r="L361" s="6"/>
       <c r="M361" s="6"/>
       <c r="N361" s="6"/>
-      <c r="O361" s="16"/>
+      <c r="O361" s="22"/>
       <c r="P361" s="6"/>
       <c r="Q361" s="6"/>
       <c r="R361" s="6"/>
@@ -12072,7 +12191,7 @@
       <c r="L362" s="6"/>
       <c r="M362" s="6"/>
       <c r="N362" s="6"/>
-      <c r="O362" s="16"/>
+      <c r="O362" s="22"/>
       <c r="P362" s="6"/>
       <c r="Q362" s="6"/>
       <c r="R362" s="6"/>
@@ -12099,7 +12218,7 @@
       <c r="L363" s="6"/>
       <c r="M363" s="6"/>
       <c r="N363" s="6"/>
-      <c r="O363" s="16"/>
+      <c r="O363" s="22"/>
       <c r="P363" s="6"/>
       <c r="Q363" s="6"/>
       <c r="R363" s="6"/>
@@ -12126,7 +12245,7 @@
       <c r="L364" s="6"/>
       <c r="M364" s="6"/>
       <c r="N364" s="6"/>
-      <c r="O364" s="16"/>
+      <c r="O364" s="22"/>
       <c r="P364" s="6"/>
       <c r="Q364" s="6"/>
       <c r="R364" s="6"/>
@@ -12153,7 +12272,7 @@
       <c r="L365" s="6"/>
       <c r="M365" s="6"/>
       <c r="N365" s="6"/>
-      <c r="O365" s="16"/>
+      <c r="O365" s="22"/>
       <c r="P365" s="6"/>
       <c r="Q365" s="6"/>
       <c r="R365" s="6"/>
@@ -12180,7 +12299,7 @@
       <c r="L366" s="6"/>
       <c r="M366" s="6"/>
       <c r="N366" s="6"/>
-      <c r="O366" s="16"/>
+      <c r="O366" s="22"/>
       <c r="P366" s="6"/>
       <c r="Q366" s="6"/>
       <c r="R366" s="6"/>
@@ -12207,7 +12326,7 @@
       <c r="L367" s="6"/>
       <c r="M367" s="6"/>
       <c r="N367" s="6"/>
-      <c r="O367" s="16"/>
+      <c r="O367" s="22"/>
       <c r="P367" s="6"/>
       <c r="Q367" s="6"/>
       <c r="R367" s="6"/>
@@ -12234,7 +12353,7 @@
       <c r="L368" s="6"/>
       <c r="M368" s="6"/>
       <c r="N368" s="6"/>
-      <c r="O368" s="16"/>
+      <c r="O368" s="22"/>
       <c r="P368" s="6"/>
       <c r="Q368" s="6"/>
       <c r="R368" s="6"/>
@@ -12261,7 +12380,7 @@
       <c r="L369" s="6"/>
       <c r="M369" s="6"/>
       <c r="N369" s="6"/>
-      <c r="O369" s="16"/>
+      <c r="O369" s="22"/>
       <c r="P369" s="6"/>
       <c r="Q369" s="6"/>
       <c r="R369" s="6"/>
@@ -12288,7 +12407,7 @@
       <c r="L370" s="6"/>
       <c r="M370" s="6"/>
       <c r="N370" s="6"/>
-      <c r="O370" s="16"/>
+      <c r="O370" s="22"/>
       <c r="P370" s="6"/>
       <c r="Q370" s="6"/>
       <c r="R370" s="6"/>
@@ -12315,7 +12434,7 @@
       <c r="L371" s="6"/>
       <c r="M371" s="6"/>
       <c r="N371" s="6"/>
-      <c r="O371" s="16"/>
+      <c r="O371" s="22"/>
       <c r="P371" s="6"/>
       <c r="Q371" s="6"/>
       <c r="R371" s="6"/>
@@ -12342,7 +12461,7 @@
       <c r="L372" s="6"/>
       <c r="M372" s="6"/>
       <c r="N372" s="6"/>
-      <c r="O372" s="16"/>
+      <c r="O372" s="22"/>
       <c r="P372" s="6"/>
       <c r="Q372" s="6"/>
       <c r="R372" s="6"/>
@@ -12369,7 +12488,7 @@
       <c r="L373" s="6"/>
       <c r="M373" s="6"/>
       <c r="N373" s="6"/>
-      <c r="O373" s="16"/>
+      <c r="O373" s="22"/>
       <c r="P373" s="6"/>
       <c r="Q373" s="6"/>
       <c r="R373" s="6"/>
@@ -12396,7 +12515,7 @@
       <c r="L374" s="6"/>
       <c r="M374" s="6"/>
       <c r="N374" s="6"/>
-      <c r="O374" s="16"/>
+      <c r="O374" s="22"/>
       <c r="P374" s="6"/>
       <c r="Q374" s="6"/>
       <c r="R374" s="6"/>
@@ -12423,7 +12542,7 @@
       <c r="L375" s="6"/>
       <c r="M375" s="6"/>
       <c r="N375" s="6"/>
-      <c r="O375" s="16"/>
+      <c r="O375" s="22"/>
       <c r="P375" s="6"/>
       <c r="Q375" s="6"/>
       <c r="R375" s="6"/>
@@ -12450,7 +12569,7 @@
       <c r="L376" s="6"/>
       <c r="M376" s="6"/>
       <c r="N376" s="6"/>
-      <c r="O376" s="16"/>
+      <c r="O376" s="22"/>
       <c r="P376" s="6"/>
       <c r="Q376" s="6"/>
       <c r="R376" s="6"/>
@@ -12477,7 +12596,7 @@
       <c r="L377" s="6"/>
       <c r="M377" s="6"/>
       <c r="N377" s="6"/>
-      <c r="O377" s="16"/>
+      <c r="O377" s="22"/>
       <c r="P377" s="6"/>
       <c r="Q377" s="6"/>
       <c r="R377" s="6"/>
@@ -12504,7 +12623,7 @@
       <c r="L378" s="6"/>
       <c r="M378" s="6"/>
       <c r="N378" s="6"/>
-      <c r="O378" s="16"/>
+      <c r="O378" s="22"/>
       <c r="P378" s="6"/>
       <c r="Q378" s="6"/>
       <c r="R378" s="6"/>
@@ -12531,7 +12650,7 @@
       <c r="L379" s="6"/>
       <c r="M379" s="6"/>
       <c r="N379" s="6"/>
-      <c r="O379" s="16"/>
+      <c r="O379" s="22"/>
       <c r="P379" s="6"/>
       <c r="Q379" s="6"/>
       <c r="R379" s="6"/>
@@ -12558,7 +12677,7 @@
       <c r="L380" s="6"/>
       <c r="M380" s="6"/>
       <c r="N380" s="6"/>
-      <c r="O380" s="16"/>
+      <c r="O380" s="22"/>
       <c r="P380" s="6"/>
       <c r="Q380" s="6"/>
       <c r="R380" s="6"/>
@@ -12585,7 +12704,7 @@
       <c r="L381" s="6"/>
       <c r="M381" s="6"/>
       <c r="N381" s="6"/>
-      <c r="O381" s="16"/>
+      <c r="O381" s="22"/>
       <c r="P381" s="6"/>
       <c r="Q381" s="6"/>
       <c r="R381" s="6"/>
@@ -12612,7 +12731,7 @@
       <c r="L382" s="6"/>
       <c r="M382" s="6"/>
       <c r="N382" s="6"/>
-      <c r="O382" s="16"/>
+      <c r="O382" s="22"/>
       <c r="P382" s="6"/>
       <c r="Q382" s="6"/>
       <c r="R382" s="6"/>
@@ -12639,7 +12758,7 @@
       <c r="L383" s="6"/>
       <c r="M383" s="6"/>
       <c r="N383" s="6"/>
-      <c r="O383" s="16"/>
+      <c r="O383" s="22"/>
       <c r="P383" s="6"/>
       <c r="Q383" s="6"/>
       <c r="R383" s="6"/>
@@ -12666,7 +12785,7 @@
       <c r="L384" s="6"/>
       <c r="M384" s="6"/>
       <c r="N384" s="6"/>
-      <c r="O384" s="16"/>
+      <c r="O384" s="22"/>
       <c r="P384" s="6"/>
       <c r="Q384" s="6"/>
       <c r="R384" s="6"/>
@@ -12693,7 +12812,7 @@
       <c r="L385" s="6"/>
       <c r="M385" s="6"/>
       <c r="N385" s="6"/>
-      <c r="O385" s="16"/>
+      <c r="O385" s="22"/>
       <c r="P385" s="6"/>
       <c r="Q385" s="6"/>
       <c r="R385" s="6"/>
@@ -12720,7 +12839,7 @@
       <c r="L386" s="6"/>
       <c r="M386" s="6"/>
       <c r="N386" s="6"/>
-      <c r="O386" s="16"/>
+      <c r="O386" s="22"/>
       <c r="P386" s="6"/>
       <c r="Q386" s="6"/>
       <c r="R386" s="6"/>
@@ -12747,7 +12866,7 @@
       <c r="L387" s="6"/>
       <c r="M387" s="6"/>
       <c r="N387" s="6"/>
-      <c r="O387" s="16"/>
+      <c r="O387" s="22"/>
       <c r="P387" s="6"/>
       <c r="Q387" s="6"/>
       <c r="R387" s="6"/>
@@ -12774,7 +12893,7 @@
       <c r="L388" s="6"/>
       <c r="M388" s="6"/>
       <c r="N388" s="6"/>
-      <c r="O388" s="16"/>
+      <c r="O388" s="22"/>
       <c r="P388" s="6"/>
       <c r="Q388" s="6"/>
       <c r="R388" s="6"/>
@@ -12801,7 +12920,7 @@
       <c r="L389" s="6"/>
       <c r="M389" s="6"/>
       <c r="N389" s="6"/>
-      <c r="O389" s="16"/>
+      <c r="O389" s="22"/>
       <c r="P389" s="6"/>
       <c r="Q389" s="6"/>
       <c r="R389" s="6"/>
@@ -12828,7 +12947,7 @@
       <c r="L390" s="6"/>
       <c r="M390" s="6"/>
       <c r="N390" s="6"/>
-      <c r="O390" s="16"/>
+      <c r="O390" s="22"/>
       <c r="P390" s="6"/>
       <c r="Q390" s="6"/>
       <c r="R390" s="6"/>
@@ -12855,7 +12974,7 @@
       <c r="L391" s="6"/>
       <c r="M391" s="6"/>
       <c r="N391" s="6"/>
-      <c r="O391" s="16"/>
+      <c r="O391" s="22"/>
       <c r="P391" s="6"/>
       <c r="Q391" s="6"/>
       <c r="R391" s="6"/>
@@ -12882,7 +13001,7 @@
       <c r="L392" s="6"/>
       <c r="M392" s="6"/>
       <c r="N392" s="6"/>
-      <c r="O392" s="16"/>
+      <c r="O392" s="22"/>
       <c r="P392" s="6"/>
       <c r="Q392" s="6"/>
       <c r="R392" s="6"/>
@@ -12909,7 +13028,7 @@
       <c r="L393" s="6"/>
       <c r="M393" s="6"/>
       <c r="N393" s="6"/>
-      <c r="O393" s="16"/>
+      <c r="O393" s="22"/>
       <c r="P393" s="6"/>
       <c r="Q393" s="6"/>
       <c r="R393" s="6"/>
@@ -12936,7 +13055,7 @@
       <c r="L394" s="6"/>
       <c r="M394" s="6"/>
       <c r="N394" s="6"/>
-      <c r="O394" s="16"/>
+      <c r="O394" s="22"/>
       <c r="P394" s="6"/>
       <c r="Q394" s="6"/>
       <c r="R394" s="6"/>
@@ -12963,7 +13082,7 @@
       <c r="L395" s="6"/>
       <c r="M395" s="6"/>
       <c r="N395" s="6"/>
-      <c r="O395" s="16"/>
+      <c r="O395" s="22"/>
       <c r="P395" s="6"/>
       <c r="Q395" s="6"/>
       <c r="R395" s="6"/>
@@ -12990,7 +13109,7 @@
       <c r="L396" s="6"/>
       <c r="M396" s="6"/>
       <c r="N396" s="6"/>
-      <c r="O396" s="16"/>
+      <c r="O396" s="22"/>
       <c r="P396" s="6"/>
       <c r="Q396" s="6"/>
       <c r="R396" s="6"/>
@@ -13017,7 +13136,7 @@
       <c r="L397" s="6"/>
       <c r="M397" s="6"/>
       <c r="N397" s="6"/>
-      <c r="O397" s="16"/>
+      <c r="O397" s="22"/>
       <c r="P397" s="6"/>
       <c r="Q397" s="6"/>
       <c r="R397" s="6"/>
@@ -13044,7 +13163,7 @@
       <c r="L398" s="6"/>
       <c r="M398" s="6"/>
       <c r="N398" s="6"/>
-      <c r="O398" s="16"/>
+      <c r="O398" s="22"/>
       <c r="P398" s="6"/>
       <c r="Q398" s="6"/>
       <c r="R398" s="6"/>
@@ -13071,7 +13190,7 @@
       <c r="L399" s="6"/>
       <c r="M399" s="6"/>
       <c r="N399" s="6"/>
-      <c r="O399" s="16"/>
+      <c r="O399" s="22"/>
       <c r="P399" s="6"/>
       <c r="Q399" s="6"/>
       <c r="R399" s="6"/>
@@ -13098,7 +13217,7 @@
       <c r="L400" s="6"/>
       <c r="M400" s="6"/>
       <c r="N400" s="6"/>
-      <c r="O400" s="16"/>
+      <c r="O400" s="22"/>
       <c r="P400" s="6"/>
       <c r="Q400" s="6"/>
       <c r="R400" s="6"/>
@@ -13125,7 +13244,7 @@
       <c r="L401" s="6"/>
       <c r="M401" s="6"/>
       <c r="N401" s="6"/>
-      <c r="O401" s="16"/>
+      <c r="O401" s="22"/>
       <c r="P401" s="6"/>
       <c r="Q401" s="6"/>
       <c r="R401" s="6"/>
@@ -13152,7 +13271,7 @@
       <c r="L402" s="6"/>
       <c r="M402" s="6"/>
       <c r="N402" s="6"/>
-      <c r="O402" s="16"/>
+      <c r="O402" s="22"/>
       <c r="P402" s="6"/>
       <c r="Q402" s="6"/>
       <c r="R402" s="6"/>
@@ -13179,7 +13298,7 @@
       <c r="L403" s="6"/>
       <c r="M403" s="6"/>
       <c r="N403" s="6"/>
-      <c r="O403" s="16"/>
+      <c r="O403" s="22"/>
       <c r="P403" s="6"/>
       <c r="Q403" s="6"/>
       <c r="R403" s="6"/>
@@ -13206,7 +13325,7 @@
       <c r="L404" s="6"/>
       <c r="M404" s="6"/>
       <c r="N404" s="6"/>
-      <c r="O404" s="16"/>
+      <c r="O404" s="22"/>
       <c r="P404" s="6"/>
       <c r="Q404" s="6"/>
       <c r="R404" s="6"/>
@@ -13233,7 +13352,7 @@
       <c r="L405" s="6"/>
       <c r="M405" s="6"/>
       <c r="N405" s="6"/>
-      <c r="O405" s="16"/>
+      <c r="O405" s="22"/>
       <c r="P405" s="6"/>
       <c r="Q405" s="6"/>
       <c r="R405" s="6"/>
@@ -13260,7 +13379,7 @@
       <c r="L406" s="6"/>
       <c r="M406" s="6"/>
       <c r="N406" s="6"/>
-      <c r="O406" s="16"/>
+      <c r="O406" s="22"/>
       <c r="P406" s="6"/>
       <c r="Q406" s="6"/>
       <c r="R406" s="6"/>
@@ -13287,7 +13406,7 @@
       <c r="L407" s="6"/>
       <c r="M407" s="6"/>
       <c r="N407" s="6"/>
-      <c r="O407" s="16"/>
+      <c r="O407" s="22"/>
       <c r="P407" s="6"/>
       <c r="Q407" s="6"/>
       <c r="R407" s="6"/>
@@ -13314,7 +13433,7 @@
       <c r="L408" s="6"/>
       <c r="M408" s="6"/>
       <c r="N408" s="6"/>
-      <c r="O408" s="16"/>
+      <c r="O408" s="22"/>
       <c r="P408" s="6"/>
       <c r="Q408" s="6"/>
       <c r="R408" s="6"/>
@@ -13341,7 +13460,7 @@
       <c r="L409" s="6"/>
       <c r="M409" s="6"/>
       <c r="N409" s="6"/>
-      <c r="O409" s="16"/>
+      <c r="O409" s="22"/>
       <c r="P409" s="6"/>
       <c r="Q409" s="6"/>
       <c r="R409" s="6"/>
@@ -13368,7 +13487,7 @@
       <c r="L410" s="6"/>
       <c r="M410" s="6"/>
       <c r="N410" s="6"/>
-      <c r="O410" s="16"/>
+      <c r="O410" s="22"/>
       <c r="P410" s="6"/>
       <c r="Q410" s="6"/>
       <c r="R410" s="6"/>
@@ -13395,7 +13514,7 @@
       <c r="L411" s="6"/>
       <c r="M411" s="6"/>
       <c r="N411" s="6"/>
-      <c r="O411" s="16"/>
+      <c r="O411" s="22"/>
       <c r="P411" s="6"/>
       <c r="Q411" s="6"/>
       <c r="R411" s="6"/>
@@ -13422,7 +13541,7 @@
       <c r="L412" s="6"/>
       <c r="M412" s="6"/>
       <c r="N412" s="6"/>
-      <c r="O412" s="16"/>
+      <c r="O412" s="22"/>
       <c r="P412" s="6"/>
       <c r="Q412" s="6"/>
       <c r="R412" s="6"/>
@@ -13449,7 +13568,7 @@
       <c r="L413" s="6"/>
       <c r="M413" s="6"/>
       <c r="N413" s="6"/>
-      <c r="O413" s="16"/>
+      <c r="O413" s="22"/>
       <c r="P413" s="6"/>
       <c r="Q413" s="6"/>
       <c r="R413" s="6"/>
@@ -13476,7 +13595,7 @@
       <c r="L414" s="6"/>
       <c r="M414" s="6"/>
       <c r="N414" s="6"/>
-      <c r="O414" s="16"/>
+      <c r="O414" s="22"/>
       <c r="P414" s="6"/>
       <c r="Q414" s="6"/>
       <c r="R414" s="6"/>
@@ -13503,7 +13622,7 @@
       <c r="L415" s="6"/>
       <c r="M415" s="6"/>
       <c r="N415" s="6"/>
-      <c r="O415" s="16"/>
+      <c r="O415" s="22"/>
       <c r="P415" s="6"/>
       <c r="Q415" s="6"/>
       <c r="R415" s="6"/>
@@ -13530,7 +13649,7 @@
       <c r="L416" s="6"/>
       <c r="M416" s="6"/>
       <c r="N416" s="6"/>
-      <c r="O416" s="16"/>
+      <c r="O416" s="22"/>
       <c r="P416" s="6"/>
       <c r="Q416" s="6"/>
       <c r="R416" s="6"/>
@@ -13557,7 +13676,7 @@
       <c r="L417" s="6"/>
       <c r="M417" s="6"/>
       <c r="N417" s="6"/>
-      <c r="O417" s="16"/>
+      <c r="O417" s="22"/>
       <c r="P417" s="6"/>
       <c r="Q417" s="6"/>
       <c r="R417" s="6"/>
@@ -13584,7 +13703,7 @@
       <c r="L418" s="6"/>
       <c r="M418" s="6"/>
       <c r="N418" s="6"/>
-      <c r="O418" s="16"/>
+      <c r="O418" s="22"/>
       <c r="P418" s="6"/>
       <c r="Q418" s="6"/>
       <c r="R418" s="6"/>
@@ -13611,7 +13730,7 @@
       <c r="L419" s="6"/>
       <c r="M419" s="6"/>
       <c r="N419" s="6"/>
-      <c r="O419" s="16"/>
+      <c r="O419" s="22"/>
       <c r="P419" s="6"/>
       <c r="Q419" s="6"/>
       <c r="R419" s="6"/>
@@ -13638,7 +13757,7 @@
       <c r="L420" s="6"/>
       <c r="M420" s="6"/>
       <c r="N420" s="6"/>
-      <c r="O420" s="16"/>
+      <c r="O420" s="22"/>
       <c r="P420" s="6"/>
       <c r="Q420" s="6"/>
       <c r="R420" s="6"/>
@@ -13665,7 +13784,7 @@
       <c r="L421" s="6"/>
       <c r="M421" s="6"/>
       <c r="N421" s="6"/>
-      <c r="O421" s="16"/>
+      <c r="O421" s="22"/>
       <c r="P421" s="6"/>
       <c r="Q421" s="6"/>
       <c r="R421" s="6"/>
@@ -13692,7 +13811,7 @@
       <c r="L422" s="6"/>
       <c r="M422" s="6"/>
       <c r="N422" s="6"/>
-      <c r="O422" s="16"/>
+      <c r="O422" s="22"/>
       <c r="P422" s="6"/>
       <c r="Q422" s="6"/>
       <c r="R422" s="6"/>
@@ -13719,7 +13838,7 @@
       <c r="L423" s="6"/>
       <c r="M423" s="6"/>
       <c r="N423" s="6"/>
-      <c r="O423" s="16"/>
+      <c r="O423" s="22"/>
       <c r="P423" s="6"/>
       <c r="Q423" s="6"/>
       <c r="R423" s="6"/>
@@ -13746,7 +13865,7 @@
       <c r="L424" s="6"/>
       <c r="M424" s="6"/>
       <c r="N424" s="6"/>
-      <c r="O424" s="16"/>
+      <c r="O424" s="22"/>
       <c r="P424" s="6"/>
       <c r="Q424" s="6"/>
       <c r="R424" s="6"/>
@@ -13773,7 +13892,7 @@
       <c r="L425" s="6"/>
       <c r="M425" s="6"/>
       <c r="N425" s="6"/>
-      <c r="O425" s="16"/>
+      <c r="O425" s="22"/>
       <c r="P425" s="6"/>
       <c r="Q425" s="6"/>
       <c r="R425" s="6"/>
@@ -13800,7 +13919,7 @@
       <c r="L426" s="6"/>
       <c r="M426" s="6"/>
       <c r="N426" s="6"/>
-      <c r="O426" s="16"/>
+      <c r="O426" s="22"/>
       <c r="P426" s="6"/>
       <c r="Q426" s="6"/>
       <c r="R426" s="6"/>
@@ -13827,7 +13946,7 @@
       <c r="L427" s="6"/>
       <c r="M427" s="6"/>
       <c r="N427" s="6"/>
-      <c r="O427" s="16"/>
+      <c r="O427" s="22"/>
       <c r="P427" s="6"/>
       <c r="Q427" s="6"/>
       <c r="R427" s="6"/>
@@ -13854,7 +13973,7 @@
       <c r="L428" s="6"/>
       <c r="M428" s="6"/>
       <c r="N428" s="6"/>
-      <c r="O428" s="16"/>
+      <c r="O428" s="22"/>
       <c r="P428" s="6"/>
       <c r="Q428" s="6"/>
       <c r="R428" s="6"/>
@@ -13881,7 +14000,7 @@
       <c r="L429" s="6"/>
       <c r="M429" s="6"/>
       <c r="N429" s="6"/>
-      <c r="O429" s="16"/>
+      <c r="O429" s="22"/>
       <c r="P429" s="6"/>
       <c r="Q429" s="6"/>
       <c r="R429" s="6"/>
@@ -13908,7 +14027,7 @@
       <c r="L430" s="6"/>
       <c r="M430" s="6"/>
       <c r="N430" s="6"/>
-      <c r="O430" s="16"/>
+      <c r="O430" s="22"/>
       <c r="P430" s="6"/>
       <c r="Q430" s="6"/>
       <c r="R430" s="6"/>
@@ -13935,7 +14054,7 @@
       <c r="L431" s="6"/>
       <c r="M431" s="6"/>
       <c r="N431" s="6"/>
-      <c r="O431" s="16"/>
+      <c r="O431" s="22"/>
       <c r="P431" s="6"/>
       <c r="Q431" s="6"/>
       <c r="R431" s="6"/>
@@ -13962,7 +14081,7 @@
       <c r="L432" s="6"/>
       <c r="M432" s="6"/>
       <c r="N432" s="6"/>
-      <c r="O432" s="16"/>
+      <c r="O432" s="22"/>
       <c r="P432" s="6"/>
       <c r="Q432" s="6"/>
       <c r="R432" s="6"/>
@@ -13989,7 +14108,7 @@
       <c r="L433" s="6"/>
       <c r="M433" s="6"/>
       <c r="N433" s="6"/>
-      <c r="O433" s="16"/>
+      <c r="O433" s="22"/>
       <c r="P433" s="6"/>
       <c r="Q433" s="6"/>
       <c r="R433" s="6"/>
@@ -14016,7 +14135,7 @@
       <c r="L434" s="6"/>
       <c r="M434" s="6"/>
       <c r="N434" s="6"/>
-      <c r="O434" s="16"/>
+      <c r="O434" s="22"/>
       <c r="P434" s="6"/>
       <c r="Q434" s="6"/>
       <c r="R434" s="6"/>
@@ -14043,7 +14162,7 @@
       <c r="L435" s="6"/>
       <c r="M435" s="6"/>
       <c r="N435" s="6"/>
-      <c r="O435" s="16"/>
+      <c r="O435" s="22"/>
       <c r="P435" s="6"/>
       <c r="Q435" s="6"/>
       <c r="R435" s="6"/>
@@ -14070,7 +14189,7 @@
       <c r="L436" s="6"/>
       <c r="M436" s="6"/>
       <c r="N436" s="6"/>
-      <c r="O436" s="16"/>
+      <c r="O436" s="22"/>
       <c r="P436" s="6"/>
       <c r="Q436" s="6"/>
       <c r="R436" s="6"/>
@@ -14097,7 +14216,7 @@
       <c r="L437" s="6"/>
       <c r="M437" s="6"/>
       <c r="N437" s="6"/>
-      <c r="O437" s="16"/>
+      <c r="O437" s="22"/>
       <c r="P437" s="6"/>
       <c r="Q437" s="6"/>
       <c r="R437" s="6"/>
@@ -14124,7 +14243,7 @@
       <c r="L438" s="6"/>
       <c r="M438" s="6"/>
       <c r="N438" s="6"/>
-      <c r="O438" s="16"/>
+      <c r="O438" s="22"/>
       <c r="P438" s="6"/>
       <c r="Q438" s="6"/>
       <c r="R438" s="6"/>
@@ -14151,7 +14270,7 @@
       <c r="L439" s="6"/>
       <c r="M439" s="6"/>
       <c r="N439" s="6"/>
-      <c r="O439" s="16"/>
+      <c r="O439" s="22"/>
       <c r="P439" s="6"/>
       <c r="Q439" s="6"/>
       <c r="R439" s="6"/>
@@ -14178,7 +14297,7 @@
       <c r="L440" s="6"/>
       <c r="M440" s="6"/>
       <c r="N440" s="6"/>
-      <c r="O440" s="16"/>
+      <c r="O440" s="22"/>
       <c r="P440" s="6"/>
       <c r="Q440" s="6"/>
       <c r="R440" s="6"/>
@@ -14205,7 +14324,7 @@
       <c r="L441" s="6"/>
       <c r="M441" s="6"/>
       <c r="N441" s="6"/>
-      <c r="O441" s="16"/>
+      <c r="O441" s="22"/>
       <c r="P441" s="6"/>
       <c r="Q441" s="6"/>
       <c r="R441" s="6"/>
@@ -14232,7 +14351,7 @@
       <c r="L442" s="6"/>
       <c r="M442" s="6"/>
       <c r="N442" s="6"/>
-      <c r="O442" s="16"/>
+      <c r="O442" s="22"/>
       <c r="P442" s="6"/>
       <c r="Q442" s="6"/>
       <c r="R442" s="6"/>
@@ -14259,7 +14378,7 @@
       <c r="L443" s="6"/>
       <c r="M443" s="6"/>
       <c r="N443" s="6"/>
-      <c r="O443" s="16"/>
+      <c r="O443" s="22"/>
       <c r="P443" s="6"/>
       <c r="Q443" s="6"/>
       <c r="R443" s="6"/>
@@ -14286,7 +14405,7 @@
       <c r="L444" s="6"/>
       <c r="M444" s="6"/>
       <c r="N444" s="6"/>
-      <c r="O444" s="16"/>
+      <c r="O444" s="22"/>
       <c r="P444" s="6"/>
       <c r="Q444" s="6"/>
       <c r="R444" s="6"/>
@@ -14313,7 +14432,7 @@
       <c r="L445" s="6"/>
       <c r="M445" s="6"/>
       <c r="N445" s="6"/>
-      <c r="O445" s="16"/>
+      <c r="O445" s="22"/>
       <c r="P445" s="6"/>
       <c r="Q445" s="6"/>
       <c r="R445" s="6"/>
@@ -14340,7 +14459,7 @@
       <c r="L446" s="6"/>
       <c r="M446" s="6"/>
       <c r="N446" s="6"/>
-      <c r="O446" s="16"/>
+      <c r="O446" s="22"/>
       <c r="P446" s="6"/>
       <c r="Q446" s="6"/>
       <c r="R446" s="6"/>
@@ -14367,7 +14486,7 @@
       <c r="L447" s="6"/>
       <c r="M447" s="6"/>
       <c r="N447" s="6"/>
-      <c r="O447" s="16"/>
+      <c r="O447" s="22"/>
       <c r="P447" s="6"/>
       <c r="Q447" s="6"/>
       <c r="R447" s="6"/>
@@ -14394,7 +14513,7 @@
       <c r="L448" s="6"/>
       <c r="M448" s="6"/>
       <c r="N448" s="6"/>
-      <c r="O448" s="16"/>
+      <c r="O448" s="22"/>
       <c r="P448" s="6"/>
       <c r="Q448" s="6"/>
       <c r="R448" s="6"/>
@@ -14421,7 +14540,7 @@
       <c r="L449" s="6"/>
       <c r="M449" s="6"/>
       <c r="N449" s="6"/>
-      <c r="O449" s="16"/>
+      <c r="O449" s="22"/>
       <c r="P449" s="6"/>
       <c r="Q449" s="6"/>
       <c r="R449" s="6"/>
@@ -14448,7 +14567,7 @@
       <c r="L450" s="6"/>
       <c r="M450" s="6"/>
       <c r="N450" s="6"/>
-      <c r="O450" s="16"/>
+      <c r="O450" s="22"/>
       <c r="P450" s="6"/>
       <c r="Q450" s="6"/>
       <c r="R450" s="6"/>
@@ -14475,7 +14594,7 @@
       <c r="L451" s="6"/>
       <c r="M451" s="6"/>
       <c r="N451" s="6"/>
-      <c r="O451" s="16"/>
+      <c r="O451" s="22"/>
       <c r="P451" s="6"/>
       <c r="Q451" s="6"/>
       <c r="R451" s="6"/>
@@ -14502,7 +14621,7 @@
       <c r="L452" s="6"/>
       <c r="M452" s="6"/>
       <c r="N452" s="6"/>
-      <c r="O452" s="16"/>
+      <c r="O452" s="22"/>
       <c r="P452" s="6"/>
       <c r="Q452" s="6"/>
       <c r="R452" s="6"/>
@@ -14529,7 +14648,7 @@
       <c r="L453" s="6"/>
       <c r="M453" s="6"/>
       <c r="N453" s="6"/>
-      <c r="O453" s="16"/>
+      <c r="O453" s="22"/>
       <c r="P453" s="6"/>
       <c r="Q453" s="6"/>
       <c r="R453" s="6"/>
@@ -14556,7 +14675,7 @@
       <c r="L454" s="6"/>
       <c r="M454" s="6"/>
       <c r="N454" s="6"/>
-      <c r="O454" s="16"/>
+      <c r="O454" s="22"/>
       <c r="P454" s="6"/>
       <c r="Q454" s="6"/>
       <c r="R454" s="6"/>
@@ -14583,7 +14702,7 @@
       <c r="L455" s="6"/>
       <c r="M455" s="6"/>
       <c r="N455" s="6"/>
-      <c r="O455" s="16"/>
+      <c r="O455" s="22"/>
       <c r="P455" s="6"/>
       <c r="Q455" s="6"/>
       <c r="R455" s="6"/>
@@ -14610,7 +14729,7 @@
       <c r="L456" s="6"/>
       <c r="M456" s="6"/>
       <c r="N456" s="6"/>
-      <c r="O456" s="16"/>
+      <c r="O456" s="22"/>
       <c r="P456" s="6"/>
       <c r="Q456" s="6"/>
       <c r="R456" s="6"/>
@@ -14637,7 +14756,7 @@
       <c r="L457" s="6"/>
       <c r="M457" s="6"/>
       <c r="N457" s="6"/>
-      <c r="O457" s="16"/>
+      <c r="O457" s="22"/>
       <c r="P457" s="6"/>
       <c r="Q457" s="6"/>
       <c r="R457" s="6"/>
@@ -14664,7 +14783,7 @@
       <c r="L458" s="6"/>
       <c r="M458" s="6"/>
       <c r="N458" s="6"/>
-      <c r="O458" s="16"/>
+      <c r="O458" s="22"/>
       <c r="P458" s="6"/>
       <c r="Q458" s="6"/>
       <c r="R458" s="6"/>
@@ -14691,7 +14810,7 @@
       <c r="L459" s="6"/>
       <c r="M459" s="6"/>
       <c r="N459" s="6"/>
-      <c r="O459" s="16"/>
+      <c r="O459" s="22"/>
       <c r="P459" s="6"/>
       <c r="Q459" s="6"/>
       <c r="R459" s="6"/>
@@ -14718,7 +14837,7 @@
       <c r="L460" s="6"/>
       <c r="M460" s="6"/>
       <c r="N460" s="6"/>
-      <c r="O460" s="16"/>
+      <c r="O460" s="22"/>
       <c r="P460" s="6"/>
       <c r="Q460" s="6"/>
       <c r="R460" s="6"/>
@@ -14745,7 +14864,7 @@
       <c r="L461" s="6"/>
       <c r="M461" s="6"/>
       <c r="N461" s="6"/>
-      <c r="O461" s="16"/>
+      <c r="O461" s="22"/>
       <c r="P461" s="6"/>
       <c r="Q461" s="6"/>
       <c r="R461" s="6"/>
@@ -14772,7 +14891,7 @@
       <c r="L462" s="6"/>
       <c r="M462" s="6"/>
       <c r="N462" s="6"/>
-      <c r="O462" s="16"/>
+      <c r="O462" s="22"/>
       <c r="P462" s="6"/>
       <c r="Q462" s="6"/>
       <c r="R462" s="6"/>
@@ -14799,7 +14918,7 @@
       <c r="L463" s="6"/>
       <c r="M463" s="6"/>
       <c r="N463" s="6"/>
-      <c r="O463" s="16"/>
+      <c r="O463" s="22"/>
       <c r="P463" s="6"/>
       <c r="Q463" s="6"/>
       <c r="R463" s="6"/>
@@ -14826,7 +14945,7 @@
       <c r="L464" s="6"/>
       <c r="M464" s="6"/>
       <c r="N464" s="6"/>
-      <c r="O464" s="16"/>
+      <c r="O464" s="22"/>
       <c r="P464" s="6"/>
       <c r="Q464" s="6"/>
       <c r="R464" s="6"/>
@@ -14853,7 +14972,7 @@
       <c r="L465" s="6"/>
       <c r="M465" s="6"/>
       <c r="N465" s="6"/>
-      <c r="O465" s="16"/>
+      <c r="O465" s="22"/>
       <c r="P465" s="6"/>
       <c r="Q465" s="6"/>
       <c r="R465" s="6"/>
@@ -14880,7 +14999,7 @@
       <c r="L466" s="6"/>
       <c r="M466" s="6"/>
       <c r="N466" s="6"/>
-      <c r="O466" s="16"/>
+      <c r="O466" s="22"/>
       <c r="P466" s="6"/>
       <c r="Q466" s="6"/>
       <c r="R466" s="6"/>
@@ -14907,7 +15026,7 @@
       <c r="L467" s="6"/>
       <c r="M467" s="6"/>
       <c r="N467" s="6"/>
-      <c r="O467" s="16"/>
+      <c r="O467" s="22"/>
       <c r="P467" s="6"/>
       <c r="Q467" s="6"/>
       <c r="R467" s="6"/>
@@ -14934,7 +15053,7 @@
       <c r="L468" s="6"/>
       <c r="M468" s="6"/>
       <c r="N468" s="6"/>
-      <c r="O468" s="16"/>
+      <c r="O468" s="22"/>
       <c r="P468" s="6"/>
       <c r="Q468" s="6"/>
       <c r="R468" s="6"/>
@@ -14961,7 +15080,7 @@
       <c r="L469" s="6"/>
       <c r="M469" s="6"/>
       <c r="N469" s="6"/>
-      <c r="O469" s="16"/>
+      <c r="O469" s="22"/>
       <c r="P469" s="6"/>
       <c r="Q469" s="6"/>
       <c r="R469" s="6"/>
@@ -14988,7 +15107,7 @@
       <c r="L470" s="6"/>
       <c r="M470" s="6"/>
       <c r="N470" s="6"/>
-      <c r="O470" s="16"/>
+      <c r="O470" s="22"/>
       <c r="P470" s="6"/>
       <c r="Q470" s="6"/>
       <c r="R470" s="6"/>
@@ -15015,7 +15134,7 @@
       <c r="L471" s="6"/>
       <c r="M471" s="6"/>
       <c r="N471" s="6"/>
-      <c r="O471" s="16"/>
+      <c r="O471" s="22"/>
       <c r="P471" s="6"/>
       <c r="Q471" s="6"/>
       <c r="R471" s="6"/>
@@ -15042,7 +15161,7 @@
       <c r="L472" s="6"/>
       <c r="M472" s="6"/>
       <c r="N472" s="6"/>
-      <c r="O472" s="16"/>
+      <c r="O472" s="22"/>
       <c r="P472" s="6"/>
       <c r="Q472" s="6"/>
       <c r="R472" s="6"/>
@@ -15069,7 +15188,7 @@
       <c r="L473" s="6"/>
       <c r="M473" s="6"/>
       <c r="N473" s="6"/>
-      <c r="O473" s="16"/>
+      <c r="O473" s="22"/>
       <c r="P473" s="6"/>
       <c r="Q473" s="6"/>
       <c r="R473" s="6"/>
@@ -15096,7 +15215,7 @@
       <c r="L474" s="6"/>
       <c r="M474" s="6"/>
       <c r="N474" s="6"/>
-      <c r="O474" s="16"/>
+      <c r="O474" s="22"/>
       <c r="P474" s="6"/>
       <c r="Q474" s="6"/>
       <c r="R474" s="6"/>
@@ -15123,7 +15242,7 @@
       <c r="L475" s="6"/>
       <c r="M475" s="6"/>
       <c r="N475" s="6"/>
-      <c r="O475" s="16"/>
+      <c r="O475" s="22"/>
       <c r="P475" s="6"/>
       <c r="Q475" s="6"/>
       <c r="R475" s="6"/>
@@ -15150,7 +15269,7 @@
       <c r="L476" s="6"/>
       <c r="M476" s="6"/>
       <c r="N476" s="6"/>
-      <c r="O476" s="16"/>
+      <c r="O476" s="22"/>
       <c r="P476" s="6"/>
       <c r="Q476" s="6"/>
       <c r="R476" s="6"/>
@@ -15177,7 +15296,7 @@
       <c r="L477" s="6"/>
       <c r="M477" s="6"/>
       <c r="N477" s="6"/>
-      <c r="O477" s="16"/>
+      <c r="O477" s="22"/>
       <c r="P477" s="6"/>
       <c r="Q477" s="6"/>
       <c r="R477" s="6"/>
@@ -15204,7 +15323,7 @@
       <c r="L478" s="6"/>
       <c r="M478" s="6"/>
       <c r="N478" s="6"/>
-      <c r="O478" s="16"/>
+      <c r="O478" s="22"/>
       <c r="P478" s="6"/>
       <c r="Q478" s="6"/>
       <c r="R478" s="6"/>
@@ -15231,7 +15350,7 @@
       <c r="L479" s="6"/>
       <c r="M479" s="6"/>
       <c r="N479" s="6"/>
-      <c r="O479" s="16"/>
+      <c r="O479" s="22"/>
       <c r="P479" s="6"/>
       <c r="Q479" s="6"/>
       <c r="R479" s="6"/>
@@ -15258,7 +15377,7 @@
       <c r="L480" s="6"/>
       <c r="M480" s="6"/>
       <c r="N480" s="6"/>
-      <c r="O480" s="16"/>
+      <c r="O480" s="22"/>
       <c r="P480" s="6"/>
       <c r="Q480" s="6"/>
       <c r="R480" s="6"/>
@@ -15285,7 +15404,7 @@
       <c r="L481" s="6"/>
       <c r="M481" s="6"/>
       <c r="N481" s="6"/>
-      <c r="O481" s="16"/>
+      <c r="O481" s="22"/>
       <c r="P481" s="6"/>
       <c r="Q481" s="6"/>
       <c r="R481" s="6"/>
@@ -15312,7 +15431,7 @@
       <c r="L482" s="6"/>
       <c r="M482" s="6"/>
       <c r="N482" s="6"/>
-      <c r="O482" s="16"/>
+      <c r="O482" s="22"/>
       <c r="P482" s="6"/>
       <c r="Q482" s="6"/>
       <c r="R482" s="6"/>
@@ -15339,7 +15458,7 @@
       <c r="L483" s="6"/>
       <c r="M483" s="6"/>
       <c r="N483" s="6"/>
-      <c r="O483" s="16"/>
+      <c r="O483" s="22"/>
       <c r="P483" s="6"/>
       <c r="Q483" s="6"/>
       <c r="R483" s="6"/>
@@ -15366,7 +15485,7 @@
       <c r="L484" s="6"/>
       <c r="M484" s="6"/>
       <c r="N484" s="6"/>
-      <c r="O484" s="16"/>
+      <c r="O484" s="22"/>
       <c r="P484" s="6"/>
       <c r="Q484" s="6"/>
       <c r="R484" s="6"/>
@@ -15393,7 +15512,7 @@
       <c r="L485" s="6"/>
       <c r="M485" s="6"/>
       <c r="N485" s="6"/>
-      <c r="O485" s="16"/>
+      <c r="O485" s="22"/>
       <c r="P485" s="6"/>
       <c r="Q485" s="6"/>
       <c r="R485" s="6"/>
@@ -15420,7 +15539,7 @@
       <c r="L486" s="6"/>
       <c r="M486" s="6"/>
       <c r="N486" s="6"/>
-      <c r="O486" s="16"/>
+      <c r="O486" s="22"/>
       <c r="P486" s="6"/>
       <c r="Q486" s="6"/>
       <c r="R486" s="6"/>
@@ -15447,7 +15566,7 @@
       <c r="L487" s="6"/>
       <c r="M487" s="6"/>
       <c r="N487" s="6"/>
-      <c r="O487" s="16"/>
+      <c r="O487" s="22"/>
       <c r="P487" s="6"/>
       <c r="Q487" s="6"/>
       <c r="R487" s="6"/>
@@ -15474,7 +15593,7 @@
       <c r="L488" s="6"/>
       <c r="M488" s="6"/>
       <c r="N488" s="6"/>
-      <c r="O488" s="16"/>
+      <c r="O488" s="22"/>
       <c r="P488" s="6"/>
       <c r="Q488" s="6"/>
       <c r="R488" s="6"/>
@@ -15501,7 +15620,7 @@
       <c r="L489" s="6"/>
       <c r="M489" s="6"/>
       <c r="N489" s="6"/>
-      <c r="O489" s="16"/>
+      <c r="O489" s="22"/>
       <c r="P489" s="6"/>
       <c r="Q489" s="6"/>
       <c r="R489" s="6"/>
@@ -15528,7 +15647,7 @@
       <c r="L490" s="6"/>
       <c r="M490" s="6"/>
       <c r="N490" s="6"/>
-      <c r="O490" s="16"/>
+      <c r="O490" s="22"/>
       <c r="P490" s="6"/>
       <c r="Q490" s="6"/>
       <c r="R490" s="6"/>
@@ -15555,7 +15674,7 @@
       <c r="L491" s="6"/>
       <c r="M491" s="6"/>
       <c r="N491" s="6"/>
-      <c r="O491" s="16"/>
+      <c r="O491" s="22"/>
       <c r="P491" s="6"/>
       <c r="Q491" s="6"/>
       <c r="R491" s="6"/>
@@ -15582,7 +15701,7 @@
       <c r="L492" s="6"/>
       <c r="M492" s="6"/>
       <c r="N492" s="6"/>
-      <c r="O492" s="16"/>
+      <c r="O492" s="22"/>
       <c r="P492" s="6"/>
       <c r="Q492" s="6"/>
       <c r="R492" s="6"/>
@@ -15609,7 +15728,7 @@
       <c r="L493" s="6"/>
       <c r="M493" s="6"/>
       <c r="N493" s="6"/>
-      <c r="O493" s="16"/>
+      <c r="O493" s="22"/>
       <c r="P493" s="6"/>
       <c r="Q493" s="6"/>
       <c r="R493" s="6"/>
@@ -15636,7 +15755,7 @@
       <c r="L494" s="6"/>
       <c r="M494" s="6"/>
       <c r="N494" s="6"/>
-      <c r="O494" s="16"/>
+      <c r="O494" s="22"/>
       <c r="P494" s="6"/>
       <c r="Q494" s="6"/>
       <c r="R494" s="6"/>
@@ -15663,7 +15782,7 @@
       <c r="L495" s="6"/>
       <c r="M495" s="6"/>
       <c r="N495" s="6"/>
-      <c r="O495" s="16"/>
+      <c r="O495" s="22"/>
       <c r="P495" s="6"/>
       <c r="Q495" s="6"/>
       <c r="R495" s="6"/>
@@ -15690,7 +15809,7 @@
       <c r="L496" s="6"/>
       <c r="M496" s="6"/>
       <c r="N496" s="6"/>
-      <c r="O496" s="16"/>
+      <c r="O496" s="22"/>
       <c r="P496" s="6"/>
       <c r="Q496" s="6"/>
       <c r="R496" s="6"/>
@@ -15717,7 +15836,7 @@
       <c r="L497" s="6"/>
       <c r="M497" s="6"/>
       <c r="N497" s="6"/>
-      <c r="O497" s="16"/>
+      <c r="O497" s="22"/>
       <c r="P497" s="6"/>
       <c r="Q497" s="6"/>
       <c r="R497" s="6"/>
@@ -15744,7 +15863,7 @@
       <c r="L498" s="6"/>
       <c r="M498" s="6"/>
       <c r="N498" s="6"/>
-      <c r="O498" s="16"/>
+      <c r="O498" s="22"/>
       <c r="P498" s="6"/>
       <c r="Q498" s="6"/>
       <c r="R498" s="6"/>
@@ -15771,7 +15890,7 @@
       <c r="L499" s="6"/>
       <c r="M499" s="6"/>
       <c r="N499" s="6"/>
-      <c r="O499" s="16"/>
+      <c r="O499" s="22"/>
       <c r="P499" s="6"/>
       <c r="Q499" s="6"/>
       <c r="R499" s="6"/>
@@ -15798,7 +15917,7 @@
       <c r="L500" s="6"/>
       <c r="M500" s="6"/>
       <c r="N500" s="6"/>
-      <c r="O500" s="16"/>
+      <c r="O500" s="22"/>
       <c r="P500" s="6"/>
       <c r="Q500" s="6"/>
       <c r="R500" s="6"/>
@@ -15825,7 +15944,7 @@
       <c r="L501" s="6"/>
       <c r="M501" s="6"/>
       <c r="N501" s="6"/>
-      <c r="O501" s="16"/>
+      <c r="O501" s="22"/>
       <c r="P501" s="6"/>
       <c r="Q501" s="6"/>
       <c r="R501" s="6"/>
@@ -15852,7 +15971,7 @@
       <c r="L502" s="6"/>
       <c r="M502" s="6"/>
       <c r="N502" s="6"/>
-      <c r="O502" s="16"/>
+      <c r="O502" s="22"/>
       <c r="P502" s="6"/>
       <c r="Q502" s="6"/>
       <c r="R502" s="6"/>
@@ -15879,7 +15998,7 @@
       <c r="L503" s="6"/>
       <c r="M503" s="6"/>
       <c r="N503" s="6"/>
-      <c r="O503" s="16"/>
+      <c r="O503" s="22"/>
       <c r="P503" s="6"/>
       <c r="Q503" s="6"/>
       <c r="R503" s="6"/>
@@ -15906,7 +16025,7 @@
       <c r="L504" s="6"/>
       <c r="M504" s="6"/>
       <c r="N504" s="6"/>
-      <c r="O504" s="16"/>
+      <c r="O504" s="22"/>
       <c r="P504" s="6"/>
       <c r="Q504" s="6"/>
       <c r="R504" s="6"/>
@@ -15933,7 +16052,7 @@
       <c r="L505" s="6"/>
       <c r="M505" s="6"/>
       <c r="N505" s="6"/>
-      <c r="O505" s="16"/>
+      <c r="O505" s="22"/>
       <c r="P505" s="6"/>
       <c r="Q505" s="6"/>
       <c r="R505" s="6"/>
@@ -15960,7 +16079,7 @@
       <c r="L506" s="6"/>
       <c r="M506" s="6"/>
       <c r="N506" s="6"/>
-      <c r="O506" s="16"/>
+      <c r="O506" s="22"/>
       <c r="P506" s="6"/>
       <c r="Q506" s="6"/>
       <c r="R506" s="6"/>
@@ -15987,7 +16106,7 @@
       <c r="L507" s="6"/>
       <c r="M507" s="6"/>
       <c r="N507" s="6"/>
-      <c r="O507" s="16"/>
+      <c r="O507" s="22"/>
       <c r="P507" s="6"/>
       <c r="Q507" s="6"/>
       <c r="R507" s="6"/>
@@ -16014,7 +16133,7 @@
       <c r="L508" s="6"/>
       <c r="M508" s="6"/>
       <c r="N508" s="6"/>
-      <c r="O508" s="16"/>
+      <c r="O508" s="22"/>
       <c r="P508" s="6"/>
       <c r="Q508" s="6"/>
       <c r="R508" s="6"/>
@@ -16041,7 +16160,7 @@
       <c r="L509" s="6"/>
       <c r="M509" s="6"/>
       <c r="N509" s="6"/>
-      <c r="O509" s="16"/>
+      <c r="O509" s="22"/>
       <c r="P509" s="6"/>
       <c r="Q509" s="6"/>
       <c r="R509" s="6"/>
@@ -16068,7 +16187,7 @@
       <c r="L510" s="6"/>
       <c r="M510" s="6"/>
       <c r="N510" s="6"/>
-      <c r="O510" s="16"/>
+      <c r="O510" s="22"/>
       <c r="P510" s="6"/>
       <c r="Q510" s="6"/>
       <c r="R510" s="6"/>
@@ -16095,7 +16214,7 @@
       <c r="L511" s="6"/>
       <c r="M511" s="6"/>
       <c r="N511" s="6"/>
-      <c r="O511" s="16"/>
+      <c r="O511" s="22"/>
       <c r="P511" s="6"/>
       <c r="Q511" s="6"/>
       <c r="R511" s="6"/>
@@ -16122,7 +16241,7 @@
       <c r="L512" s="6"/>
       <c r="M512" s="6"/>
       <c r="N512" s="6"/>
-      <c r="O512" s="16"/>
+      <c r="O512" s="22"/>
       <c r="P512" s="6"/>
       <c r="Q512" s="6"/>
       <c r="R512" s="6"/>
@@ -16149,7 +16268,7 @@
       <c r="L513" s="6"/>
       <c r="M513" s="6"/>
       <c r="N513" s="6"/>
-      <c r="O513" s="16"/>
+      <c r="O513" s="22"/>
       <c r="P513" s="6"/>
       <c r="Q513" s="6"/>
       <c r="R513" s="6"/>
@@ -16176,7 +16295,7 @@
       <c r="L514" s="6"/>
       <c r="M514" s="6"/>
       <c r="N514" s="6"/>
-      <c r="O514" s="16"/>
+      <c r="O514" s="22"/>
       <c r="P514" s="6"/>
       <c r="Q514" s="6"/>
       <c r="R514" s="6"/>
@@ -16203,7 +16322,7 @@
       <c r="L515" s="6"/>
       <c r="M515" s="6"/>
       <c r="N515" s="6"/>
-      <c r="O515" s="16"/>
+      <c r="O515" s="22"/>
       <c r="P515" s="6"/>
       <c r="Q515" s="6"/>
       <c r="R515" s="6"/>
@@ -16230,7 +16349,7 @@
       <c r="L516" s="6"/>
       <c r="M516" s="6"/>
       <c r="N516" s="6"/>
-      <c r="O516" s="16"/>
+      <c r="O516" s="22"/>
       <c r="P516" s="6"/>
       <c r="Q516" s="6"/>
       <c r="R516" s="6"/>
@@ -16257,7 +16376,7 @@
       <c r="L517" s="6"/>
       <c r="M517" s="6"/>
       <c r="N517" s="6"/>
-      <c r="O517" s="16"/>
+      <c r="O517" s="22"/>
       <c r="P517" s="6"/>
       <c r="Q517" s="6"/>
       <c r="R517" s="6"/>
@@ -16284,7 +16403,7 @@
       <c r="L518" s="6"/>
       <c r="M518" s="6"/>
       <c r="N518" s="6"/>
-      <c r="O518" s="16"/>
+      <c r="O518" s="22"/>
       <c r="P518" s="6"/>
       <c r="Q518" s="6"/>
       <c r="R518" s="6"/>
@@ -16311,7 +16430,7 @@
       <c r="L519" s="6"/>
       <c r="M519" s="6"/>
       <c r="N519" s="6"/>
-      <c r="O519" s="16"/>
+      <c r="O519" s="22"/>
       <c r="P519" s="6"/>
       <c r="Q519" s="6"/>
       <c r="R519" s="6"/>
@@ -16338,7 +16457,7 @@
       <c r="L520" s="6"/>
       <c r="M520" s="6"/>
       <c r="N520" s="6"/>
-      <c r="O520" s="16"/>
+      <c r="O520" s="22"/>
       <c r="P520" s="6"/>
       <c r="Q520" s="6"/>
       <c r="R520" s="6"/>
@@ -16365,7 +16484,7 @@
       <c r="L521" s="6"/>
       <c r="M521" s="6"/>
       <c r="N521" s="6"/>
-      <c r="O521" s="16"/>
+      <c r="O521" s="22"/>
       <c r="P521" s="6"/>
       <c r="Q521" s="6"/>
       <c r="R521" s="6"/>
@@ -16392,7 +16511,7 @@
       <c r="L522" s="6"/>
       <c r="M522" s="6"/>
       <c r="N522" s="6"/>
-      <c r="O522" s="16"/>
+      <c r="O522" s="22"/>
       <c r="P522" s="6"/>
       <c r="Q522" s="6"/>
       <c r="R522" s="6"/>
@@ -16419,7 +16538,7 @@
       <c r="L523" s="6"/>
       <c r="M523" s="6"/>
       <c r="N523" s="6"/>
-      <c r="O523" s="16"/>
+      <c r="O523" s="22"/>
       <c r="P523" s="6"/>
       <c r="Q523" s="6"/>
       <c r="R523" s="6"/>
@@ -16446,7 +16565,7 @@
       <c r="L524" s="6"/>
       <c r="M524" s="6"/>
       <c r="N524" s="6"/>
-      <c r="O524" s="16"/>
+      <c r="O524" s="22"/>
       <c r="P524" s="6"/>
       <c r="Q524" s="6"/>
       <c r="R524" s="6"/>
@@ -16473,7 +16592,7 @@
       <c r="L525" s="6"/>
       <c r="M525" s="6"/>
       <c r="N525" s="6"/>
-      <c r="O525" s="16"/>
+      <c r="O525" s="22"/>
       <c r="P525" s="6"/>
       <c r="Q525" s="6"/>
       <c r="R525" s="6"/>
@@ -16500,7 +16619,7 @@
       <c r="L526" s="6"/>
       <c r="M526" s="6"/>
       <c r="N526" s="6"/>
-      <c r="O526" s="16"/>
+      <c r="O526" s="22"/>
       <c r="P526" s="6"/>
       <c r="Q526" s="6"/>
       <c r="R526" s="6"/>
@@ -16527,7 +16646,7 @@
       <c r="L527" s="6"/>
       <c r="M527" s="6"/>
       <c r="N527" s="6"/>
-      <c r="O527" s="16"/>
+      <c r="O527" s="22"/>
       <c r="P527" s="6"/>
       <c r="Q527" s="6"/>
       <c r="R527" s="6"/>
@@ -16554,7 +16673,7 @@
       <c r="L528" s="6"/>
       <c r="M528" s="6"/>
       <c r="N528" s="6"/>
-      <c r="O528" s="16"/>
+      <c r="O528" s="22"/>
       <c r="P528" s="6"/>
       <c r="Q528" s="6"/>
       <c r="R528" s="6"/>
@@ -16581,7 +16700,7 @@
       <c r="L529" s="6"/>
       <c r="M529" s="6"/>
       <c r="N529" s="6"/>
-      <c r="O529" s="16"/>
+      <c r="O529" s="22"/>
       <c r="P529" s="6"/>
       <c r="Q529" s="6"/>
       <c r="R529" s="6"/>
@@ -16608,7 +16727,7 @@
       <c r="L530" s="6"/>
       <c r="M530" s="6"/>
       <c r="N530" s="6"/>
-      <c r="O530" s="16"/>
+      <c r="O530" s="22"/>
       <c r="P530" s="6"/>
       <c r="Q530" s="6"/>
       <c r="R530" s="6"/>
@@ -16635,7 +16754,7 @@
       <c r="L531" s="6"/>
       <c r="M531" s="6"/>
       <c r="N531" s="6"/>
-      <c r="O531" s="16"/>
+      <c r="O531" s="22"/>
       <c r="P531" s="6"/>
       <c r="Q531" s="6"/>
       <c r="R531" s="6"/>
@@ -16662,7 +16781,7 @@
       <c r="L532" s="6"/>
       <c r="M532" s="6"/>
       <c r="N532" s="6"/>
-      <c r="O532" s="16"/>
+      <c r="O532" s="22"/>
       <c r="P532" s="6"/>
       <c r="Q532" s="6"/>
       <c r="R532" s="6"/>
@@ -16689,7 +16808,7 @@
       <c r="L533" s="6"/>
       <c r="M533" s="6"/>
       <c r="N533" s="6"/>
-      <c r="O533" s="16"/>
+      <c r="O533" s="22"/>
       <c r="P533" s="6"/>
       <c r="Q533" s="6"/>
       <c r="R533" s="6"/>
@@ -16716,7 +16835,7 @@
       <c r="L534" s="6"/>
       <c r="M534" s="6"/>
       <c r="N534" s="6"/>
-      <c r="O534" s="16"/>
+      <c r="O534" s="22"/>
       <c r="P534" s="6"/>
       <c r="Q534" s="6"/>
       <c r="R534" s="6"/>
@@ -16743,7 +16862,7 @@
       <c r="L535" s="6"/>
       <c r="M535" s="6"/>
       <c r="N535" s="6"/>
-      <c r="O535" s="16"/>
+      <c r="O535" s="22"/>
       <c r="P535" s="6"/>
       <c r="Q535" s="6"/>
       <c r="R535" s="6"/>
@@ -16770,7 +16889,7 @@
       <c r="L536" s="6"/>
       <c r="M536" s="6"/>
       <c r="N536" s="6"/>
-      <c r="O536" s="16"/>
+      <c r="O536" s="22"/>
       <c r="P536" s="6"/>
       <c r="Q536" s="6"/>
       <c r="R536" s="6"/>
@@ -16797,7 +16916,7 @@
       <c r="L537" s="6"/>
       <c r="M537" s="6"/>
       <c r="N537" s="6"/>
-      <c r="O537" s="16"/>
+      <c r="O537" s="22"/>
       <c r="P537" s="6"/>
       <c r="Q537" s="6"/>
       <c r="R537" s="6"/>
@@ -16824,7 +16943,7 @@
       <c r="L538" s="6"/>
       <c r="M538" s="6"/>
       <c r="N538" s="6"/>
-      <c r="O538" s="16"/>
+      <c r="O538" s="22"/>
       <c r="P538" s="6"/>
       <c r="Q538" s="6"/>
       <c r="R538" s="6"/>
@@ -16851,7 +16970,7 @@
       <c r="L539" s="6"/>
       <c r="M539" s="6"/>
       <c r="N539" s="6"/>
-      <c r="O539" s="16"/>
+      <c r="O539" s="22"/>
       <c r="P539" s="6"/>
       <c r="Q539" s="6"/>
       <c r="R539" s="6"/>
@@ -16878,7 +16997,7 @@
       <c r="L540" s="6"/>
       <c r="M540" s="6"/>
       <c r="N540" s="6"/>
-      <c r="O540" s="16"/>
+      <c r="O540" s="22"/>
       <c r="P540" s="6"/>
       <c r="Q540" s="6"/>
       <c r="R540" s="6"/>
@@ -16905,7 +17024,7 @@
       <c r="L541" s="6"/>
       <c r="M541" s="6"/>
       <c r="N541" s="6"/>
-      <c r="O541" s="16"/>
+      <c r="O541" s="22"/>
       <c r="P541" s="6"/>
       <c r="Q541" s="6"/>
       <c r="R541" s="6"/>
@@ -16932,7 +17051,7 @@
       <c r="L542" s="6"/>
       <c r="M542" s="6"/>
       <c r="N542" s="6"/>
-      <c r="O542" s="16"/>
+      <c r="O542" s="22"/>
       <c r="P542" s="6"/>
       <c r="Q542" s="6"/>
       <c r="R542" s="6"/>
@@ -16959,7 +17078,7 @@
       <c r="L543" s="6"/>
       <c r="M543" s="6"/>
       <c r="N543" s="6"/>
-      <c r="O543" s="16"/>
+      <c r="O543" s="22"/>
       <c r="P543" s="6"/>
       <c r="Q543" s="6"/>
       <c r="R543" s="6"/>
@@ -16986,7 +17105,7 @@
       <c r="L544" s="6"/>
       <c r="M544" s="6"/>
       <c r="N544" s="6"/>
-      <c r="O544" s="16"/>
+      <c r="O544" s="22"/>
       <c r="P544" s="6"/>
       <c r="Q544" s="6"/>
       <c r="R544" s="6"/>
@@ -17013,7 +17132,7 @@
       <c r="L545" s="6"/>
       <c r="M545" s="6"/>
       <c r="N545" s="6"/>
-      <c r="O545" s="16"/>
+      <c r="O545" s="22"/>
       <c r="P545" s="6"/>
       <c r="Q545" s="6"/>
       <c r="R545" s="6"/>
@@ -17040,7 +17159,7 @@
       <c r="L546" s="6"/>
       <c r="M546" s="6"/>
       <c r="N546" s="6"/>
-      <c r="O546" s="16"/>
+      <c r="O546" s="22"/>
       <c r="P546" s="6"/>
       <c r="Q546" s="6"/>
       <c r="R546" s="6"/>
@@ -17067,7 +17186,7 @@
       <c r="L547" s="6"/>
       <c r="M547" s="6"/>
       <c r="N547" s="6"/>
-      <c r="O547" s="16"/>
+      <c r="O547" s="22"/>
       <c r="P547" s="6"/>
       <c r="Q547" s="6"/>
       <c r="R547" s="6"/>
@@ -17094,7 +17213,7 @@
       <c r="L548" s="6"/>
       <c r="M548" s="6"/>
       <c r="N548" s="6"/>
-      <c r="O548" s="16"/>
+      <c r="O548" s="22"/>
       <c r="P548" s="6"/>
       <c r="Q548" s="6"/>
       <c r="R548" s="6"/>
@@ -17121,7 +17240,7 @@
       <c r="L549" s="6"/>
       <c r="M549" s="6"/>
       <c r="N549" s="6"/>
-      <c r="O549" s="16"/>
+      <c r="O549" s="22"/>
       <c r="P549" s="6"/>
       <c r="Q549" s="6"/>
       <c r="R549" s="6"/>
@@ -17148,7 +17267,7 @@
       <c r="L550" s="6"/>
       <c r="M550" s="6"/>
       <c r="N550" s="6"/>
-      <c r="O550" s="16"/>
+      <c r="O550" s="22"/>
       <c r="P550" s="6"/>
       <c r="Q550" s="6"/>
       <c r="R550" s="6"/>
@@ -17175,7 +17294,7 @@
       <c r="L551" s="6"/>
       <c r="M551" s="6"/>
       <c r="N551" s="6"/>
-      <c r="O551" s="16"/>
+      <c r="O551" s="22"/>
       <c r="P551" s="6"/>
       <c r="Q551" s="6"/>
       <c r="R551" s="6"/>
@@ -17202,7 +17321,7 @@
       <c r="L552" s="6"/>
       <c r="M552" s="6"/>
       <c r="N552" s="6"/>
-      <c r="O552" s="16"/>
+      <c r="O552" s="22"/>
       <c r="P552" s="6"/>
       <c r="Q552" s="6"/>
       <c r="R552" s="6"/>
@@ -17229,7 +17348,7 @@
       <c r="L553" s="6"/>
       <c r="M553" s="6"/>
       <c r="N553" s="6"/>
-      <c r="O553" s="16"/>
+      <c r="O553" s="22"/>
       <c r="P553" s="6"/>
       <c r="Q553" s="6"/>
       <c r="R553" s="6"/>
@@ -17256,7 +17375,7 @@
       <c r="L554" s="6"/>
       <c r="M554" s="6"/>
       <c r="N554" s="6"/>
-      <c r="O554" s="16"/>
+      <c r="O554" s="22"/>
       <c r="P554" s="6"/>
       <c r="Q554" s="6"/>
       <c r="R554" s="6"/>
@@ -17283,7 +17402,7 @@
       <c r="L555" s="6"/>
       <c r="M555" s="6"/>
       <c r="N555" s="6"/>
-      <c r="O555" s="16"/>
+      <c r="O555" s="22"/>
       <c r="P555" s="6"/>
       <c r="Q555" s="6"/>
       <c r="R555" s="6"/>
@@ -17310,7 +17429,7 @@
       <c r="L556" s="6"/>
       <c r="M556" s="6"/>
       <c r="N556" s="6"/>
-      <c r="O556" s="16"/>
+      <c r="O556" s="22"/>
       <c r="P556" s="6"/>
       <c r="Q556" s="6"/>
       <c r="R556" s="6"/>
@@ -17337,7 +17456,7 @@
       <c r="L557" s="6"/>
       <c r="M557" s="6"/>
       <c r="N557" s="6"/>
-      <c r="O557" s="16"/>
+      <c r="O557" s="22"/>
       <c r="P557" s="6"/>
       <c r="Q557" s="6"/>
       <c r="R557" s="6"/>
@@ -17364,7 +17483,7 @@
       <c r="L558" s="6"/>
       <c r="M558" s="6"/>
       <c r="N558" s="6"/>
-      <c r="O558" s="16"/>
+      <c r="O558" s="22"/>
       <c r="P558" s="6"/>
       <c r="Q558" s="6"/>
       <c r="R558" s="6"/>
@@ -17391,7 +17510,7 @@
       <c r="L559" s="6"/>
       <c r="M559" s="6"/>
       <c r="N559" s="6"/>
-      <c r="O559" s="16"/>
+      <c r="O559" s="22"/>
       <c r="P559" s="6"/>
       <c r="Q559" s="6"/>
       <c r="R559" s="6"/>
@@ -17418,7 +17537,7 @@
       <c r="L560" s="6"/>
       <c r="M560" s="6"/>
       <c r="N560" s="6"/>
-      <c r="O560" s="16"/>
+      <c r="O560" s="22"/>
       <c r="P560" s="6"/>
       <c r="Q560" s="6"/>
       <c r="R560" s="6"/>
@@ -17445,7 +17564,7 @@
       <c r="L561" s="6"/>
       <c r="M561" s="6"/>
       <c r="N561" s="6"/>
-      <c r="O561" s="16"/>
+      <c r="O561" s="22"/>
       <c r="P561" s="6"/>
       <c r="Q561" s="6"/>
       <c r="R561" s="6"/>
@@ -17472,7 +17591,7 @@
       <c r="L562" s="6"/>
       <c r="M562" s="6"/>
       <c r="N562" s="6"/>
-      <c r="O562" s="16"/>
+      <c r="O562" s="22"/>
       <c r="P562" s="6"/>
       <c r="Q562" s="6"/>
       <c r="R562" s="6"/>
@@ -17499,7 +17618,7 @@
       <c r="L563" s="6"/>
       <c r="M563" s="6"/>
       <c r="N563" s="6"/>
-      <c r="O563" s="16"/>
+      <c r="O563" s="22"/>
       <c r="P563" s="6"/>
       <c r="Q563" s="6"/>
       <c r="R563" s="6"/>
@@ -17526,7 +17645,7 @@
       <c r="L564" s="6"/>
       <c r="M564" s="6"/>
       <c r="N564" s="6"/>
-      <c r="O564" s="16"/>
+      <c r="O564" s="22"/>
       <c r="P564" s="6"/>
       <c r="Q564" s="6"/>
       <c r="R564" s="6"/>
@@ -17553,7 +17672,7 @@
       <c r="L565" s="6"/>
       <c r="M565" s="6"/>
       <c r="N565" s="6"/>
-      <c r="O565" s="16"/>
+      <c r="O565" s="22"/>
       <c r="P565" s="6"/>
       <c r="Q565" s="6"/>
       <c r="R565" s="6"/>
@@ -17580,7 +17699,7 @@
       <c r="L566" s="6"/>
       <c r="M566" s="6"/>
       <c r="N566" s="6"/>
-      <c r="O566" s="16"/>
+      <c r="O566" s="22"/>
       <c r="P566" s="6"/>
       <c r="Q566" s="6"/>
       <c r="R566" s="6"/>
@@ -17607,7 +17726,7 @@
       <c r="L567" s="6"/>
       <c r="M567" s="6"/>
       <c r="N567" s="6"/>
-      <c r="O567" s="16"/>
+      <c r="O567" s="22"/>
       <c r="P567" s="6"/>
       <c r="Q567" s="6"/>
       <c r="R567" s="6"/>
@@ -17634,7 +17753,7 @@
       <c r="L568" s="6"/>
       <c r="M568" s="6"/>
       <c r="N568" s="6"/>
-      <c r="O568" s="16"/>
+      <c r="O568" s="22"/>
       <c r="P568" s="6"/>
       <c r="Q568" s="6"/>
       <c r="R568" s="6"/>
@@ -17661,7 +17780,7 @@
       <c r="L569" s="6"/>
       <c r="M569" s="6"/>
       <c r="N569" s="6"/>
-      <c r="O569" s="16"/>
+      <c r="O569" s="22"/>
       <c r="P569" s="6"/>
       <c r="Q569" s="6"/>
       <c r="R569" s="6"/>
@@ -17688,7 +17807,7 @@
       <c r="L570" s="6"/>
       <c r="M570" s="6"/>
       <c r="N570" s="6"/>
-      <c r="O570" s="16"/>
+      <c r="O570" s="22"/>
       <c r="P570" s="6"/>
       <c r="Q570" s="6"/>
       <c r="R570" s="6"/>
@@ -17715,7 +17834,7 @@
       <c r="L571" s="6"/>
       <c r="M571" s="6"/>
       <c r="N571" s="6"/>
-      <c r="O571" s="16"/>
+      <c r="O571" s="22"/>
       <c r="P571" s="6"/>
       <c r="Q571" s="6"/>
       <c r="R571" s="6"/>
@@ -17742,7 +17861,7 @@
       <c r="L572" s="6"/>
       <c r="M572" s="6"/>
       <c r="N572" s="6"/>
-      <c r="O572" s="16"/>
+      <c r="O572" s="22"/>
       <c r="P572" s="6"/>
       <c r="Q572" s="6"/>
       <c r="R572" s="6"/>
@@ -17769,7 +17888,7 @@
       <c r="L573" s="6"/>
       <c r="M573" s="6"/>
       <c r="N573" s="6"/>
-      <c r="O573" s="16"/>
+      <c r="O573" s="22"/>
       <c r="P573" s="6"/>
       <c r="Q573" s="6"/>
       <c r="R573" s="6"/>
@@ -17796,7 +17915,7 @@
       <c r="L574" s="6"/>
       <c r="M574" s="6"/>
       <c r="N574" s="6"/>
-      <c r="O574" s="16"/>
+      <c r="O574" s="22"/>
       <c r="P574" s="6"/>
       <c r="Q574" s="6"/>
       <c r="R574" s="6"/>
@@ -17823,7 +17942,7 @@
       <c r="L575" s="6"/>
       <c r="M575" s="6"/>
       <c r="N575" s="6"/>
-      <c r="O575" s="16"/>
+      <c r="O575" s="22"/>
       <c r="P575" s="6"/>
       <c r="Q575" s="6"/>
       <c r="R575" s="6"/>
@@ -17850,7 +17969,7 @@
       <c r="L576" s="6"/>
       <c r="M576" s="6"/>
       <c r="N576" s="6"/>
-      <c r="O576" s="16"/>
+      <c r="O576" s="22"/>
       <c r="P576" s="6"/>
       <c r="Q576" s="6"/>
       <c r="R576" s="6"/>
@@ -17877,7 +17996,7 @@
       <c r="L577" s="6"/>
       <c r="M577" s="6"/>
       <c r="N577" s="6"/>
-      <c r="O577" s="16"/>
+      <c r="O577" s="22"/>
       <c r="P577" s="6"/>
       <c r="Q577" s="6"/>
       <c r="R577" s="6"/>
@@ -17904,7 +18023,7 @@
       <c r="L578" s="6"/>
       <c r="M578" s="6"/>
       <c r="N578" s="6"/>
-      <c r="O578" s="16"/>
+      <c r="O578" s="22"/>
       <c r="P578" s="6"/>
       <c r="Q578" s="6"/>
       <c r="R578" s="6"/>
@@ -17931,7 +18050,7 @@
       <c r="L579" s="6"/>
       <c r="M579" s="6"/>
       <c r="N579" s="6"/>
-      <c r="O579" s="16"/>
+      <c r="O579" s="22"/>
       <c r="P579" s="6"/>
       <c r="Q579" s="6"/>
       <c r="R579" s="6"/>
@@ -17958,7 +18077,7 @@
       <c r="L580" s="6"/>
       <c r="M580" s="6"/>
       <c r="N580" s="6"/>
-      <c r="O580" s="16"/>
+      <c r="O580" s="22"/>
       <c r="P580" s="6"/>
       <c r="Q580" s="6"/>
       <c r="R580" s="6"/>
@@ -17985,7 +18104,7 @@
       <c r="L581" s="6"/>
       <c r="M581" s="6"/>
       <c r="N581" s="6"/>
-      <c r="O581" s="16"/>
+      <c r="O581" s="22"/>
       <c r="P581" s="6"/>
       <c r="Q581" s="6"/>
       <c r="R581" s="6"/>
@@ -18012,7 +18131,7 @@
       <c r="L582" s="6"/>
       <c r="M582" s="6"/>
       <c r="N582" s="6"/>
-      <c r="O582" s="16"/>
+      <c r="O582" s="22"/>
       <c r="P582" s="6"/>
       <c r="Q582" s="6"/>
       <c r="R582" s="6"/>
@@ -18039,7 +18158,7 @@
       <c r="L583" s="6"/>
       <c r="M583" s="6"/>
       <c r="N583" s="6"/>
-      <c r="O583" s="16"/>
+      <c r="O583" s="22"/>
       <c r="P583" s="6"/>
       <c r="Q583" s="6"/>
       <c r="R583" s="6"/>
@@ -18066,7 +18185,7 @@
       <c r="L584" s="6"/>
       <c r="M584" s="6"/>
       <c r="N584" s="6"/>
-      <c r="O584" s="16"/>
+      <c r="O584" s="22"/>
       <c r="P584" s="6"/>
       <c r="Q584" s="6"/>
       <c r="R584" s="6"/>
@@ -18093,7 +18212,7 @@
       <c r="L585" s="6"/>
       <c r="M585" s="6"/>
       <c r="N585" s="6"/>
-      <c r="O585" s="16"/>
+      <c r="O585" s="22"/>
       <c r="P585" s="6"/>
       <c r="Q585" s="6"/>
       <c r="R585" s="6"/>
@@ -18120,7 +18239,7 @@
       <c r="L586" s="6"/>
       <c r="M586" s="6"/>
       <c r="N586" s="6"/>
-      <c r="O586" s="16"/>
+      <c r="O586" s="22"/>
       <c r="P586" s="6"/>
       <c r="Q586" s="6"/>
       <c r="R586" s="6"/>
@@ -18147,7 +18266,7 @@
       <c r="L587" s="6"/>
       <c r="M587" s="6"/>
       <c r="N587" s="6"/>
-      <c r="O587" s="16"/>
+      <c r="O587" s="22"/>
       <c r="P587" s="6"/>
       <c r="Q587" s="6"/>
       <c r="R587" s="6"/>
@@ -18174,7 +18293,7 @@
       <c r="L588" s="6"/>
       <c r="M588" s="6"/>
       <c r="N588" s="6"/>
-      <c r="O588" s="16"/>
+      <c r="O588" s="22"/>
       <c r="P588" s="6"/>
       <c r="Q588" s="6"/>
       <c r="R588" s="6"/>
@@ -18201,7 +18320,7 @@
       <c r="L589" s="6"/>
       <c r="M589" s="6"/>
       <c r="N589" s="6"/>
-      <c r="O589" s="16"/>
+      <c r="O589" s="22"/>
       <c r="P589" s="6"/>
       <c r="Q589" s="6"/>
       <c r="R589" s="6"/>
@@ -18228,7 +18347,7 @@
       <c r="L590" s="6"/>
       <c r="M590" s="6"/>
       <c r="N590" s="6"/>
-      <c r="O590" s="16"/>
+      <c r="O590" s="22"/>
       <c r="P590" s="6"/>
       <c r="Q590" s="6"/>
       <c r="R590" s="6"/>
@@ -18255,7 +18374,7 @@
       <c r="L591" s="6"/>
       <c r="M591" s="6"/>
       <c r="N591" s="6"/>
-      <c r="O591" s="16"/>
+      <c r="O591" s="22"/>
       <c r="P591" s="6"/>
       <c r="Q591" s="6"/>
       <c r="R591" s="6"/>
@@ -18282,7 +18401,7 @@
       <c r="L592" s="6"/>
       <c r="M592" s="6"/>
       <c r="N592" s="6"/>
-      <c r="O592" s="16"/>
+      <c r="O592" s="22"/>
       <c r="P592" s="6"/>
       <c r="Q592" s="6"/>
       <c r="R592" s="6"/>
@@ -18309,7 +18428,7 @@
       <c r="L593" s="6"/>
       <c r="M593" s="6"/>
       <c r="N593" s="6"/>
-      <c r="O593" s="16"/>
+      <c r="O593" s="22"/>
       <c r="P593" s="6"/>
       <c r="Q593" s="6"/>
       <c r="R593" s="6"/>
@@ -18336,7 +18455,7 @@
       <c r="L594" s="6"/>
       <c r="M594" s="6"/>
       <c r="N594" s="6"/>
-      <c r="O594" s="16"/>
+      <c r="O594" s="22"/>
       <c r="P594" s="6"/>
       <c r="Q594" s="6"/>
       <c r="R594" s="6"/>
@@ -18363,7 +18482,7 @@
       <c r="L595" s="6"/>
       <c r="M595" s="6"/>
       <c r="N595" s="6"/>
-      <c r="O595" s="16"/>
+      <c r="O595" s="22"/>
       <c r="P595" s="6"/>
       <c r="Q595" s="6"/>
       <c r="R595" s="6"/>
@@ -18390,7 +18509,7 @@
       <c r="L596" s="6"/>
       <c r="M596" s="6"/>
       <c r="N596" s="6"/>
-      <c r="O596" s="16"/>
+      <c r="O596" s="22"/>
       <c r="P596" s="6"/>
       <c r="Q596" s="6"/>
       <c r="R596" s="6"/>
@@ -18417,7 +18536,7 @@
       <c r="L597" s="6"/>
       <c r="M597" s="6"/>
       <c r="N597" s="6"/>
-      <c r="O597" s="16"/>
+      <c r="O597" s="22"/>
       <c r="P597" s="6"/>
       <c r="Q597" s="6"/>
       <c r="R597" s="6"/>
@@ -18444,7 +18563,7 @@
       <c r="L598" s="6"/>
       <c r="M598" s="6"/>
       <c r="N598" s="6"/>
-      <c r="O598" s="16"/>
+      <c r="O598" s="22"/>
       <c r="P598" s="6"/>
       <c r="Q598" s="6"/>
       <c r="R598" s="6"/>
@@ -18471,7 +18590,7 @@
       <c r="L599" s="6"/>
       <c r="M599" s="6"/>
       <c r="N599" s="6"/>
-      <c r="O599" s="16"/>
+      <c r="O599" s="22"/>
       <c r="P599" s="6"/>
       <c r="Q599" s="6"/>
       <c r="R599" s="6"/>
@@ -18498,7 +18617,7 @@
       <c r="L600" s="6"/>
       <c r="M600" s="6"/>
       <c r="N600" s="6"/>
-      <c r="O600" s="16"/>
+      <c r="O600" s="22"/>
       <c r="P600" s="6"/>
       <c r="Q600" s="6"/>
       <c r="R600" s="6"/>
@@ -18525,7 +18644,7 @@
       <c r="L601" s="6"/>
       <c r="M601" s="6"/>
       <c r="N601" s="6"/>
-      <c r="O601" s="16"/>
+      <c r="O601" s="22"/>
       <c r="P601" s="6"/>
       <c r="Q601" s="6"/>
       <c r="R601" s="6"/>
@@ -18552,7 +18671,7 @@
       <c r="L602" s="6"/>
       <c r="M602" s="6"/>
       <c r="N602" s="6"/>
-      <c r="O602" s="16"/>
+      <c r="O602" s="22"/>
       <c r="P602" s="6"/>
       <c r="Q602" s="6"/>
       <c r="R602" s="6"/>
@@ -18579,7 +18698,7 @@
       <c r="L603" s="6"/>
       <c r="M603" s="6"/>
       <c r="N603" s="6"/>
-      <c r="O603" s="16"/>
+      <c r="O603" s="22"/>
       <c r="P603" s="6"/>
       <c r="Q603" s="6"/>
       <c r="R603" s="6"/>
@@ -18606,7 +18725,7 @@
       <c r="L604" s="6"/>
       <c r="M604" s="6"/>
       <c r="N604" s="6"/>
-      <c r="O604" s="16"/>
+      <c r="O604" s="22"/>
       <c r="P604" s="6"/>
       <c r="Q604" s="6"/>
       <c r="R604" s="6"/>
@@ -18633,7 +18752,7 @@
       <c r="L605" s="6"/>
       <c r="M605" s="6"/>
       <c r="N605" s="6"/>
-      <c r="O605" s="16"/>
+      <c r="O605" s="22"/>
       <c r="P605" s="6"/>
       <c r="Q605" s="6"/>
       <c r="R605" s="6"/>
@@ -18660,7 +18779,7 @@
       <c r="L606" s="6"/>
       <c r="M606" s="6"/>
       <c r="N606" s="6"/>
-      <c r="O606" s="16"/>
+      <c r="O606" s="22"/>
       <c r="P606" s="6"/>
       <c r="Q606" s="6"/>
       <c r="R606" s="6"/>
@@ -18687,7 +18806,7 @@
       <c r="L607" s="6"/>
       <c r="M607" s="6"/>
       <c r="N607" s="6"/>
-      <c r="O607" s="16"/>
+      <c r="O607" s="22"/>
       <c r="P607" s="6"/>
       <c r="Q607" s="6"/>
       <c r="R607" s="6"/>
@@ -18714,7 +18833,7 @@
       <c r="L608" s="6"/>
       <c r="M608" s="6"/>
       <c r="N608" s="6"/>
-      <c r="O608" s="16"/>
+      <c r="O608" s="22"/>
       <c r="P608" s="6"/>
       <c r="Q608" s="6"/>
       <c r="R608" s="6"/>
@@ -18741,7 +18860,7 @@
       <c r="L609" s="6"/>
       <c r="M609" s="6"/>
       <c r="N609" s="6"/>
-      <c r="O609" s="16"/>
+      <c r="O609" s="22"/>
       <c r="P609" s="6"/>
       <c r="Q609" s="6"/>
       <c r="R609" s="6"/>
@@ -18768,7 +18887,7 @@
       <c r="L610" s="6"/>
       <c r="M610" s="6"/>
       <c r="N610" s="6"/>
-      <c r="O610" s="16"/>
+      <c r="O610" s="22"/>
       <c r="P610" s="6"/>
       <c r="Q610" s="6"/>
       <c r="R610" s="6"/>
@@ -18795,7 +18914,7 @@
       <c r="L611" s="6"/>
       <c r="M611" s="6"/>
       <c r="N611" s="6"/>
-      <c r="O611" s="16"/>
+      <c r="O611" s="22"/>
       <c r="P611" s="6"/>
       <c r="Q611" s="6"/>
       <c r="R611" s="6"/>
@@ -18822,7 +18941,7 @@
       <c r="L612" s="6"/>
       <c r="M612" s="6"/>
       <c r="N612" s="6"/>
-      <c r="O612" s="16"/>
+      <c r="O612" s="22"/>
       <c r="P612" s="6"/>
       <c r="Q612" s="6"/>
       <c r="R612" s="6"/>
@@ -18849,7 +18968,7 @@
       <c r="L613" s="6"/>
       <c r="M613" s="6"/>
       <c r="N613" s="6"/>
-      <c r="O613" s="16"/>
+      <c r="O613" s="22"/>
       <c r="P613" s="6"/>
       <c r="Q613" s="6"/>
       <c r="R613" s="6"/>
@@ -18876,7 +18995,7 @@
       <c r="L614" s="6"/>
       <c r="M614" s="6"/>
       <c r="N614" s="6"/>
-      <c r="O614" s="16"/>
+      <c r="O614" s="22"/>
       <c r="P614" s="6"/>
       <c r="Q614" s="6"/>
       <c r="R614" s="6"/>
@@ -18903,7 +19022,7 @@
       <c r="L615" s="6"/>
       <c r="M615" s="6"/>
       <c r="N615" s="6"/>
-      <c r="O615" s="16"/>
+      <c r="O615" s="22"/>
       <c r="P615" s="6"/>
       <c r="Q615" s="6"/>
       <c r="R615" s="6"/>
@@ -18930,7 +19049,7 @@
       <c r="L616" s="6"/>
       <c r="M616" s="6"/>
       <c r="N616" s="6"/>
-      <c r="O616" s="16"/>
+      <c r="O616" s="22"/>
       <c r="P616" s="6"/>
       <c r="Q616" s="6"/>
       <c r="R616" s="6"/>
@@ -18957,7 +19076,7 @@
       <c r="L617" s="6"/>
       <c r="M617" s="6"/>
       <c r="N617" s="6"/>
-      <c r="O617" s="16"/>
+      <c r="O617" s="22"/>
       <c r="P617" s="6"/>
       <c r="Q617" s="6"/>
       <c r="R617" s="6"/>
@@ -18984,7 +19103,7 @@
       <c r="L618" s="6"/>
       <c r="M618" s="6"/>
       <c r="N618" s="6"/>
-      <c r="O618" s="16"/>
+      <c r="O618" s="22"/>
       <c r="P618" s="6"/>
       <c r="Q618" s="6"/>
       <c r="R618" s="6"/>
@@ -19011,7 +19130,7 @@
       <c r="L619" s="6"/>
       <c r="M619" s="6"/>
       <c r="N619" s="6"/>
-      <c r="O619" s="16"/>
+      <c r="O619" s="22"/>
       <c r="P619" s="6"/>
       <c r="Q619" s="6"/>
       <c r="R619" s="6"/>
@@ -19038,7 +19157,7 @@
       <c r="L620" s="6"/>
       <c r="M620" s="6"/>
       <c r="N620" s="6"/>
-      <c r="O620" s="16"/>
+      <c r="O620" s="22"/>
       <c r="P620" s="6"/>
       <c r="Q620" s="6"/>
       <c r="R620" s="6"/>
@@ -19065,7 +19184,7 @@
       <c r="L621" s="6"/>
       <c r="M621" s="6"/>
       <c r="N621" s="6"/>
-      <c r="O621" s="16"/>
+      <c r="O621" s="22"/>
       <c r="P621" s="6"/>
       <c r="Q621" s="6"/>
       <c r="R621" s="6"/>
@@ -19092,7 +19211,7 @@
       <c r="L622" s="6"/>
       <c r="M622" s="6"/>
       <c r="N622" s="6"/>
-      <c r="O622" s="16"/>
+      <c r="O622" s="22"/>
       <c r="P622" s="6"/>
       <c r="Q622" s="6"/>
       <c r="R622" s="6"/>
@@ -19119,7 +19238,7 @@
       <c r="L623" s="6"/>
       <c r="M623" s="6"/>
       <c r="N623" s="6"/>
-      <c r="O623" s="16"/>
+      <c r="O623" s="22"/>
       <c r="P623" s="6"/>
       <c r="Q623" s="6"/>
       <c r="R623" s="6"/>
@@ -19146,7 +19265,7 @@
       <c r="L624" s="6"/>
       <c r="M624" s="6"/>
       <c r="N624" s="6"/>
-      <c r="O624" s="16"/>
+      <c r="O624" s="22"/>
       <c r="P624" s="6"/>
       <c r="Q624" s="6"/>
       <c r="R624" s="6"/>
@@ -19173,7 +19292,7 @@
       <c r="L625" s="6"/>
       <c r="M625" s="6"/>
       <c r="N625" s="6"/>
-      <c r="O625" s="16"/>
+      <c r="O625" s="22"/>
       <c r="P625" s="6"/>
       <c r="Q625" s="6"/>
       <c r="R625" s="6"/>
@@ -19200,7 +19319,7 @@
       <c r="L626" s="6"/>
       <c r="M626" s="6"/>
       <c r="N626" s="6"/>
-      <c r="O626" s="16"/>
+      <c r="O626" s="22"/>
       <c r="P626" s="6"/>
       <c r="Q626" s="6"/>
       <c r="R626" s="6"/>
@@ -19227,7 +19346,7 @@
       <c r="L627" s="6"/>
       <c r="M627" s="6"/>
       <c r="N627" s="6"/>
-      <c r="O627" s="16"/>
+      <c r="O627" s="22"/>
       <c r="P627" s="6"/>
       <c r="Q627" s="6"/>
       <c r="R627" s="6"/>
@@ -19254,7 +19373,7 @@
       <c r="L628" s="6"/>
       <c r="M628" s="6"/>
       <c r="N628" s="6"/>
-      <c r="O628" s="16"/>
+      <c r="O628" s="22"/>
       <c r="P628" s="6"/>
       <c r="Q628" s="6"/>
       <c r="R628" s="6"/>
@@ -19281,7 +19400,7 @@
       <c r="L629" s="6"/>
       <c r="M629" s="6"/>
       <c r="N629" s="6"/>
-      <c r="O629" s="16"/>
+      <c r="O629" s="22"/>
       <c r="P629" s="6"/>
       <c r="Q629" s="6"/>
       <c r="R629" s="6"/>
@@ -19308,7 +19427,7 @@
       <c r="L630" s="6"/>
       <c r="M630" s="6"/>
       <c r="N630" s="6"/>
-      <c r="O630" s="16"/>
+      <c r="O630" s="22"/>
       <c r="P630" s="6"/>
       <c r="Q630" s="6"/>
       <c r="R630" s="6"/>
@@ -19335,7 +19454,7 @@
       <c r="L631" s="6"/>
       <c r="M631" s="6"/>
       <c r="N631" s="6"/>
-      <c r="O631" s="16"/>
+      <c r="O631" s="22"/>
       <c r="P631" s="6"/>
       <c r="Q631" s="6"/>
       <c r="R631" s="6"/>
@@ -19362,7 +19481,7 @@
       <c r="L632" s="6"/>
       <c r="M632" s="6"/>
       <c r="N632" s="6"/>
-      <c r="O632" s="16"/>
+      <c r="O632" s="22"/>
       <c r="P632" s="6"/>
       <c r="Q632" s="6"/>
       <c r="R632" s="6"/>
@@ -19389,7 +19508,7 @@
       <c r="L633" s="6"/>
       <c r="M633" s="6"/>
       <c r="N633" s="6"/>
-      <c r="O633" s="16"/>
+      <c r="O633" s="22"/>
       <c r="P633" s="6"/>
       <c r="Q633" s="6"/>
       <c r="R633" s="6"/>
@@ -19416,7 +19535,7 @@
       <c r="L634" s="6"/>
       <c r="M634" s="6"/>
       <c r="N634" s="6"/>
-      <c r="O634" s="16"/>
+      <c r="O634" s="22"/>
       <c r="P634" s="6"/>
       <c r="Q634" s="6"/>
       <c r="R634" s="6"/>
@@ -19443,7 +19562,7 @@
       <c r="L635" s="6"/>
       <c r="M635" s="6"/>
       <c r="N635" s="6"/>
-      <c r="O635" s="16"/>
+      <c r="O635" s="22"/>
       <c r="P635" s="6"/>
       <c r="Q635" s="6"/>
       <c r="R635" s="6"/>
@@ -19470,7 +19589,7 @@
       <c r="L636" s="6"/>
       <c r="M636" s="6"/>
       <c r="N636" s="6"/>
-      <c r="O636" s="16"/>
+      <c r="O636" s="22"/>
       <c r="P636" s="6"/>
       <c r="Q636" s="6"/>
       <c r="R636" s="6"/>
@@ -19497,7 +19616,7 @@
       <c r="L637" s="6"/>
       <c r="M637" s="6"/>
       <c r="N637" s="6"/>
-      <c r="O637" s="16"/>
+      <c r="O637" s="22"/>
       <c r="P637" s="6"/>
       <c r="Q637" s="6"/>
       <c r="R637" s="6"/>
@@ -19524,7 +19643,7 @@
       <c r="L638" s="6"/>
       <c r="M638" s="6"/>
       <c r="N638" s="6"/>
-      <c r="O638" s="16"/>
+      <c r="O638" s="22"/>
       <c r="P638" s="6"/>
       <c r="Q638" s="6"/>
       <c r="R638" s="6"/>
@@ -19551,7 +19670,7 @@
       <c r="L639" s="6"/>
       <c r="M639" s="6"/>
       <c r="N639" s="6"/>
-      <c r="O639" s="16"/>
+      <c r="O639" s="22"/>
       <c r="P639" s="6"/>
       <c r="Q639" s="6"/>
       <c r="R639" s="6"/>
@@ -19578,7 +19697,7 @@
       <c r="L640" s="6"/>
       <c r="M640" s="6"/>
       <c r="N640" s="6"/>
-      <c r="O640" s="16"/>
+      <c r="O640" s="22"/>
       <c r="P640" s="6"/>
       <c r="Q640" s="6"/>
       <c r="R640" s="6"/>
@@ -19605,7 +19724,7 @@
       <c r="L641" s="6"/>
       <c r="M641" s="6"/>
       <c r="N641" s="6"/>
-      <c r="O641" s="16"/>
+      <c r="O641" s="22"/>
       <c r="P641" s="6"/>
       <c r="Q641" s="6"/>
       <c r="R641" s="6"/>
@@ -19632,7 +19751,7 @@
       <c r="L642" s="6"/>
       <c r="M642" s="6"/>
       <c r="N642" s="6"/>
-      <c r="O642" s="16"/>
+      <c r="O642" s="22"/>
       <c r="P642" s="6"/>
       <c r="Q642" s="6"/>
       <c r="R642" s="6"/>
@@ -19659,7 +19778,7 @@
       <c r="L643" s="6"/>
       <c r="M643" s="6"/>
       <c r="N643" s="6"/>
-      <c r="O643" s="16"/>
+      <c r="O643" s="22"/>
       <c r="P643" s="6"/>
       <c r="Q643" s="6"/>
       <c r="R643" s="6"/>
@@ -19686,7 +19805,7 @@
       <c r="L644" s="6"/>
       <c r="M644" s="6"/>
       <c r="N644" s="6"/>
-      <c r="O644" s="16"/>
+      <c r="O644" s="22"/>
       <c r="P644" s="6"/>
       <c r="Q644" s="6"/>
       <c r="R644" s="6"/>
@@ -19713,7 +19832,7 @@
       <c r="L645" s="6"/>
       <c r="M645" s="6"/>
       <c r="N645" s="6"/>
-      <c r="O645" s="16"/>
+      <c r="O645" s="22"/>
       <c r="P645" s="6"/>
       <c r="Q645" s="6"/>
       <c r="R645" s="6"/>
@@ -19740,7 +19859,7 @@
       <c r="L646" s="6"/>
       <c r="M646" s="6"/>
       <c r="N646" s="6"/>
-      <c r="O646" s="16"/>
+      <c r="O646" s="22"/>
       <c r="P646" s="6"/>
       <c r="Q646" s="6"/>
       <c r="R646" s="6"/>
@@ -19767,7 +19886,7 @@
       <c r="L647" s="6"/>
       <c r="M647" s="6"/>
       <c r="N647" s="6"/>
-      <c r="O647" s="16"/>
+      <c r="O647" s="22"/>
       <c r="P647" s="6"/>
       <c r="Q647" s="6"/>
       <c r="R647" s="6"/>
@@ -19794,7 +19913,7 @@
       <c r="L648" s="6"/>
       <c r="M648" s="6"/>
       <c r="N648" s="6"/>
-      <c r="O648" s="16"/>
+      <c r="O648" s="22"/>
       <c r="P648" s="6"/>
       <c r="Q648" s="6"/>
       <c r="R648" s="6"/>
@@ -19821,7 +19940,7 @@
       <c r="L649" s="6"/>
       <c r="M649" s="6"/>
       <c r="N649" s="6"/>
-      <c r="O649" s="16"/>
+      <c r="O649" s="22"/>
       <c r="P649" s="6"/>
       <c r="Q649" s="6"/>
       <c r="R649" s="6"/>
@@ -19848,7 +19967,7 @@
       <c r="L650" s="6"/>
       <c r="M650" s="6"/>
       <c r="N650" s="6"/>
-      <c r="O650" s="16"/>
+      <c r="O650" s="22"/>
       <c r="P650" s="6"/>
       <c r="Q650" s="6"/>
       <c r="R650" s="6"/>
@@ -19875,7 +19994,7 @@
       <c r="L651" s="6"/>
       <c r="M651" s="6"/>
       <c r="N651" s="6"/>
-      <c r="O651" s="16"/>
+      <c r="O651" s="22"/>
       <c r="P651" s="6"/>
       <c r="Q651" s="6"/>
       <c r="R651" s="6"/>
@@ -19902,7 +20021,7 @@
       <c r="L652" s="6"/>
       <c r="M652" s="6"/>
       <c r="N652" s="6"/>
-      <c r="O652" s="16"/>
+      <c r="O652" s="22"/>
       <c r="P652" s="6"/>
       <c r="Q652" s="6"/>
       <c r="R652" s="6"/>
@@ -19929,7 +20048,7 @@
       <c r="L653" s="6"/>
       <c r="M653" s="6"/>
       <c r="N653" s="6"/>
-      <c r="O653" s="16"/>
+      <c r="O653" s="22"/>
       <c r="P653" s="6"/>
       <c r="Q653" s="6"/>
       <c r="R653" s="6"/>
@@ -19956,7 +20075,7 @@
       <c r="L654" s="6"/>
       <c r="M654" s="6"/>
       <c r="N654" s="6"/>
-      <c r="O654" s="16"/>
+      <c r="O654" s="22"/>
       <c r="P654" s="6"/>
       <c r="Q654" s="6"/>
       <c r="R654" s="6"/>
@@ -19983,7 +20102,7 @@
       <c r="L655" s="6"/>
       <c r="M655" s="6"/>
       <c r="N655" s="6"/>
-      <c r="O655" s="16"/>
+      <c r="O655" s="22"/>
       <c r="P655" s="6"/>
       <c r="Q655" s="6"/>
       <c r="R655" s="6"/>
@@ -20010,7 +20129,7 @@
       <c r="L656" s="6"/>
       <c r="M656" s="6"/>
       <c r="N656" s="6"/>
-      <c r="O656" s="16"/>
+      <c r="O656" s="22"/>
       <c r="P656" s="6"/>
       <c r="Q656" s="6"/>
       <c r="R656" s="6"/>
@@ -20037,7 +20156,7 @@
       <c r="L657" s="6"/>
       <c r="M657" s="6"/>
       <c r="N657" s="6"/>
-      <c r="O657" s="16"/>
+      <c r="O657" s="22"/>
       <c r="P657" s="6"/>
       <c r="Q657" s="6"/>
       <c r="R657" s="6"/>
@@ -20064,7 +20183,7 @@
       <c r="L658" s="6"/>
       <c r="M658" s="6"/>
       <c r="N658" s="6"/>
-      <c r="O658" s="16"/>
+      <c r="O658" s="22"/>
       <c r="P658" s="6"/>
       <c r="Q658" s="6"/>
       <c r="R658" s="6"/>
@@ -20091,7 +20210,7 @@
       <c r="L659" s="6"/>
       <c r="M659" s="6"/>
       <c r="N659" s="6"/>
-      <c r="O659" s="16"/>
+      <c r="O659" s="22"/>
       <c r="P659" s="6"/>
       <c r="Q659" s="6"/>
       <c r="R659" s="6"/>
@@ -20118,7 +20237,7 @@
       <c r="L660" s="6"/>
       <c r="M660" s="6"/>
       <c r="N660" s="6"/>
-      <c r="O660" s="16"/>
+      <c r="O660" s="22"/>
       <c r="P660" s="6"/>
       <c r="Q660" s="6"/>
       <c r="R660" s="6"/>
@@ -20145,7 +20264,7 @@
       <c r="L661" s="6"/>
       <c r="M661" s="6"/>
       <c r="N661" s="6"/>
-      <c r="O661" s="16"/>
+      <c r="O661" s="22"/>
       <c r="P661" s="6"/>
       <c r="Q661" s="6"/>
       <c r="R661" s="6"/>
@@ -20172,7 +20291,7 @@
       <c r="L662" s="6"/>
       <c r="M662" s="6"/>
       <c r="N662" s="6"/>
-      <c r="O662" s="16"/>
+      <c r="O662" s="22"/>
       <c r="P662" s="6"/>
       <c r="Q662" s="6"/>
       <c r="R662" s="6"/>
@@ -20199,7 +20318,7 @@
       <c r="L663" s="6"/>
       <c r="M663" s="6"/>
       <c r="N663" s="6"/>
-      <c r="O663" s="16"/>
+      <c r="O663" s="22"/>
       <c r="P663" s="6"/>
       <c r="Q663" s="6"/>
       <c r="R663" s="6"/>
@@ -20226,7 +20345,7 @@
       <c r="L664" s="6"/>
       <c r="M664" s="6"/>
       <c r="N664" s="6"/>
-      <c r="O664" s="16"/>
+      <c r="O664" s="22"/>
       <c r="P664" s="6"/>
       <c r="Q664" s="6"/>
       <c r="R664" s="6"/>
@@ -20253,7 +20372,7 @@
       <c r="L665" s="6"/>
       <c r="M665" s="6"/>
       <c r="N665" s="6"/>
-      <c r="O665" s="16"/>
+      <c r="O665" s="22"/>
       <c r="P665" s="6"/>
       <c r="Q665" s="6"/>
       <c r="R665" s="6"/>
@@ -20280,7 +20399,7 @@
       <c r="L666" s="6"/>
       <c r="M666" s="6"/>
       <c r="N666" s="6"/>
-      <c r="O666" s="16"/>
+      <c r="O666" s="22"/>
       <c r="P666" s="6"/>
       <c r="Q666" s="6"/>
       <c r="R666" s="6"/>
@@ -20307,7 +20426,7 @@
       <c r="L667" s="6"/>
       <c r="M667" s="6"/>
       <c r="N667" s="6"/>
-      <c r="O667" s="16"/>
+      <c r="O667" s="22"/>
       <c r="P667" s="6"/>
       <c r="Q667" s="6"/>
       <c r="R667" s="6"/>
@@ -20334,7 +20453,7 @@
       <c r="L668" s="6"/>
       <c r="M668" s="6"/>
       <c r="N668" s="6"/>
-      <c r="O668" s="16"/>
+      <c r="O668" s="22"/>
       <c r="P668" s="6"/>
       <c r="Q668" s="6"/>
       <c r="R668" s="6"/>
@@ -20361,7 +20480,7 @@
       <c r="L669" s="6"/>
       <c r="M669" s="6"/>
       <c r="N669" s="6"/>
-      <c r="O669" s="16"/>
+      <c r="O669" s="22"/>
       <c r="P669" s="6"/>
       <c r="Q669" s="6"/>
       <c r="R669" s="6"/>
@@ -20388,7 +20507,7 @@
       <c r="L670" s="6"/>
       <c r="M670" s="6"/>
       <c r="N670" s="6"/>
-      <c r="O670" s="16"/>
+      <c r="O670" s="22"/>
       <c r="P670" s="6"/>
       <c r="Q670" s="6"/>
       <c r="R670" s="6"/>
@@ -20415,7 +20534,7 @@
       <c r="L671" s="6"/>
       <c r="M671" s="6"/>
       <c r="N671" s="6"/>
-      <c r="O671" s="16"/>
+      <c r="O671" s="22"/>
       <c r="P671" s="6"/>
       <c r="Q671" s="6"/>
       <c r="R671" s="6"/>
@@ -20442,7 +20561,7 @@
       <c r="L672" s="6"/>
       <c r="M672" s="6"/>
       <c r="N672" s="6"/>
-      <c r="O672" s="16"/>
+      <c r="O672" s="22"/>
       <c r="P672" s="6"/>
       <c r="Q672" s="6"/>
       <c r="R672" s="6"/>
@@ -20469,7 +20588,7 @@
       <c r="L673" s="6"/>
       <c r="M673" s="6"/>
       <c r="N673" s="6"/>
-      <c r="O673" s="16"/>
+      <c r="O673" s="22"/>
       <c r="P673" s="6"/>
       <c r="Q673" s="6"/>
       <c r="R673" s="6"/>
@@ -20496,7 +20615,7 @@
       <c r="L674" s="6"/>
       <c r="M674" s="6"/>
       <c r="N674" s="6"/>
-      <c r="O674" s="16"/>
+      <c r="O674" s="22"/>
       <c r="P674" s="6"/>
       <c r="Q674" s="6"/>
       <c r="R674" s="6"/>
@@ -20523,7 +20642,7 @@
       <c r="L675" s="6"/>
       <c r="M675" s="6"/>
       <c r="N675" s="6"/>
-      <c r="O675" s="16"/>
+      <c r="O675" s="22"/>
       <c r="P675" s="6"/>
       <c r="Q675" s="6"/>
       <c r="R675" s="6"/>
@@ -20550,7 +20669,7 @@
       <c r="L676" s="6"/>
       <c r="M676" s="6"/>
       <c r="N676" s="6"/>
-      <c r="O676" s="16"/>
+      <c r="O676" s="22"/>
       <c r="P676" s="6"/>
       <c r="Q676" s="6"/>
       <c r="R676" s="6"/>
@@ -20577,7 +20696,7 @@
       <c r="L677" s="6"/>
       <c r="M677" s="6"/>
       <c r="N677" s="6"/>
-      <c r="O677" s="16"/>
+      <c r="O677" s="22"/>
       <c r="P677" s="6"/>
       <c r="Q677" s="6"/>
       <c r="R677" s="6"/>
@@ -20604,7 +20723,7 @@
       <c r="L678" s="6"/>
       <c r="M678" s="6"/>
       <c r="N678" s="6"/>
-      <c r="O678" s="16"/>
+      <c r="O678" s="22"/>
       <c r="P678" s="6"/>
       <c r="Q678" s="6"/>
       <c r="R678" s="6"/>
@@ -20631,7 +20750,7 @@
       <c r="L679" s="6"/>
       <c r="M679" s="6"/>
       <c r="N679" s="6"/>
-      <c r="O679" s="16"/>
+      <c r="O679" s="22"/>
       <c r="P679" s="6"/>
       <c r="Q679" s="6"/>
       <c r="R679" s="6"/>
@@ -20658,7 +20777,7 @@
       <c r="L680" s="6"/>
       <c r="M680" s="6"/>
       <c r="N680" s="6"/>
-      <c r="O680" s="16"/>
+      <c r="O680" s="22"/>
       <c r="P680" s="6"/>
       <c r="Q680" s="6"/>
       <c r="R680" s="6"/>
@@ -20685,7 +20804,7 @@
       <c r="L681" s="6"/>
       <c r="M681" s="6"/>
       <c r="N681" s="6"/>
-      <c r="O681" s="16"/>
+      <c r="O681" s="22"/>
       <c r="P681" s="6"/>
       <c r="Q681" s="6"/>
       <c r="R681" s="6"/>
@@ -20712,7 +20831,7 @@
       <c r="L682" s="6"/>
       <c r="M682" s="6"/>
       <c r="N682" s="6"/>
-      <c r="O682" s="16"/>
+      <c r="O682" s="22"/>
       <c r="P682" s="6"/>
       <c r="Q682" s="6"/>
       <c r="R682" s="6"/>
@@ -20739,7 +20858,7 @@
       <c r="L683" s="6"/>
       <c r="M683" s="6"/>
       <c r="N683" s="6"/>
-      <c r="O683" s="16"/>
+      <c r="O683" s="22"/>
       <c r="P683" s="6"/>
       <c r="Q683" s="6"/>
       <c r="R683" s="6"/>
@@ -20766,7 +20885,7 @@
       <c r="L684" s="6"/>
       <c r="M684" s="6"/>
       <c r="N684" s="6"/>
-      <c r="O684" s="16"/>
+      <c r="O684" s="22"/>
       <c r="P684" s="6"/>
       <c r="Q684" s="6"/>
       <c r="R684" s="6"/>
@@ -20793,7 +20912,7 @@
       <c r="L685" s="6"/>
       <c r="M685" s="6"/>
       <c r="N685" s="6"/>
-      <c r="O685" s="16"/>
+      <c r="O685" s="22"/>
       <c r="P685" s="6"/>
       <c r="Q685" s="6"/>
       <c r="R685" s="6"/>
@@ -20820,7 +20939,7 @@
       <c r="L686" s="6"/>
       <c r="M686" s="6"/>
       <c r="N686" s="6"/>
-      <c r="O686" s="16"/>
+      <c r="O686" s="22"/>
       <c r="P686" s="6"/>
       <c r="Q686" s="6"/>
       <c r="R686" s="6"/>
@@ -20847,7 +20966,7 @@
       <c r="L687" s="6"/>
       <c r="M687" s="6"/>
       <c r="N687" s="6"/>
-      <c r="O687" s="16"/>
+      <c r="O687" s="22"/>
       <c r="P687" s="6"/>
       <c r="Q687" s="6"/>
       <c r="R687" s="6"/>
@@ -20874,7 +20993,7 @@
       <c r="L688" s="6"/>
       <c r="M688" s="6"/>
       <c r="N688" s="6"/>
-      <c r="O688" s="16"/>
+      <c r="O688" s="22"/>
       <c r="P688" s="6"/>
       <c r="Q688" s="6"/>
       <c r="R688" s="6"/>
@@ -20901,7 +21020,7 @@
       <c r="L689" s="6"/>
       <c r="M689" s="6"/>
       <c r="N689" s="6"/>
-      <c r="O689" s="16"/>
+      <c r="O689" s="22"/>
       <c r="P689" s="6"/>
       <c r="Q689" s="6"/>
       <c r="R689" s="6"/>
@@ -20928,7 +21047,7 @@
       <c r="L690" s="6"/>
       <c r="M690" s="6"/>
       <c r="N690" s="6"/>
-      <c r="O690" s="16"/>
+      <c r="O690" s="22"/>
       <c r="P690" s="6"/>
       <c r="Q690" s="6"/>
       <c r="R690" s="6"/>
@@ -20955,7 +21074,7 @@
       <c r="L691" s="6"/>
       <c r="M691" s="6"/>
       <c r="N691" s="6"/>
-      <c r="O691" s="16"/>
+      <c r="O691" s="22"/>
       <c r="P691" s="6"/>
       <c r="Q691" s="6"/>
       <c r="R691" s="6"/>
@@ -20982,7 +21101,7 @@
       <c r="L692" s="6"/>
       <c r="M692" s="6"/>
       <c r="N692" s="6"/>
-      <c r="O692" s="16"/>
+      <c r="O692" s="22"/>
       <c r="P692" s="6"/>
       <c r="Q692" s="6"/>
       <c r="R692" s="6"/>
@@ -21009,7 +21128,7 @@
       <c r="L693" s="6"/>
       <c r="M693" s="6"/>
       <c r="N693" s="6"/>
-      <c r="O693" s="16"/>
+      <c r="O693" s="22"/>
       <c r="P693" s="6"/>
       <c r="Q693" s="6"/>
       <c r="R693" s="6"/>
@@ -21036,7 +21155,7 @@
       <c r="L694" s="6"/>
       <c r="M694" s="6"/>
       <c r="N694" s="6"/>
-      <c r="O694" s="16"/>
+      <c r="O694" s="22"/>
       <c r="P694" s="6"/>
       <c r="Q694" s="6"/>
       <c r="R694" s="6"/>
@@ -21063,7 +21182,7 @@
       <c r="L695" s="6"/>
       <c r="M695" s="6"/>
       <c r="N695" s="6"/>
-      <c r="O695" s="16"/>
+      <c r="O695" s="22"/>
       <c r="P695" s="6"/>
       <c r="Q695" s="6"/>
       <c r="R695" s="6"/>
@@ -21090,7 +21209,7 @@
       <c r="L696" s="6"/>
       <c r="M696" s="6"/>
       <c r="N696" s="6"/>
-      <c r="O696" s="16"/>
+      <c r="O696" s="22"/>
       <c r="P696" s="6"/>
       <c r="Q696" s="6"/>
       <c r="R696" s="6"/>
@@ -21117,7 +21236,7 @@
       <c r="L697" s="6"/>
       <c r="M697" s="6"/>
       <c r="N697" s="6"/>
-      <c r="O697" s="16"/>
+      <c r="O697" s="22"/>
       <c r="P697" s="6"/>
       <c r="Q697" s="6"/>
       <c r="R697" s="6"/>
@@ -21144,7 +21263,7 @@
       <c r="L698" s="6"/>
       <c r="M698" s="6"/>
       <c r="N698" s="6"/>
-      <c r="O698" s="16"/>
+      <c r="O698" s="22"/>
       <c r="P698" s="6"/>
       <c r="Q698" s="6"/>
       <c r="R698" s="6"/>
@@ -21171,7 +21290,7 @@
       <c r="L699" s="6"/>
       <c r="M699" s="6"/>
       <c r="N699" s="6"/>
-      <c r="O699" s="16"/>
+      <c r="O699" s="22"/>
       <c r="P699" s="6"/>
       <c r="Q699" s="6"/>
       <c r="R699" s="6"/>
@@ -21198,7 +21317,7 @@
       <c r="L700" s="6"/>
       <c r="M700" s="6"/>
       <c r="N700" s="6"/>
-      <c r="O700" s="16"/>
+      <c r="O700" s="22"/>
       <c r="P700" s="6"/>
       <c r="Q700" s="6"/>
       <c r="R700" s="6"/>
@@ -21225,7 +21344,7 @@
       <c r="L701" s="6"/>
       <c r="M701" s="6"/>
       <c r="N701" s="6"/>
-      <c r="O701" s="16"/>
+      <c r="O701" s="22"/>
       <c r="P701" s="6"/>
       <c r="Q701" s="6"/>
       <c r="R701" s="6"/>
@@ -21252,7 +21371,7 @@
       <c r="L702" s="6"/>
       <c r="M702" s="6"/>
       <c r="N702" s="6"/>
-      <c r="O702" s="16"/>
+      <c r="O702" s="22"/>
       <c r="P702" s="6"/>
       <c r="Q702" s="6"/>
       <c r="R702" s="6"/>
@@ -21279,7 +21398,7 @@
       <c r="L703" s="6"/>
       <c r="M703" s="6"/>
       <c r="N703" s="6"/>
-      <c r="O703" s="16"/>
+      <c r="O703" s="22"/>
       <c r="P703" s="6"/>
       <c r="Q703" s="6"/>
       <c r="R703" s="6"/>
@@ -21306,7 +21425,7 @@
       <c r="L704" s="6"/>
       <c r="M704" s="6"/>
       <c r="N704" s="6"/>
-      <c r="O704" s="16"/>
+      <c r="O704" s="22"/>
       <c r="P704" s="6"/>
       <c r="Q704" s="6"/>
       <c r="R704" s="6"/>
@@ -21333,7 +21452,7 @@
       <c r="L705" s="6"/>
       <c r="M705" s="6"/>
       <c r="N705" s="6"/>
-      <c r="O705" s="16"/>
+      <c r="O705" s="22"/>
       <c r="P705" s="6"/>
       <c r="Q705" s="6"/>
       <c r="R705" s="6"/>
@@ -21360,7 +21479,7 @@
       <c r="L706" s="6"/>
       <c r="M706" s="6"/>
       <c r="N706" s="6"/>
-      <c r="O706" s="16"/>
+      <c r="O706" s="22"/>
       <c r="P706" s="6"/>
       <c r="Q706" s="6"/>
       <c r="R706" s="6"/>
@@ -21387,7 +21506,7 @@
       <c r="L707" s="6"/>
       <c r="M707" s="6"/>
       <c r="N707" s="6"/>
-      <c r="O707" s="16"/>
+      <c r="O707" s="22"/>
       <c r="P707" s="6"/>
       <c r="Q707" s="6"/>
       <c r="R707" s="6"/>
@@ -21414,7 +21533,7 @@
       <c r="L708" s="6"/>
       <c r="M708" s="6"/>
       <c r="N708" s="6"/>
-      <c r="O708" s="16"/>
+      <c r="O708" s="22"/>
       <c r="P708" s="6"/>
       <c r="Q708" s="6"/>
       <c r="R708" s="6"/>
@@ -21441,7 +21560,7 @@
       <c r="L709" s="6"/>
       <c r="M709" s="6"/>
       <c r="N709" s="6"/>
-      <c r="O709" s="16"/>
+      <c r="O709" s="22"/>
       <c r="P709" s="6"/>
       <c r="Q709" s="6"/>
       <c r="R709" s="6"/>
@@ -21468,7 +21587,7 @@
       <c r="L710" s="6"/>
       <c r="M710" s="6"/>
       <c r="N710" s="6"/>
-      <c r="O710" s="16"/>
+      <c r="O710" s="22"/>
       <c r="P710" s="6"/>
       <c r="Q710" s="6"/>
       <c r="R710" s="6"/>
@@ -21495,7 +21614,7 @@
       <c r="L711" s="6"/>
       <c r="M711" s="6"/>
       <c r="N711" s="6"/>
-      <c r="O711" s="16"/>
+      <c r="O711" s="22"/>
       <c r="P711" s="6"/>
       <c r="Q711" s="6"/>
       <c r="R711" s="6"/>
@@ -21522,7 +21641,7 @@
       <c r="L712" s="6"/>
       <c r="M712" s="6"/>
       <c r="N712" s="6"/>
-      <c r="O712" s="16"/>
+      <c r="O712" s="22"/>
       <c r="P712" s="6"/>
       <c r="Q712" s="6"/>
       <c r="R712" s="6"/>
@@ -21549,7 +21668,7 @@
       <c r="L713" s="6"/>
       <c r="M713" s="6"/>
       <c r="N713" s="6"/>
-      <c r="O713" s="16"/>
+      <c r="O713" s="22"/>
       <c r="P713" s="6"/>
       <c r="Q713" s="6"/>
       <c r="R713" s="6"/>
@@ -21576,7 +21695,7 @@
       <c r="L714" s="6"/>
       <c r="M714" s="6"/>
       <c r="N714" s="6"/>
-      <c r="O714" s="16"/>
+      <c r="O714" s="22"/>
       <c r="P714" s="6"/>
       <c r="Q714" s="6"/>
       <c r="R714" s="6"/>
@@ -21603,7 +21722,7 @@
       <c r="L715" s="6"/>
       <c r="M715" s="6"/>
       <c r="N715" s="6"/>
-      <c r="O715" s="16"/>
+      <c r="O715" s="22"/>
       <c r="P715" s="6"/>
       <c r="Q715" s="6"/>
       <c r="R715" s="6"/>
@@ -21630,7 +21749,7 @@
       <c r="L716" s="6"/>
       <c r="M716" s="6"/>
       <c r="N716" s="6"/>
-      <c r="O716" s="16"/>
+      <c r="O716" s="22"/>
       <c r="P716" s="6"/>
       <c r="Q716" s="6"/>
       <c r="R716" s="6"/>
@@ -21657,7 +21776,7 @@
       <c r="L717" s="6"/>
       <c r="M717" s="6"/>
       <c r="N717" s="6"/>
-      <c r="O717" s="16"/>
+      <c r="O717" s="22"/>
       <c r="P717" s="6"/>
       <c r="Q717" s="6"/>
       <c r="R717" s="6"/>
@@ -21684,7 +21803,7 @@
       <c r="L718" s="6"/>
       <c r="M718" s="6"/>
       <c r="N718" s="6"/>
-      <c r="O718" s="16"/>
+      <c r="O718" s="22"/>
       <c r="P718" s="6"/>
       <c r="Q718" s="6"/>
       <c r="R718" s="6"/>
@@ -21711,7 +21830,7 @@
       <c r="L719" s="6"/>
       <c r="M719" s="6"/>
       <c r="N719" s="6"/>
-      <c r="O719" s="16"/>
+      <c r="O719" s="22"/>
       <c r="P719" s="6"/>
       <c r="Q719" s="6"/>
       <c r="R719" s="6"/>
@@ -21738,7 +21857,7 @@
       <c r="L720" s="6"/>
       <c r="M720" s="6"/>
       <c r="N720" s="6"/>
-      <c r="O720" s="16"/>
+      <c r="O720" s="22"/>
       <c r="P720" s="6"/>
       <c r="Q720" s="6"/>
       <c r="R720" s="6"/>
@@ -21765,7 +21884,7 @@
       <c r="L721" s="6"/>
       <c r="M721" s="6"/>
       <c r="N721" s="6"/>
-      <c r="O721" s="16"/>
+      <c r="O721" s="22"/>
       <c r="P721" s="6"/>
       <c r="Q721" s="6"/>
       <c r="R721" s="6"/>
@@ -21792,7 +21911,7 @@
       <c r="L722" s="6"/>
       <c r="M722" s="6"/>
       <c r="N722" s="6"/>
-      <c r="O722" s="16"/>
+      <c r="O722" s="22"/>
       <c r="P722" s="6"/>
       <c r="Q722" s="6"/>
       <c r="R722" s="6"/>
@@ -21819,7 +21938,7 @@
       <c r="L723" s="6"/>
       <c r="M723" s="6"/>
       <c r="N723" s="6"/>
-      <c r="O723" s="16"/>
+      <c r="O723" s="22"/>
       <c r="P723" s="6"/>
       <c r="Q723" s="6"/>
       <c r="R723" s="6"/>
@@ -21846,7 +21965,7 @@
       <c r="L724" s="6"/>
       <c r="M724" s="6"/>
       <c r="N724" s="6"/>
-      <c r="O724" s="16"/>
+      <c r="O724" s="22"/>
       <c r="P724" s="6"/>
       <c r="Q724" s="6"/>
       <c r="R724" s="6"/>
@@ -21873,7 +21992,7 @@
       <c r="L725" s="6"/>
       <c r="M725" s="6"/>
       <c r="N725" s="6"/>
-      <c r="O725" s="16"/>
+      <c r="O725" s="22"/>
       <c r="P725" s="6"/>
       <c r="Q725" s="6"/>
       <c r="R725" s="6"/>
@@ -21900,7 +22019,7 @@
       <c r="L726" s="6"/>
       <c r="M726" s="6"/>
       <c r="N726" s="6"/>
-      <c r="O726" s="16"/>
+      <c r="O726" s="22"/>
       <c r="P726" s="6"/>
       <c r="Q726" s="6"/>
       <c r="R726" s="6"/>
@@ -21927,7 +22046,7 @@
       <c r="L727" s="6"/>
       <c r="M727" s="6"/>
       <c r="N727" s="6"/>
-      <c r="O727" s="16"/>
+      <c r="O727" s="22"/>
       <c r="P727" s="6"/>
       <c r="Q727" s="6"/>
       <c r="R727" s="6"/>
@@ -21954,7 +22073,7 @@
       <c r="L728" s="6"/>
       <c r="M728" s="6"/>
       <c r="N728" s="6"/>
-      <c r="O728" s="16"/>
+      <c r="O728" s="22"/>
       <c r="P728" s="6"/>
       <c r="Q728" s="6"/>
       <c r="R728" s="6"/>
@@ -21981,7 +22100,7 @@
       <c r="L729" s="6"/>
       <c r="M729" s="6"/>
       <c r="N729" s="6"/>
-      <c r="O729" s="16"/>
+      <c r="O729" s="22"/>
       <c r="P729" s="6"/>
       <c r="Q729" s="6"/>
       <c r="R729" s="6"/>
@@ -22008,7 +22127,7 @@
       <c r="L730" s="6"/>
       <c r="M730" s="6"/>
       <c r="N730" s="6"/>
-      <c r="O730" s="16"/>
+      <c r="O730" s="22"/>
       <c r="P730" s="6"/>
       <c r="Q730" s="6"/>
       <c r="R730" s="6"/>
@@ -22035,7 +22154,7 @@
       <c r="L731" s="6"/>
       <c r="M731" s="6"/>
       <c r="N731" s="6"/>
-      <c r="O731" s="16"/>
+      <c r="O731" s="22"/>
       <c r="P731" s="6"/>
       <c r="Q731" s="6"/>
       <c r="R731" s="6"/>
@@ -22062,7 +22181,7 @@
       <c r="L732" s="6"/>
       <c r="M732" s="6"/>
       <c r="N732" s="6"/>
-      <c r="O732" s="16"/>
+      <c r="O732" s="22"/>
       <c r="P732" s="6"/>
       <c r="Q732" s="6"/>
       <c r="R732" s="6"/>
@@ -22089,7 +22208,7 @@
       <c r="L733" s="6"/>
       <c r="M733" s="6"/>
       <c r="N733" s="6"/>
-      <c r="O733" s="16"/>
+      <c r="O733" s="22"/>
       <c r="P733" s="6"/>
       <c r="Q733" s="6"/>
       <c r="R733" s="6"/>
@@ -22116,7 +22235,7 @@
       <c r="L734" s="6"/>
       <c r="M734" s="6"/>
       <c r="N734" s="6"/>
-      <c r="O734" s="16"/>
+      <c r="O734" s="22"/>
       <c r="P734" s="6"/>
       <c r="Q734" s="6"/>
       <c r="R734" s="6"/>
@@ -22143,7 +22262,7 @@
       <c r="L735" s="6"/>
       <c r="M735" s="6"/>
       <c r="N735" s="6"/>
-      <c r="O735" s="16"/>
+      <c r="O735" s="22"/>
       <c r="P735" s="6"/>
       <c r="Q735" s="6"/>
       <c r="R735" s="6"/>
@@ -22170,7 +22289,7 @@
       <c r="L736" s="6"/>
       <c r="M736" s="6"/>
       <c r="N736" s="6"/>
-      <c r="O736" s="16"/>
+      <c r="O736" s="22"/>
       <c r="P736" s="6"/>
       <c r="Q736" s="6"/>
       <c r="R736" s="6"/>
@@ -22197,7 +22316,7 @@
       <c r="L737" s="6"/>
       <c r="M737" s="6"/>
       <c r="N737" s="6"/>
-      <c r="O737" s="16"/>
+      <c r="O737" s="22"/>
       <c r="P737" s="6"/>
       <c r="Q737" s="6"/>
       <c r="R737" s="6"/>
@@ -22224,7 +22343,7 @@
       <c r="L738" s="6"/>
       <c r="M738" s="6"/>
       <c r="N738" s="6"/>
-      <c r="O738" s="16"/>
+      <c r="O738" s="22"/>
       <c r="P738" s="6"/>
       <c r="Q738" s="6"/>
       <c r="R738" s="6"/>
@@ -22251,7 +22370,7 @@
       <c r="L739" s="6"/>
       <c r="M739" s="6"/>
       <c r="N739" s="6"/>
-      <c r="O739" s="16"/>
+      <c r="O739" s="22"/>
       <c r="P739" s="6"/>
       <c r="Q739" s="6"/>
       <c r="R739" s="6"/>
@@ -22278,7 +22397,7 @@
       <c r="L740" s="6"/>
       <c r="M740" s="6"/>
       <c r="N740" s="6"/>
-      <c r="O740" s="16"/>
+      <c r="O740" s="22"/>
       <c r="P740" s="6"/>
       <c r="Q740" s="6"/>
       <c r="R740" s="6"/>
@@ -22305,7 +22424,7 @@
       <c r="L741" s="6"/>
       <c r="M741" s="6"/>
       <c r="N741" s="6"/>
-      <c r="O741" s="16"/>
+      <c r="O741" s="22"/>
       <c r="P741" s="6"/>
       <c r="Q741" s="6"/>
       <c r="R741" s="6"/>
@@ -22332,7 +22451,7 @@
       <c r="L742" s="6"/>
       <c r="M742" s="6"/>
       <c r="N742" s="6"/>
-      <c r="O742" s="16"/>
+      <c r="O742" s="22"/>
       <c r="P742" s="6"/>
       <c r="Q742" s="6"/>
       <c r="R742" s="6"/>
@@ -22359,7 +22478,7 @@
       <c r="L743" s="6"/>
       <c r="M743" s="6"/>
       <c r="N743" s="6"/>
-      <c r="O743" s="16"/>
+      <c r="O743" s="22"/>
       <c r="P743" s="6"/>
       <c r="Q743" s="6"/>
       <c r="R743" s="6"/>
@@ -22386,7 +22505,7 @@
       <c r="L744" s="6"/>
       <c r="M744" s="6"/>
       <c r="N744" s="6"/>
-      <c r="O744" s="16"/>
+      <c r="O744" s="22"/>
       <c r="P744" s="6"/>
       <c r="Q744" s="6"/>
       <c r="R744" s="6"/>
@@ -22413,7 +22532,7 @@
       <c r="L745" s="6"/>
       <c r="M745" s="6"/>
       <c r="N745" s="6"/>
-      <c r="O745" s="16"/>
+      <c r="O745" s="22"/>
       <c r="P745" s="6"/>
       <c r="Q745" s="6"/>
       <c r="R745" s="6"/>
@@ -22440,7 +22559,7 @@
       <c r="L746" s="6"/>
       <c r="M746" s="6"/>
       <c r="N746" s="6"/>
-      <c r="O746" s="16"/>
+      <c r="O746" s="22"/>
       <c r="P746" s="6"/>
       <c r="Q746" s="6"/>
       <c r="R746" s="6"/>
@@ -22467,7 +22586,7 @@
       <c r="L747" s="6"/>
       <c r="M747" s="6"/>
       <c r="N747" s="6"/>
-      <c r="O747" s="16"/>
+      <c r="O747" s="22"/>
       <c r="P747" s="6"/>
       <c r="Q747" s="6"/>
       <c r="R747" s="6"/>
@@ -22494,7 +22613,7 @@
       <c r="L748" s="6"/>
       <c r="M748" s="6"/>
       <c r="N748" s="6"/>
-      <c r="O748" s="16"/>
+      <c r="O748" s="22"/>
       <c r="P748" s="6"/>
       <c r="Q748" s="6"/>
       <c r="R748" s="6"/>
@@ -22521,7 +22640,7 @@
       <c r="L749" s="6"/>
       <c r="M749" s="6"/>
       <c r="N749" s="6"/>
-      <c r="O749" s="16"/>
+      <c r="O749" s="22"/>
       <c r="P749" s="6"/>
       <c r="Q749" s="6"/>
       <c r="R749" s="6"/>
@@ -22548,7 +22667,7 @@
       <c r="L750" s="6"/>
       <c r="M750" s="6"/>
       <c r="N750" s="6"/>
-      <c r="O750" s="16"/>
+      <c r="O750" s="22"/>
       <c r="P750" s="6"/>
       <c r="Q750" s="6"/>
       <c r="R750" s="6"/>
@@ -22575,7 +22694,7 @@
       <c r="L751" s="6"/>
       <c r="M751" s="6"/>
       <c r="N751" s="6"/>
-      <c r="O751" s="16"/>
+      <c r="O751" s="22"/>
       <c r="P751" s="6"/>
       <c r="Q751" s="6"/>
       <c r="R751" s="6"/>
@@ -22602,7 +22721,7 @@
       <c r="L752" s="6"/>
       <c r="M752" s="6"/>
       <c r="N752" s="6"/>
-      <c r="O752" s="16"/>
+      <c r="O752" s="22"/>
       <c r="P752" s="6"/>
       <c r="Q752" s="6"/>
       <c r="R752" s="6"/>
@@ -22629,7 +22748,7 @@
       <c r="L753" s="6"/>
       <c r="M753" s="6"/>
       <c r="N753" s="6"/>
-      <c r="O753" s="16"/>
+      <c r="O753" s="22"/>
       <c r="P753" s="6"/>
       <c r="Q753" s="6"/>
       <c r="R753" s="6"/>
@@ -22656,7 +22775,7 @@
       <c r="L754" s="6"/>
       <c r="M754" s="6"/>
       <c r="N754" s="6"/>
-      <c r="O754" s="16"/>
+      <c r="O754" s="22"/>
       <c r="P754" s="6"/>
       <c r="Q754" s="6"/>
       <c r="R754" s="6"/>
@@ -22683,7 +22802,7 @@
       <c r="L755" s="6"/>
       <c r="M755" s="6"/>
       <c r="N755" s="6"/>
-      <c r="O755" s="16"/>
+      <c r="O755" s="22"/>
       <c r="P755" s="6"/>
       <c r="Q755" s="6"/>
       <c r="R755" s="6"/>
@@ -22710,7 +22829,7 @@
       <c r="L756" s="6"/>
       <c r="M756" s="6"/>
       <c r="N756" s="6"/>
-      <c r="O756" s="16"/>
+      <c r="O756" s="22"/>
       <c r="P756" s="6"/>
       <c r="Q756" s="6"/>
       <c r="R756" s="6"/>
@@ -22737,7 +22856,7 @@
       <c r="L757" s="6"/>
       <c r="M757" s="6"/>
       <c r="N757" s="6"/>
-      <c r="O757" s="16"/>
+      <c r="O757" s="22"/>
       <c r="P757" s="6"/>
       <c r="Q757" s="6"/>
       <c r="R757" s="6"/>
@@ -22764,7 +22883,7 @@
       <c r="L758" s="6"/>
       <c r="M758" s="6"/>
       <c r="N758" s="6"/>
-      <c r="O758" s="16"/>
+      <c r="O758" s="22"/>
       <c r="P758" s="6"/>
       <c r="Q758" s="6"/>
       <c r="R758" s="6"/>
@@ -22791,7 +22910,7 @@
       <c r="L759" s="6"/>
       <c r="M759" s="6"/>
       <c r="N759" s="6"/>
-      <c r="O759" s="16"/>
+      <c r="O759" s="22"/>
       <c r="P759" s="6"/>
       <c r="Q759" s="6"/>
       <c r="R759" s="6"/>
@@ -22818,7 +22937,7 @@
       <c r="L760" s="6"/>
       <c r="M760" s="6"/>
       <c r="N760" s="6"/>
-      <c r="O760" s="16"/>
+      <c r="O760" s="22"/>
       <c r="P760" s="6"/>
       <c r="Q760" s="6"/>
       <c r="R760" s="6"/>
@@ -22845,7 +22964,7 @@
       <c r="L761" s="6"/>
       <c r="M761" s="6"/>
       <c r="N761" s="6"/>
-      <c r="O761" s="16"/>
+      <c r="O761" s="22"/>
       <c r="P761" s="6"/>
       <c r="Q761" s="6"/>
       <c r="R761" s="6"/>
@@ -22872,7 +22991,7 @@
       <c r="L762" s="6"/>
       <c r="M762" s="6"/>
       <c r="N762" s="6"/>
-      <c r="O762" s="16"/>
+      <c r="O762" s="22"/>
       <c r="P762" s="6"/>
       <c r="Q762" s="6"/>
       <c r="R762" s="6"/>
@@ -22899,7 +23018,7 @@
       <c r="L763" s="6"/>
       <c r="M763" s="6"/>
       <c r="N763" s="6"/>
-      <c r="O763" s="16"/>
+      <c r="O763" s="22"/>
       <c r="P763" s="6"/>
       <c r="Q763" s="6"/>
       <c r="R763" s="6"/>
@@ -22926,7 +23045,7 @@
       <c r="L764" s="6"/>
       <c r="M764" s="6"/>
       <c r="N764" s="6"/>
-      <c r="O764" s="16"/>
+      <c r="O764" s="22"/>
       <c r="P764" s="6"/>
       <c r="Q764" s="6"/>
       <c r="R764" s="6"/>
@@ -22953,7 +23072,7 @@
       <c r="L765" s="6"/>
       <c r="M765" s="6"/>
       <c r="N765" s="6"/>
-      <c r="O765" s="16"/>
+      <c r="O765" s="22"/>
       <c r="P765" s="6"/>
       <c r="Q765" s="6"/>
       <c r="R765" s="6"/>
@@ -22980,7 +23099,7 @@
       <c r="L766" s="6"/>
       <c r="M766" s="6"/>
       <c r="N766" s="6"/>
-      <c r="O766" s="16"/>
+      <c r="O766" s="22"/>
       <c r="P766" s="6"/>
       <c r="Q766" s="6"/>
       <c r="R766" s="6"/>
@@ -23007,7 +23126,7 @@
       <c r="L767" s="6"/>
       <c r="M767" s="6"/>
       <c r="N767" s="6"/>
-      <c r="O767" s="16"/>
+      <c r="O767" s="22"/>
       <c r="P767" s="6"/>
       <c r="Q767" s="6"/>
       <c r="R767" s="6"/>
@@ -23034,7 +23153,7 @@
       <c r="L768" s="6"/>
       <c r="M768" s="6"/>
       <c r="N768" s="6"/>
-      <c r="O768" s="16"/>
+      <c r="O768" s="22"/>
       <c r="P768" s="6"/>
       <c r="Q768" s="6"/>
       <c r="R768" s="6"/>
@@ -23061,7 +23180,7 @@
       <c r="L769" s="6"/>
       <c r="M769" s="6"/>
       <c r="N769" s="6"/>
-      <c r="O769" s="16"/>
+      <c r="O769" s="22"/>
       <c r="P769" s="6"/>
       <c r="Q769" s="6"/>
       <c r="R769" s="6"/>
@@ -23088,7 +23207,7 @@
       <c r="L770" s="6"/>
       <c r="M770" s="6"/>
       <c r="N770" s="6"/>
-      <c r="O770" s="16"/>
+      <c r="O770" s="22"/>
       <c r="P770" s="6"/>
       <c r="Q770" s="6"/>
       <c r="R770" s="6"/>
@@ -23115,7 +23234,7 @@
       <c r="L771" s="6"/>
       <c r="M771" s="6"/>
       <c r="N771" s="6"/>
-      <c r="O771" s="16"/>
+      <c r="O771" s="22"/>
       <c r="P771" s="6"/>
       <c r="Q771" s="6"/>
       <c r="R771" s="6"/>
@@ -23142,7 +23261,7 @@
       <c r="L772" s="6"/>
       <c r="M772" s="6"/>
       <c r="N772" s="6"/>
-      <c r="O772" s="16"/>
+      <c r="O772" s="22"/>
       <c r="P772" s="6"/>
       <c r="Q772" s="6"/>
       <c r="R772" s="6"/>
@@ -23169,7 +23288,7 @@
       <c r="L773" s="6"/>
       <c r="M773" s="6"/>
       <c r="N773" s="6"/>
-      <c r="O773" s="16"/>
+      <c r="O773" s="22"/>
       <c r="P773" s="6"/>
       <c r="Q773" s="6"/>
       <c r="R773" s="6"/>
@@ -23196,7 +23315,7 @@
       <c r="L774" s="6"/>
       <c r="M774" s="6"/>
       <c r="N774" s="6"/>
-      <c r="O774" s="16"/>
+      <c r="O774" s="22"/>
       <c r="P774" s="6"/>
       <c r="Q774" s="6"/>
       <c r="R774" s="6"/>
@@ -23223,7 +23342,7 @@
       <c r="L775" s="6"/>
       <c r="M775" s="6"/>
       <c r="N775" s="6"/>
-      <c r="O775" s="16"/>
+      <c r="O775" s="22"/>
       <c r="P775" s="6"/>
       <c r="Q775" s="6"/>
       <c r="R775" s="6"/>
@@ -23250,7 +23369,7 @@
       <c r="L776" s="6"/>
       <c r="M776" s="6"/>
       <c r="N776" s="6"/>
-      <c r="O776" s="16"/>
+      <c r="O776" s="22"/>
       <c r="P776" s="6"/>
       <c r="Q776" s="6"/>
       <c r="R776" s="6"/>
@@ -23277,7 +23396,7 @@
       <c r="L777" s="6"/>
       <c r="M777" s="6"/>
       <c r="N777" s="6"/>
-      <c r="O777" s="16"/>
+      <c r="O777" s="22"/>
       <c r="P777" s="6"/>
       <c r="Q777" s="6"/>
       <c r="R777" s="6"/>
@@ -23304,7 +23423,7 @@
       <c r="L778" s="6"/>
       <c r="M778" s="6"/>
       <c r="N778" s="6"/>
-      <c r="O778" s="16"/>
+      <c r="O778" s="22"/>
       <c r="P778" s="6"/>
       <c r="Q778" s="6"/>
       <c r="R778" s="6"/>
@@ -23331,7 +23450,7 @@
       <c r="L779" s="6"/>
       <c r="M779" s="6"/>
       <c r="N779" s="6"/>
-      <c r="O779" s="16"/>
+      <c r="O779" s="22"/>
       <c r="P779" s="6"/>
       <c r="Q779" s="6"/>
       <c r="R779" s="6"/>
@@ -23358,7 +23477,7 @@
       <c r="L780" s="6"/>
       <c r="M780" s="6"/>
       <c r="N780" s="6"/>
-      <c r="O780" s="16"/>
+      <c r="O780" s="22"/>
       <c r="P780" s="6"/>
       <c r="Q780" s="6"/>
       <c r="R780" s="6"/>
@@ -23385,7 +23504,7 @@
       <c r="L781" s="6"/>
       <c r="M781" s="6"/>
       <c r="N781" s="6"/>
-      <c r="O781" s="16"/>
+      <c r="O781" s="22"/>
       <c r="P781" s="6"/>
       <c r="Q781" s="6"/>
       <c r="R781" s="6"/>
@@ -23412,7 +23531,7 @@
       <c r="L782" s="6"/>
       <c r="M782" s="6"/>
       <c r="N782" s="6"/>
-      <c r="O782" s="16"/>
+      <c r="O782" s="22"/>
       <c r="P782" s="6"/>
       <c r="Q782" s="6"/>
       <c r="R782" s="6"/>
@@ -23439,7 +23558,7 @@
       <c r="L783" s="6"/>
       <c r="M783" s="6"/>
       <c r="N783" s="6"/>
-      <c r="O783" s="16"/>
+      <c r="O783" s="22"/>
       <c r="P783" s="6"/>
       <c r="Q783" s="6"/>
       <c r="R783" s="6"/>
@@ -23466,7 +23585,7 @@
       <c r="L784" s="6"/>
       <c r="M784" s="6"/>
       <c r="N784" s="6"/>
-      <c r="O784" s="16"/>
+      <c r="O784" s="22"/>
       <c r="P784" s="6"/>
       <c r="Q784" s="6"/>
       <c r="R784" s="6"/>
@@ -23493,7 +23612,7 @@
       <c r="L785" s="6"/>
       <c r="M785" s="6"/>
       <c r="N785" s="6"/>
-      <c r="O785" s="16"/>
+      <c r="O785" s="22"/>
       <c r="P785" s="6"/>
       <c r="Q785" s="6"/>
       <c r="R785" s="6"/>
@@ -23520,7 +23639,7 @@
       <c r="L786" s="6"/>
       <c r="M786" s="6"/>
       <c r="N786" s="6"/>
-      <c r="O786" s="16"/>
+      <c r="O786" s="22"/>
       <c r="P786" s="6"/>
       <c r="Q786" s="6"/>
       <c r="R786" s="6"/>
@@ -23547,7 +23666,7 @@
       <c r="L787" s="6"/>
       <c r="M787" s="6"/>
       <c r="N787" s="6"/>
-      <c r="O787" s="16"/>
+      <c r="O787" s="22"/>
       <c r="P787" s="6"/>
       <c r="Q787" s="6"/>
       <c r="R787" s="6"/>
@@ -23574,7 +23693,7 @@
       <c r="L788" s="6"/>
       <c r="M788" s="6"/>
       <c r="N788" s="6"/>
-      <c r="O788" s="16"/>
+      <c r="O788" s="22"/>
       <c r="P788" s="6"/>
       <c r="Q788" s="6"/>
       <c r="R788" s="6"/>
@@ -23601,7 +23720,7 @@
       <c r="L789" s="6"/>
       <c r="M789" s="6"/>
       <c r="N789" s="6"/>
-      <c r="O789" s="16"/>
+      <c r="O789" s="22"/>
       <c r="P789" s="6"/>
       <c r="Q789" s="6"/>
       <c r="R789" s="6"/>
@@ -23628,7 +23747,7 @@
       <c r="L790" s="6"/>
       <c r="M790" s="6"/>
       <c r="N790" s="6"/>
-      <c r="O790" s="16"/>
+      <c r="O790" s="22"/>
       <c r="P790" s="6"/>
       <c r="Q790" s="6"/>
       <c r="R790" s="6"/>
@@ -23655,7 +23774,7 @@
       <c r="L791" s="6"/>
       <c r="M791" s="6"/>
       <c r="N791" s="6"/>
-      <c r="O791" s="16"/>
+      <c r="O791" s="22"/>
       <c r="P791" s="6"/>
       <c r="Q791" s="6"/>
       <c r="R791" s="6"/>
@@ -23682,7 +23801,7 @@
       <c r="L792" s="6"/>
       <c r="M792" s="6"/>
       <c r="N792" s="6"/>
-      <c r="O792" s="16"/>
+      <c r="O792" s="22"/>
       <c r="P792" s="6"/>
       <c r="Q792" s="6"/>
       <c r="R792" s="6"/>
@@ -23709,7 +23828,7 @@
       <c r="L793" s="6"/>
       <c r="M793" s="6"/>
       <c r="N793" s="6"/>
-      <c r="O793" s="16"/>
+      <c r="O793" s="22"/>
       <c r="P793" s="6"/>
       <c r="Q793" s="6"/>
       <c r="R793" s="6"/>
@@ -23736,7 +23855,7 @@
       <c r="L794" s="6"/>
       <c r="M794" s="6"/>
       <c r="N794" s="6"/>
-      <c r="O794" s="16"/>
+      <c r="O794" s="22"/>
       <c r="P794" s="6"/>
       <c r="Q794" s="6"/>
       <c r="R794" s="6"/>
@@ -23763,7 +23882,7 @@
       <c r="L795" s="6"/>
       <c r="M795" s="6"/>
       <c r="N795" s="6"/>
-      <c r="O795" s="16"/>
+      <c r="O795" s="22"/>
       <c r="P795" s="6"/>
       <c r="Q795" s="6"/>
       <c r="R795" s="6"/>
@@ -23790,7 +23909,7 @@
       <c r="L796" s="6"/>
       <c r="M796" s="6"/>
       <c r="N796" s="6"/>
-      <c r="O796" s="16"/>
+      <c r="O796" s="22"/>
       <c r="P796" s="6"/>
       <c r="Q796" s="6"/>
       <c r="R796" s="6"/>
@@ -23817,7 +23936,7 @@
       <c r="L797" s="6"/>
       <c r="M797" s="6"/>
       <c r="N797" s="6"/>
-      <c r="O797" s="16"/>
+      <c r="O797" s="22"/>
       <c r="P797" s="6"/>
       <c r="Q797" s="6"/>
       <c r="R797" s="6"/>
@@ -23844,7 +23963,7 @@
       <c r="L798" s="6"/>
       <c r="M798" s="6"/>
       <c r="N798" s="6"/>
-      <c r="O798" s="16"/>
+      <c r="O798" s="22"/>
       <c r="P798" s="6"/>
       <c r="Q798" s="6"/>
       <c r="R798" s="6"/>
@@ -23871,7 +23990,7 @@
       <c r="L799" s="6"/>
       <c r="M799" s="6"/>
       <c r="N799" s="6"/>
-      <c r="O799" s="16"/>
+      <c r="O799" s="22"/>
       <c r="P799" s="6"/>
       <c r="Q799" s="6"/>
       <c r="R799" s="6"/>
@@ -23898,7 +24017,7 @@
       <c r="L800" s="6"/>
       <c r="M800" s="6"/>
       <c r="N800" s="6"/>
-      <c r="O800" s="16"/>
+      <c r="O800" s="22"/>
       <c r="P800" s="6"/>
       <c r="Q800" s="6"/>
       <c r="R800" s="6"/>
@@ -23925,7 +24044,7 @@
       <c r="L801" s="6"/>
       <c r="M801" s="6"/>
       <c r="N801" s="6"/>
-      <c r="O801" s="16"/>
+      <c r="O801" s="22"/>
       <c r="P801" s="6"/>
       <c r="Q801" s="6"/>
       <c r="R801" s="6"/>
@@ -23952,7 +24071,7 @@
       <c r="L802" s="6"/>
       <c r="M802" s="6"/>
       <c r="N802" s="6"/>
-      <c r="O802" s="16"/>
+      <c r="O802" s="22"/>
       <c r="P802" s="6"/>
       <c r="Q802" s="6"/>
       <c r="R802" s="6"/>
@@ -23979,7 +24098,7 @@
       <c r="L803" s="6"/>
       <c r="M803" s="6"/>
       <c r="N803" s="6"/>
-      <c r="O803" s="16"/>
+      <c r="O803" s="22"/>
       <c r="P803" s="6"/>
       <c r="Q803" s="6"/>
       <c r="R803" s="6"/>
@@ -24006,7 +24125,7 @@
       <c r="L804" s="6"/>
       <c r="M804" s="6"/>
       <c r="N804" s="6"/>
-      <c r="O804" s="16"/>
+      <c r="O804" s="22"/>
       <c r="P804" s="6"/>
       <c r="Q804" s="6"/>
       <c r="R804" s="6"/>
@@ -24033,7 +24152,7 @@
       <c r="L805" s="6"/>
       <c r="M805" s="6"/>
       <c r="N805" s="6"/>
-      <c r="O805" s="16"/>
+      <c r="O805" s="22"/>
       <c r="P805" s="6"/>
       <c r="Q805" s="6"/>
       <c r="R805" s="6"/>
@@ -24060,7 +24179,7 @@
       <c r="L806" s="6"/>
       <c r="M806" s="6"/>
       <c r="N806" s="6"/>
-      <c r="O806" s="16"/>
+      <c r="O806" s="22"/>
       <c r="P806" s="6"/>
       <c r="Q806" s="6"/>
       <c r="R806" s="6"/>
@@ -24087,7 +24206,7 @@
       <c r="L807" s="6"/>
       <c r="M807" s="6"/>
       <c r="N807" s="6"/>
-      <c r="O807" s="16"/>
+      <c r="O807" s="22"/>
       <c r="P807" s="6"/>
       <c r="Q807" s="6"/>
       <c r="R807" s="6"/>
@@ -24114,7 +24233,7 @@
       <c r="L808" s="6"/>
       <c r="M808" s="6"/>
       <c r="N808" s="6"/>
-      <c r="O808" s="16"/>
+      <c r="O808" s="22"/>
       <c r="P808" s="6"/>
       <c r="Q808" s="6"/>
       <c r="R808" s="6"/>
@@ -24141,7 +24260,7 @@
       <c r="L809" s="6"/>
       <c r="M809" s="6"/>
       <c r="N809" s="6"/>
-      <c r="O809" s="16"/>
+      <c r="O809" s="22"/>
       <c r="P809" s="6"/>
       <c r="Q809" s="6"/>
       <c r="R809" s="6"/>
@@ -24168,7 +24287,7 @@
       <c r="L810" s="6"/>
       <c r="M810" s="6"/>
       <c r="N810" s="6"/>
-      <c r="O810" s="16"/>
+      <c r="O810" s="22"/>
       <c r="P810" s="6"/>
       <c r="Q810" s="6"/>
       <c r="R810" s="6"/>
@@ -24195,7 +24314,7 @@
       <c r="L811" s="6"/>
       <c r="M811" s="6"/>
       <c r="N811" s="6"/>
-      <c r="O811" s="16"/>
+      <c r="O811" s="22"/>
       <c r="P811" s="6"/>
       <c r="Q811" s="6"/>
       <c r="R811" s="6"/>
@@ -24222,7 +24341,7 @@
       <c r="L812" s="6"/>
       <c r="M812" s="6"/>
       <c r="N812" s="6"/>
-      <c r="O812" s="16"/>
+      <c r="O812" s="22"/>
       <c r="P812" s="6"/>
       <c r="Q812" s="6"/>
       <c r="R812" s="6"/>
@@ -24249,7 +24368,7 @@
       <c r="L813" s="6"/>
       <c r="M813" s="6"/>
       <c r="N813" s="6"/>
-      <c r="O813" s="16"/>
+      <c r="O813" s="22"/>
       <c r="P813" s="6"/>
       <c r="Q813" s="6"/>
       <c r="R813" s="6"/>
@@ -24276,7 +24395,7 @@
       <c r="L814" s="6"/>
       <c r="M814" s="6"/>
       <c r="N814" s="6"/>
-      <c r="O814" s="16"/>
+      <c r="O814" s="22"/>
       <c r="P814" s="6"/>
       <c r="Q814" s="6"/>
       <c r="R814" s="6"/>
@@ -24303,7 +24422,7 @@
       <c r="L815" s="6"/>
       <c r="M815" s="6"/>
       <c r="N815" s="6"/>
-      <c r="O815" s="16"/>
+      <c r="O815" s="22"/>
       <c r="P815" s="6"/>
       <c r="Q815" s="6"/>
       <c r="R815" s="6"/>
@@ -24330,7 +24449,7 @@
       <c r="L816" s="6"/>
       <c r="M816" s="6"/>
       <c r="N816" s="6"/>
-      <c r="O816" s="16"/>
+      <c r="O816" s="22"/>
       <c r="P816" s="6"/>
       <c r="Q816" s="6"/>
       <c r="R816" s="6"/>
@@ -24357,7 +24476,7 @@
       <c r="L817" s="6"/>
       <c r="M817" s="6"/>
       <c r="N817" s="6"/>
-      <c r="O817" s="16"/>
+      <c r="O817" s="22"/>
       <c r="P817" s="6"/>
       <c r="Q817" s="6"/>
       <c r="R817" s="6"/>
@@ -24384,7 +24503,7 @@
       <c r="L818" s="6"/>
       <c r="M818" s="6"/>
       <c r="N818" s="6"/>
-      <c r="O818" s="16"/>
+      <c r="O818" s="22"/>
       <c r="P818" s="6"/>
       <c r="Q818" s="6"/>
       <c r="R818" s="6"/>
@@ -24411,7 +24530,7 @@
       <c r="L819" s="6"/>
       <c r="M819" s="6"/>
       <c r="N819" s="6"/>
-      <c r="O819" s="16"/>
+      <c r="O819" s="22"/>
       <c r="P819" s="6"/>
       <c r="Q819" s="6"/>
       <c r="R819" s="6"/>
@@ -24438,7 +24557,7 @@
       <c r="L820" s="6"/>
       <c r="M820" s="6"/>
       <c r="N820" s="6"/>
-      <c r="O820" s="16"/>
+      <c r="O820" s="22"/>
       <c r="P820" s="6"/>
       <c r="Q820" s="6"/>
       <c r="R820" s="6"/>
@@ -24465,7 +24584,7 @@
       <c r="L821" s="6"/>
       <c r="M821" s="6"/>
       <c r="N821" s="6"/>
-      <c r="O821" s="16"/>
+      <c r="O821" s="22"/>
       <c r="P821" s="6"/>
       <c r="Q821" s="6"/>
       <c r="R821" s="6"/>
@@ -24492,7 +24611,7 @@
       <c r="L822" s="6"/>
       <c r="M822" s="6"/>
       <c r="N822" s="6"/>
-      <c r="O822" s="16"/>
+      <c r="O822" s="22"/>
       <c r="P822" s="6"/>
       <c r="Q822" s="6"/>
       <c r="R822" s="6"/>
@@ -24519,7 +24638,7 @@
       <c r="L823" s="6"/>
       <c r="M823" s="6"/>
       <c r="N823" s="6"/>
-      <c r="O823" s="16"/>
+      <c r="O823" s="22"/>
       <c r="P823" s="6"/>
       <c r="Q823" s="6"/>
       <c r="R823" s="6"/>
@@ -24546,7 +24665,7 @@
       <c r="L824" s="6"/>
       <c r="M824" s="6"/>
       <c r="N824" s="6"/>
-      <c r="O824" s="16"/>
+      <c r="O824" s="22"/>
       <c r="P824" s="6"/>
       <c r="Q824" s="6"/>
       <c r="R824" s="6"/>
@@ -24573,7 +24692,7 @@
       <c r="L825" s="6"/>
       <c r="M825" s="6"/>
       <c r="N825" s="6"/>
-      <c r="O825" s="16"/>
+      <c r="O825" s="22"/>
       <c r="P825" s="6"/>
       <c r="Q825" s="6"/>
       <c r="R825" s="6"/>
@@ -24600,7 +24719,7 @@
       <c r="L826" s="6"/>
       <c r="M826" s="6"/>
       <c r="N826" s="6"/>
-      <c r="O826" s="16"/>
+      <c r="O826" s="22"/>
       <c r="P826" s="6"/>
       <c r="Q826" s="6"/>
       <c r="R826" s="6"/>
@@ -24627,7 +24746,7 @@
       <c r="L827" s="6"/>
       <c r="M827" s="6"/>
       <c r="N827" s="6"/>
-      <c r="O827" s="16"/>
+      <c r="O827" s="22"/>
       <c r="P827" s="6"/>
       <c r="Q827" s="6"/>
       <c r="R827" s="6"/>
@@ -24654,7 +24773,7 @@
       <c r="L828" s="6"/>
       <c r="M828" s="6"/>
       <c r="N828" s="6"/>
-      <c r="O828" s="16"/>
+      <c r="O828" s="22"/>
       <c r="P828" s="6"/>
       <c r="Q828" s="6"/>
       <c r="R828" s="6"/>
@@ -24681,7 +24800,7 @@
       <c r="L829" s="6"/>
       <c r="M829" s="6"/>
       <c r="N829" s="6"/>
-      <c r="O829" s="16"/>
+      <c r="O829" s="22"/>
       <c r="P829" s="6"/>
       <c r="Q829" s="6"/>
       <c r="R829" s="6"/>
@@ -24708,7 +24827,7 @@
       <c r="L830" s="6"/>
       <c r="M830" s="6"/>
       <c r="N830" s="6"/>
-      <c r="O830" s="16"/>
+      <c r="O830" s="22"/>
       <c r="P830" s="6"/>
       <c r="Q830" s="6"/>
       <c r="R830" s="6"/>
@@ -24735,7 +24854,7 @@
       <c r="L831" s="6"/>
       <c r="M831" s="6"/>
       <c r="N831" s="6"/>
-      <c r="O831" s="16"/>
+      <c r="O831" s="22"/>
       <c r="P831" s="6"/>
       <c r="Q831" s="6"/>
       <c r="R831" s="6"/>
@@ -24762,7 +24881,7 @@
       <c r="L832" s="6"/>
       <c r="M832" s="6"/>
       <c r="N832" s="6"/>
-      <c r="O832" s="16"/>
+      <c r="O832" s="22"/>
       <c r="P832" s="6"/>
       <c r="Q832" s="6"/>
       <c r="R832" s="6"/>
@@ -24789,7 +24908,7 @@
       <c r="L833" s="6"/>
       <c r="M833" s="6"/>
       <c r="N833" s="6"/>
-      <c r="O833" s="16"/>
+      <c r="O833" s="22"/>
       <c r="P833" s="6"/>
       <c r="Q833" s="6"/>
       <c r="R833" s="6"/>
@@ -24816,7 +24935,7 @@
       <c r="L834" s="6"/>
       <c r="M834" s="6"/>
       <c r="N834" s="6"/>
-      <c r="O834" s="16"/>
+      <c r="O834" s="22"/>
       <c r="P834" s="6"/>
       <c r="Q834" s="6"/>
       <c r="R834" s="6"/>
@@ -24843,7 +24962,7 @@
       <c r="L835" s="6"/>
       <c r="M835" s="6"/>
       <c r="N835" s="6"/>
-      <c r="O835" s="16"/>
+      <c r="O835" s="22"/>
       <c r="P835" s="6"/>
       <c r="Q835" s="6"/>
       <c r="R835" s="6"/>
@@ -24870,7 +24989,7 @@
       <c r="L836" s="6"/>
       <c r="M836" s="6"/>
       <c r="N836" s="6"/>
-      <c r="O836" s="16"/>
+      <c r="O836" s="22"/>
       <c r="P836" s="6"/>
       <c r="Q836" s="6"/>
       <c r="R836" s="6"/>
@@ -24897,7 +25016,7 @@
       <c r="L837" s="6"/>
       <c r="M837" s="6"/>
       <c r="N837" s="6"/>
-      <c r="O837" s="16"/>
+      <c r="O837" s="22"/>
       <c r="P837" s="6"/>
       <c r="Q837" s="6"/>
       <c r="R837" s="6"/>
@@ -24924,7 +25043,7 @@
       <c r="L838" s="6"/>
       <c r="M838" s="6"/>
       <c r="N838" s="6"/>
-      <c r="O838" s="16"/>
+      <c r="O838" s="22"/>
       <c r="P838" s="6"/>
       <c r="Q838" s="6"/>
       <c r="R838" s="6"/>
@@ -24951,7 +25070,7 @@
       <c r="L839" s="6"/>
       <c r="M839" s="6"/>
       <c r="N839" s="6"/>
-      <c r="O839" s="16"/>
+      <c r="O839" s="22"/>
       <c r="P839" s="6"/>
       <c r="Q839" s="6"/>
       <c r="R839" s="6"/>
@@ -24978,7 +25097,7 @@
       <c r="L840" s="6"/>
       <c r="M840" s="6"/>
       <c r="N840" s="6"/>
-      <c r="O840" s="16"/>
+      <c r="O840" s="22"/>
       <c r="P840" s="6"/>
       <c r="Q840" s="6"/>
       <c r="R840" s="6"/>
@@ -25005,7 +25124,7 @@
       <c r="L841" s="6"/>
       <c r="M841" s="6"/>
       <c r="N841" s="6"/>
-      <c r="O841" s="16"/>
+      <c r="O841" s="22"/>
       <c r="P841" s="6"/>
       <c r="Q841" s="6"/>
       <c r="R841" s="6"/>
@@ -25032,7 +25151,7 @@
       <c r="L842" s="6"/>
       <c r="M842" s="6"/>
       <c r="N842" s="6"/>
-      <c r="O842" s="16"/>
+      <c r="O842" s="22"/>
       <c r="P842" s="6"/>
       <c r="Q842" s="6"/>
       <c r="R842" s="6"/>
@@ -25059,7 +25178,7 @@
       <c r="L843" s="6"/>
       <c r="M843" s="6"/>
       <c r="N843" s="6"/>
-      <c r="O843" s="16"/>
+      <c r="O843" s="22"/>
       <c r="P843" s="6"/>
       <c r="Q843" s="6"/>
       <c r="R843" s="6"/>
@@ -25086,7 +25205,7 @@
       <c r="L844" s="6"/>
       <c r="M844" s="6"/>
       <c r="N844" s="6"/>
-      <c r="O844" s="16"/>
+      <c r="O844" s="22"/>
       <c r="P844" s="6"/>
       <c r="Q844" s="6"/>
       <c r="R844" s="6"/>
@@ -25113,7 +25232,7 @@
       <c r="L845" s="6"/>
       <c r="M845" s="6"/>
       <c r="N845" s="6"/>
-      <c r="O845" s="16"/>
+      <c r="O845" s="22"/>
       <c r="P845" s="6"/>
       <c r="Q845" s="6"/>
       <c r="R845" s="6"/>
@@ -25140,7 +25259,7 @@
       <c r="L846" s="6"/>
       <c r="M846" s="6"/>
       <c r="N846" s="6"/>
-      <c r="O846" s="16"/>
+      <c r="O846" s="22"/>
       <c r="P846" s="6"/>
       <c r="Q846" s="6"/>
       <c r="R846" s="6"/>
@@ -25167,7 +25286,7 @@
       <c r="L847" s="6"/>
       <c r="M847" s="6"/>
       <c r="N847" s="6"/>
-      <c r="O847" s="16"/>
+      <c r="O847" s="22"/>
       <c r="P847" s="6"/>
       <c r="Q847" s="6"/>
       <c r="R847" s="6"/>
@@ -25194,7 +25313,7 @@
       <c r="L848" s="6"/>
       <c r="M848" s="6"/>
       <c r="N848" s="6"/>
-      <c r="O848" s="16"/>
+      <c r="O848" s="22"/>
       <c r="P848" s="6"/>
       <c r="Q848" s="6"/>
       <c r="R848" s="6"/>
@@ -25221,7 +25340,7 @@
       <c r="L849" s="6"/>
       <c r="M849" s="6"/>
       <c r="N849" s="6"/>
-      <c r="O849" s="16"/>
+      <c r="O849" s="22"/>
       <c r="P849" s="6"/>
       <c r="Q849" s="6"/>
       <c r="R849" s="6"/>
@@ -25248,7 +25367,7 @@
       <c r="L850" s="6"/>
       <c r="M850" s="6"/>
       <c r="N850" s="6"/>
-      <c r="O850" s="16"/>
+      <c r="O850" s="22"/>
       <c r="P850" s="6"/>
       <c r="Q850" s="6"/>
       <c r="R850" s="6"/>
@@ -25275,7 +25394,7 @@
       <c r="L851" s="6"/>
       <c r="M851" s="6"/>
       <c r="N851" s="6"/>
-      <c r="O851" s="16"/>
+      <c r="O851" s="22"/>
       <c r="P851" s="6"/>
       <c r="Q851" s="6"/>
       <c r="R851" s="6"/>
@@ -25302,7 +25421,7 @@
       <c r="L852" s="6"/>
       <c r="M852" s="6"/>
       <c r="N852" s="6"/>
-      <c r="O852" s="16"/>
+      <c r="O852" s="22"/>
       <c r="P852" s="6"/>
       <c r="Q852" s="6"/>
       <c r="R852" s="6"/>
@@ -25329,7 +25448,7 @@
       <c r="L853" s="6"/>
       <c r="M853" s="6"/>
       <c r="N853" s="6"/>
-      <c r="O853" s="16"/>
+      <c r="O853" s="22"/>
       <c r="P853" s="6"/>
       <c r="Q853" s="6"/>
       <c r="R853" s="6"/>
@@ -25356,7 +25475,7 @@
       <c r="L854" s="6"/>
       <c r="M854" s="6"/>
       <c r="N854" s="6"/>
-      <c r="O854" s="16"/>
+      <c r="O854" s="22"/>
       <c r="P854" s="6"/>
       <c r="Q854" s="6"/>
       <c r="R854" s="6"/>
@@ -25383,7 +25502,7 @@
       <c r="L855" s="6"/>
       <c r="M855" s="6"/>
       <c r="N855" s="6"/>
-      <c r="O855" s="16"/>
+      <c r="O855" s="22"/>
       <c r="P855" s="6"/>
       <c r="Q855" s="6"/>
       <c r="R855" s="6"/>
@@ -25410,7 +25529,7 @@
       <c r="L856" s="6"/>
       <c r="M856" s="6"/>
       <c r="N856" s="6"/>
-      <c r="O856" s="16"/>
+      <c r="O856" s="22"/>
       <c r="P856" s="6"/>
       <c r="Q856" s="6"/>
       <c r="R856" s="6"/>
@@ -25437,7 +25556,7 @@
       <c r="L857" s="6"/>
       <c r="M857" s="6"/>
       <c r="N857" s="6"/>
-      <c r="O857" s="16"/>
+      <c r="O857" s="22"/>
       <c r="P857" s="6"/>
       <c r="Q857" s="6"/>
       <c r="R857" s="6"/>
@@ -25464,7 +25583,7 @@
       <c r="L858" s="6"/>
       <c r="M858" s="6"/>
       <c r="N858" s="6"/>
-      <c r="O858" s="16"/>
+      <c r="O858" s="22"/>
       <c r="P858" s="6"/>
       <c r="Q858" s="6"/>
       <c r="R858" s="6"/>
@@ -25491,7 +25610,7 @@
       <c r="L859" s="6"/>
       <c r="M859" s="6"/>
       <c r="N859" s="6"/>
-      <c r="O859" s="16"/>
+      <c r="O859" s="22"/>
       <c r="P859" s="6"/>
       <c r="Q859" s="6"/>
       <c r="R859" s="6"/>
@@ -25518,7 +25637,7 @@
       <c r="L860" s="6"/>
       <c r="M860" s="6"/>
       <c r="N860" s="6"/>
-      <c r="O860" s="16"/>
+      <c r="O860" s="22"/>
       <c r="P860" s="6"/>
       <c r="Q860" s="6"/>
       <c r="R860" s="6"/>
@@ -25545,7 +25664,7 @@
       <c r="L861" s="6"/>
       <c r="M861" s="6"/>
       <c r="N861" s="6"/>
-      <c r="O861" s="16"/>
+      <c r="O861" s="22"/>
       <c r="P861" s="6"/>
       <c r="Q861" s="6"/>
       <c r="R861" s="6"/>
@@ -25572,7 +25691,7 @@
       <c r="L862" s="6"/>
       <c r="M862" s="6"/>
       <c r="N862" s="6"/>
-      <c r="O862" s="16"/>
+      <c r="O862" s="22"/>
       <c r="P862" s="6"/>
       <c r="Q862" s="6"/>
       <c r="R862" s="6"/>
@@ -25599,7 +25718,7 @@
       <c r="L863" s="6"/>
       <c r="M863" s="6"/>
       <c r="N863" s="6"/>
-      <c r="O863" s="16"/>
+      <c r="O863" s="22"/>
       <c r="P863" s="6"/>
       <c r="Q863" s="6"/>
       <c r="R863" s="6"/>
@@ -25626,7 +25745,7 @@
       <c r="L864" s="6"/>
       <c r="M864" s="6"/>
       <c r="N864" s="6"/>
-      <c r="O864" s="16"/>
+      <c r="O864" s="22"/>
       <c r="P864" s="6"/>
       <c r="Q864" s="6"/>
       <c r="R864" s="6"/>
@@ -25653,7 +25772,7 @@
       <c r="L865" s="6"/>
       <c r="M865" s="6"/>
       <c r="N865" s="6"/>
-      <c r="O865" s="16"/>
+      <c r="O865" s="22"/>
       <c r="P865" s="6"/>
       <c r="Q865" s="6"/>
       <c r="R865" s="6"/>
@@ -25680,7 +25799,7 @@
       <c r="L866" s="6"/>
       <c r="M866" s="6"/>
       <c r="N866" s="6"/>
-      <c r="O866" s="16"/>
+      <c r="O866" s="22"/>
       <c r="P866" s="6"/>
       <c r="Q866" s="6"/>
       <c r="R866" s="6"/>
@@ -25707,7 +25826,7 @@
       <c r="L867" s="6"/>
       <c r="M867" s="6"/>
       <c r="N867" s="6"/>
-      <c r="O867" s="16"/>
+      <c r="O867" s="22"/>
       <c r="P867" s="6"/>
       <c r="Q867" s="6"/>
       <c r="R867" s="6"/>
@@ -25734,7 +25853,7 @@
       <c r="L868" s="6"/>
       <c r="M868" s="6"/>
       <c r="N868" s="6"/>
-      <c r="O868" s="16"/>
+      <c r="O868" s="22"/>
       <c r="P868" s="6"/>
       <c r="Q868" s="6"/>
       <c r="R868" s="6"/>
@@ -25761,7 +25880,7 @@
       <c r="L869" s="6"/>
       <c r="M869" s="6"/>
       <c r="N869" s="6"/>
-      <c r="O869" s="16"/>
+      <c r="O869" s="22"/>
       <c r="P869" s="6"/>
       <c r="Q869" s="6"/>
       <c r="R869" s="6"/>
@@ -25788,7 +25907,7 @@
       <c r="L870" s="6"/>
       <c r="M870" s="6"/>
       <c r="N870" s="6"/>
-      <c r="O870" s="16"/>
+      <c r="O870" s="22"/>
       <c r="P870" s="6"/>
       <c r="Q870" s="6"/>
       <c r="R870" s="6"/>
@@ -25815,7 +25934,7 @@
       <c r="L871" s="6"/>
       <c r="M871" s="6"/>
       <c r="N871" s="6"/>
-      <c r="O871" s="16"/>
+      <c r="O871" s="22"/>
       <c r="P871" s="6"/>
       <c r="Q871" s="6"/>
       <c r="R871" s="6"/>
@@ -25842,7 +25961,7 @@
       <c r="L872" s="6"/>
       <c r="M872" s="6"/>
       <c r="N872" s="6"/>
-      <c r="O872" s="16"/>
+      <c r="O872" s="22"/>
       <c r="P872" s="6"/>
       <c r="Q872" s="6"/>
       <c r="R872" s="6"/>
@@ -25869,7 +25988,7 @@
       <c r="L873" s="6"/>
       <c r="M873" s="6"/>
       <c r="N873" s="6"/>
-      <c r="O873" s="16"/>
+      <c r="O873" s="22"/>
       <c r="P873" s="6"/>
       <c r="Q873" s="6"/>
       <c r="R873" s="6"/>
@@ -25896,7 +26015,7 @@
       <c r="L874" s="6"/>
       <c r="M874" s="6"/>
       <c r="N874" s="6"/>
-      <c r="O874" s="16"/>
+      <c r="O874" s="22"/>
       <c r="P874" s="6"/>
       <c r="Q874" s="6"/>
       <c r="R874" s="6"/>
@@ -25923,7 +26042,7 @@
       <c r="L875" s="6"/>
       <c r="M875" s="6"/>
       <c r="N875" s="6"/>
-      <c r="O875" s="16"/>
+      <c r="O875" s="22"/>
       <c r="P875" s="6"/>
       <c r="Q875" s="6"/>
       <c r="R875" s="6"/>
@@ -25950,7 +26069,7 @@
       <c r="L876" s="6"/>
       <c r="M876" s="6"/>
       <c r="N876" s="6"/>
-      <c r="O876" s="16"/>
+      <c r="O876" s="22"/>
       <c r="P876" s="6"/>
       <c r="Q876" s="6"/>
       <c r="R876" s="6"/>
@@ -25977,7 +26096,7 @@
       <c r="L877" s="6"/>
       <c r="M877" s="6"/>
       <c r="N877" s="6"/>
-      <c r="O877" s="16"/>
+      <c r="O877" s="22"/>
       <c r="P877" s="6"/>
       <c r="Q877" s="6"/>
       <c r="R877" s="6"/>
@@ -26004,7 +26123,7 @@
       <c r="L878" s="6"/>
       <c r="M878" s="6"/>
       <c r="N878" s="6"/>
-      <c r="O878" s="16"/>
+      <c r="O878" s="22"/>
       <c r="P878" s="6"/>
       <c r="Q878" s="6"/>
       <c r="R878" s="6"/>
@@ -26031,7 +26150,7 @@
       <c r="L879" s="6"/>
       <c r="M879" s="6"/>
       <c r="N879" s="6"/>
-      <c r="O879" s="16"/>
+      <c r="O879" s="22"/>
       <c r="P879" s="6"/>
       <c r="Q879" s="6"/>
       <c r="R879" s="6"/>
@@ -26058,7 +26177,7 @@
       <c r="L880" s="6"/>
       <c r="M880" s="6"/>
       <c r="N880" s="6"/>
-      <c r="O880" s="16"/>
+      <c r="O880" s="22"/>
       <c r="P880" s="6"/>
       <c r="Q880" s="6"/>
       <c r="R880" s="6"/>
@@ -26085,7 +26204,7 @@
       <c r="L881" s="6"/>
       <c r="M881" s="6"/>
       <c r="N881" s="6"/>
-      <c r="O881" s="16"/>
+      <c r="O881" s="22"/>
       <c r="P881" s="6"/>
       <c r="Q881" s="6"/>
       <c r="R881" s="6"/>
@@ -26112,7 +26231,7 @@
       <c r="L882" s="6"/>
       <c r="M882" s="6"/>
       <c r="N882" s="6"/>
-      <c r="O882" s="16"/>
+      <c r="O882" s="22"/>
       <c r="P882" s="6"/>
       <c r="Q882" s="6"/>
       <c r="R882" s="6"/>
@@ -26139,7 +26258,7 @@
       <c r="L883" s="6"/>
       <c r="M883" s="6"/>
       <c r="N883" s="6"/>
-      <c r="O883" s="16"/>
+      <c r="O883" s="22"/>
       <c r="P883" s="6"/>
       <c r="Q883" s="6"/>
       <c r="R883" s="6"/>
@@ -26166,7 +26285,7 @@
       <c r="L884" s="6"/>
       <c r="M884" s="6"/>
       <c r="N884" s="6"/>
-      <c r="O884" s="16"/>
+      <c r="O884" s="22"/>
       <c r="P884" s="6"/>
       <c r="Q884" s="6"/>
       <c r="R884" s="6"/>
@@ -26193,7 +26312,7 @@
       <c r="L885" s="6"/>
       <c r="M885" s="6"/>
       <c r="N885" s="6"/>
-      <c r="O885" s="16"/>
+      <c r="O885" s="22"/>
       <c r="P885" s="6"/>
       <c r="Q885" s="6"/>
       <c r="R885" s="6"/>
@@ -26220,7 +26339,7 @@
       <c r="L886" s="6"/>
       <c r="M886" s="6"/>
       <c r="N886" s="6"/>
-      <c r="O886" s="16"/>
+      <c r="O886" s="22"/>
       <c r="P886" s="6"/>
       <c r="Q886" s="6"/>
       <c r="R886" s="6"/>
@@ -26247,7 +26366,7 @@
       <c r="L887" s="6"/>
       <c r="M887" s="6"/>
       <c r="N887" s="6"/>
-      <c r="O887" s="16"/>
+      <c r="O887" s="22"/>
       <c r="P887" s="6"/>
       <c r="Q887" s="6"/>
       <c r="R887" s="6"/>
@@ -26274,7 +26393,7 @@
       <c r="L888" s="6"/>
       <c r="M888" s="6"/>
       <c r="N888" s="6"/>
-      <c r="O888" s="16"/>
+      <c r="O888" s="22"/>
       <c r="P888" s="6"/>
       <c r="Q888" s="6"/>
       <c r="R888" s="6"/>
@@ -26301,7 +26420,7 @@
       <c r="L889" s="6"/>
       <c r="M889" s="6"/>
       <c r="N889" s="6"/>
-      <c r="O889" s="16"/>
+      <c r="O889" s="22"/>
       <c r="P889" s="6"/>
       <c r="Q889" s="6"/>
       <c r="R889" s="6"/>
@@ -26328,7 +26447,7 @@
       <c r="L890" s="6"/>
       <c r="M890" s="6"/>
       <c r="N890" s="6"/>
-      <c r="O890" s="16"/>
+      <c r="O890" s="22"/>
       <c r="P890" s="6"/>
       <c r="Q890" s="6"/>
       <c r="R890" s="6"/>
@@ -26355,7 +26474,7 @@
       <c r="L891" s="6"/>
       <c r="M891" s="6"/>
       <c r="N891" s="6"/>
-      <c r="O891" s="16"/>
+      <c r="O891" s="22"/>
       <c r="P891" s="6"/>
       <c r="Q891" s="6"/>
       <c r="R891" s="6"/>
@@ -26382,7 +26501,7 @@
       <c r="L892" s="6"/>
       <c r="M892" s="6"/>
       <c r="N892" s="6"/>
-      <c r="O892" s="16"/>
+      <c r="O892" s="22"/>
       <c r="P892" s="6"/>
       <c r="Q892" s="6"/>
       <c r="R892" s="6"/>
@@ -26409,7 +26528,7 @@
       <c r="L893" s="6"/>
       <c r="M893" s="6"/>
       <c r="N893" s="6"/>
-      <c r="O893" s="16"/>
+      <c r="O893" s="22"/>
       <c r="P893" s="6"/>
       <c r="Q893" s="6"/>
       <c r="R893" s="6"/>
@@ -26436,7 +26555,7 @@
       <c r="L894" s="6"/>
       <c r="M894" s="6"/>
       <c r="N894" s="6"/>
-      <c r="O894" s="16"/>
+      <c r="O894" s="22"/>
       <c r="P894" s="6"/>
       <c r="Q894" s="6"/>
       <c r="R894" s="6"/>
@@ -26463,7 +26582,7 @@
       <c r="L895" s="6"/>
       <c r="M895" s="6"/>
       <c r="N895" s="6"/>
-      <c r="O895" s="16"/>
+      <c r="O895" s="22"/>
       <c r="P895" s="6"/>
       <c r="Q895" s="6"/>
       <c r="R895" s="6"/>
@@ -26490,7 +26609,7 @@
       <c r="L896" s="6"/>
       <c r="M896" s="6"/>
       <c r="N896" s="6"/>
-      <c r="O896" s="16"/>
+      <c r="O896" s="22"/>
       <c r="P896" s="6"/>
       <c r="Q896" s="6"/>
       <c r="R896" s="6"/>
@@ -26517,7 +26636,7 @@
       <c r="L897" s="6"/>
       <c r="M897" s="6"/>
       <c r="N897" s="6"/>
-      <c r="O897" s="16"/>
+      <c r="O897" s="22"/>
       <c r="P897" s="6"/>
       <c r="Q897" s="6"/>
       <c r="R897" s="6"/>
@@ -26544,7 +26663,7 @@
       <c r="L898" s="6"/>
       <c r="M898" s="6"/>
       <c r="N898" s="6"/>
-      <c r="O898" s="16"/>
+      <c r="O898" s="22"/>
       <c r="P898" s="6"/>
       <c r="Q898" s="6"/>
       <c r="R898" s="6"/>
@@ -26571,7 +26690,7 @@
       <c r="L899" s="6"/>
       <c r="M899" s="6"/>
       <c r="N899" s="6"/>
-      <c r="O899" s="16"/>
+      <c r="O899" s="22"/>
       <c r="P899" s="6"/>
       <c r="Q899" s="6"/>
       <c r="R899" s="6"/>
@@ -26598,7 +26717,7 @@
       <c r="L900" s="6"/>
       <c r="M900" s="6"/>
       <c r="N900" s="6"/>
-      <c r="O900" s="16"/>
+      <c r="O900" s="22"/>
       <c r="P900" s="6"/>
       <c r="Q900" s="6"/>
       <c r="R900" s="6"/>
@@ -26625,7 +26744,7 @@
       <c r="L901" s="6"/>
       <c r="M901" s="6"/>
       <c r="N901" s="6"/>
-      <c r="O901" s="16"/>
+      <c r="O901" s="22"/>
       <c r="P901" s="6"/>
       <c r="Q901" s="6"/>
       <c r="R901" s="6"/>
@@ -26652,7 +26771,7 @@
       <c r="L902" s="6"/>
       <c r="M902" s="6"/>
       <c r="N902" s="6"/>
-      <c r="O902" s="16"/>
+      <c r="O902" s="22"/>
       <c r="P902" s="6"/>
       <c r="Q902" s="6"/>
       <c r="R902" s="6"/>
@@ -26679,7 +26798,7 @@
       <c r="L903" s="6"/>
       <c r="M903" s="6"/>
       <c r="N903" s="6"/>
-      <c r="O903" s="16"/>
+      <c r="O903" s="22"/>
       <c r="P903" s="6"/>
       <c r="Q903" s="6"/>
       <c r="R903" s="6"/>
@@ -26706,7 +26825,7 @@
       <c r="L904" s="6"/>
       <c r="M904" s="6"/>
       <c r="N904" s="6"/>
-      <c r="O904" s="16"/>
+      <c r="O904" s="22"/>
       <c r="P904" s="6"/>
       <c r="Q904" s="6"/>
       <c r="R904" s="6"/>
@@ -26733,7 +26852,7 @@
       <c r="L905" s="6"/>
       <c r="M905" s="6"/>
       <c r="N905" s="6"/>
-      <c r="O905" s="16"/>
+      <c r="O905" s="22"/>
       <c r="P905" s="6"/>
       <c r="Q905" s="6"/>
       <c r="R905" s="6"/>
@@ -26760,7 +26879,7 @@
       <c r="L906" s="6"/>
       <c r="M906" s="6"/>
       <c r="N906" s="6"/>
-      <c r="O906" s="16"/>
+      <c r="O906" s="22"/>
       <c r="P906" s="6"/>
       <c r="Q906" s="6"/>
       <c r="R906" s="6"/>
@@ -26787,7 +26906,7 @@
       <c r="L907" s="6"/>
       <c r="M907" s="6"/>
       <c r="N907" s="6"/>
-      <c r="O907" s="16"/>
+      <c r="O907" s="22"/>
       <c r="P907" s="6"/>
       <c r="Q907" s="6"/>
       <c r="R907" s="6"/>
@@ -26814,7 +26933,7 @@
       <c r="L908" s="6"/>
       <c r="M908" s="6"/>
       <c r="N908" s="6"/>
-      <c r="O908" s="16"/>
+      <c r="O908" s="22"/>
       <c r="P908" s="6"/>
       <c r="Q908" s="6"/>
       <c r="R908" s="6"/>
@@ -26841,7 +26960,7 @@
       <c r="L909" s="6"/>
       <c r="M909" s="6"/>
       <c r="N909" s="6"/>
-      <c r="O909" s="16"/>
+      <c r="O909" s="22"/>
       <c r="P909" s="6"/>
       <c r="Q909" s="6"/>
       <c r="R909" s="6"/>
@@ -26868,7 +26987,7 @@
       <c r="L910" s="6"/>
       <c r="M910" s="6"/>
       <c r="N910" s="6"/>
-      <c r="O910" s="16"/>
+      <c r="O910" s="22"/>
       <c r="P910" s="6"/>
       <c r="Q910" s="6"/>
       <c r="R910" s="6"/>
@@ -26895,7 +27014,7 @@
       <c r="L911" s="6"/>
       <c r="M911" s="6"/>
       <c r="N911" s="6"/>
-      <c r="O911" s="16"/>
+      <c r="O911" s="22"/>
       <c r="P911" s="6"/>
       <c r="Q911" s="6"/>
       <c r="R911" s="6"/>
@@ -26922,7 +27041,7 @@
       <c r="L912" s="6"/>
       <c r="M912" s="6"/>
       <c r="N912" s="6"/>
-      <c r="O912" s="16"/>
+      <c r="O912" s="22"/>
       <c r="P912" s="6"/>
       <c r="Q912" s="6"/>
       <c r="R912" s="6"/>
@@ -26949,7 +27068,7 @@
       <c r="L913" s="6"/>
       <c r="M913" s="6"/>
       <c r="N913" s="6"/>
-      <c r="O913" s="16"/>
+      <c r="O913" s="22"/>
       <c r="P913" s="6"/>
       <c r="Q913" s="6"/>
       <c r="R913" s="6"/>
@@ -26976,7 +27095,7 @@
       <c r="L914" s="6"/>
       <c r="M914" s="6"/>
       <c r="N914" s="6"/>
-      <c r="O914" s="16"/>
+      <c r="O914" s="22"/>
       <c r="P914" s="6"/>
       <c r="Q914" s="6"/>
       <c r="R914" s="6"/>
@@ -27003,7 +27122,7 @@
       <c r="L915" s="6"/>
       <c r="M915" s="6"/>
       <c r="N915" s="6"/>
-      <c r="O915" s="16"/>
+      <c r="O915" s="22"/>
       <c r="P915" s="6"/>
       <c r="Q915" s="6"/>
       <c r="R915" s="6"/>
@@ -27030,7 +27149,7 @@
       <c r="L916" s="6"/>
       <c r="M916" s="6"/>
       <c r="N916" s="6"/>
-      <c r="O916" s="16"/>
+      <c r="O916" s="22"/>
       <c r="P916" s="6"/>
       <c r="Q916" s="6"/>
       <c r="R916" s="6"/>
@@ -27057,7 +27176,7 @@
       <c r="L917" s="6"/>
       <c r="M917" s="6"/>
       <c r="N917" s="6"/>
-      <c r="O917" s="16"/>
+      <c r="O917" s="22"/>
       <c r="P917" s="6"/>
       <c r="Q917" s="6"/>
       <c r="R917" s="6"/>
@@ -27084,7 +27203,7 @@
       <c r="L918" s="6"/>
       <c r="M918" s="6"/>
       <c r="N918" s="6"/>
-      <c r="O918" s="16"/>
+      <c r="O918" s="22"/>
       <c r="P918" s="6"/>
       <c r="Q918" s="6"/>
       <c r="R918" s="6"/>
@@ -27111,7 +27230,7 @@
       <c r="L919" s="6"/>
       <c r="M919" s="6"/>
       <c r="N919" s="6"/>
-      <c r="O919" s="16"/>
+      <c r="O919" s="22"/>
       <c r="P919" s="6"/>
       <c r="Q919" s="6"/>
       <c r="R919" s="6"/>
@@ -27138,7 +27257,7 @@
       <c r="L920" s="6"/>
       <c r="M920" s="6"/>
       <c r="N920" s="6"/>
-      <c r="O920" s="16"/>
+      <c r="O920" s="22"/>
       <c r="P920" s="6"/>
       <c r="Q920" s="6"/>
       <c r="R920" s="6"/>
@@ -27165,7 +27284,7 @@
       <c r="L921" s="6"/>
       <c r="M921" s="6"/>
       <c r="N921" s="6"/>
-      <c r="O921" s="16"/>
+      <c r="O921" s="22"/>
       <c r="P921" s="6"/>
       <c r="Q921" s="6"/>
       <c r="R921" s="6"/>
@@ -27192,7 +27311,7 @@
       <c r="L922" s="6"/>
       <c r="M922" s="6"/>
       <c r="N922" s="6"/>
-      <c r="O922" s="16"/>
+      <c r="O922" s="22"/>
       <c r="P922" s="6"/>
       <c r="Q922" s="6"/>
       <c r="R922" s="6"/>
@@ -27219,7 +27338,7 @@
       <c r="L923" s="6"/>
       <c r="M923" s="6"/>
       <c r="N923" s="6"/>
-      <c r="O923" s="16"/>
+      <c r="O923" s="22"/>
       <c r="P923" s="6"/>
       <c r="Q923" s="6"/>
       <c r="R923" s="6"/>
@@ -27246,7 +27365,7 @@
       <c r="L924" s="6"/>
       <c r="M924" s="6"/>
       <c r="N924" s="6"/>
-      <c r="O924" s="16"/>
+      <c r="O924" s="22"/>
       <c r="P924" s="6"/>
       <c r="Q924" s="6"/>
       <c r="R924" s="6"/>
@@ -27273,7 +27392,7 @@
       <c r="L925" s="6"/>
       <c r="M925" s="6"/>
       <c r="N925" s="6"/>
-      <c r="O925" s="16"/>
+      <c r="O925" s="22"/>
       <c r="P925" s="6"/>
       <c r="Q925" s="6"/>
       <c r="R925" s="6"/>
@@ -27300,7 +27419,7 @@
       <c r="L926" s="6"/>
       <c r="M926" s="6"/>
       <c r="N926" s="6"/>
-      <c r="O926" s="16"/>
+      <c r="O926" s="22"/>
       <c r="P926" s="6"/>
       <c r="Q926" s="6"/>
       <c r="R926" s="6"/>
@@ -27327,7 +27446,7 @@
       <c r="L927" s="6"/>
       <c r="M927" s="6"/>
       <c r="N927" s="6"/>
-      <c r="O927" s="16"/>
+      <c r="O927" s="22"/>
       <c r="P927" s="6"/>
       <c r="Q927" s="6"/>
       <c r="R927" s="6"/>
@@ -27354,7 +27473,7 @@
       <c r="L928" s="6"/>
       <c r="M928" s="6"/>
       <c r="N928" s="6"/>
-      <c r="O928" s="16"/>
+      <c r="O928" s="22"/>
       <c r="P928" s="6"/>
       <c r="Q928" s="6"/>
       <c r="R928" s="6"/>
@@ -27381,7 +27500,7 @@
       <c r="L929" s="6"/>
       <c r="M929" s="6"/>
       <c r="N929" s="6"/>
-      <c r="O929" s="16"/>
+      <c r="O929" s="22"/>
       <c r="P929" s="6"/>
       <c r="Q929" s="6"/>
       <c r="R929" s="6"/>
@@ -27408,7 +27527,7 @@
       <c r="L930" s="6"/>
       <c r="M930" s="6"/>
       <c r="N930" s="6"/>
-      <c r="O930" s="16"/>
+      <c r="O930" s="22"/>
       <c r="P930" s="6"/>
       <c r="Q930" s="6"/>
       <c r="R930" s="6"/>
@@ -27435,7 +27554,7 @@
       <c r="L931" s="6"/>
       <c r="M931" s="6"/>
       <c r="N931" s="6"/>
-      <c r="O931" s="16"/>
+      <c r="O931" s="22"/>
       <c r="P931" s="6"/>
       <c r="Q931" s="6"/>
       <c r="R931" s="6"/>
@@ -27462,7 +27581,7 @@
       <c r="L932" s="6"/>
       <c r="M932" s="6"/>
       <c r="N932" s="6"/>
-      <c r="O932" s="16"/>
+      <c r="O932" s="22"/>
       <c r="P932" s="6"/>
       <c r="Q932" s="6"/>
       <c r="R932" s="6"/>
@@ -27489,7 +27608,7 @@
       <c r="L933" s="6"/>
       <c r="M933" s="6"/>
       <c r="N933" s="6"/>
-      <c r="O933" s="16"/>
+      <c r="O933" s="22"/>
       <c r="P933" s="6"/>
       <c r="Q933" s="6"/>
       <c r="R933" s="6"/>
@@ -27516,7 +27635,7 @@
       <c r="L934" s="6"/>
       <c r="M934" s="6"/>
       <c r="N934" s="6"/>
-      <c r="O934" s="16"/>
+      <c r="O934" s="22"/>
       <c r="P934" s="6"/>
       <c r="Q934" s="6"/>
       <c r="R934" s="6"/>
@@ -27543,7 +27662,7 @@
       <c r="L935" s="6"/>
       <c r="M935" s="6"/>
       <c r="N935" s="6"/>
-      <c r="O935" s="16"/>
+      <c r="O935" s="22"/>
       <c r="P935" s="6"/>
       <c r="Q935" s="6"/>
       <c r="R935" s="6"/>
@@ -27570,7 +27689,7 @@
       <c r="L936" s="6"/>
       <c r="M936" s="6"/>
       <c r="N936" s="6"/>
-      <c r="O936" s="16"/>
+      <c r="O936" s="22"/>
       <c r="P936" s="6"/>
       <c r="Q936" s="6"/>
       <c r="R936" s="6"/>
@@ -27597,7 +27716,7 @@
       <c r="L937" s="6"/>
       <c r="M937" s="6"/>
       <c r="N937" s="6"/>
-      <c r="O937" s="16"/>
+      <c r="O937" s="22"/>
       <c r="P937" s="6"/>
       <c r="Q937" s="6"/>
       <c r="R937" s="6"/>
@@ -27624,7 +27743,7 @@
       <c r="L938" s="6"/>
       <c r="M938" s="6"/>
       <c r="N938" s="6"/>
-      <c r="O938" s="16"/>
+      <c r="O938" s="22"/>
       <c r="P938" s="6"/>
       <c r="Q938" s="6"/>
       <c r="R938" s="6"/>
@@ -27651,7 +27770,7 @@
       <c r="L939" s="6"/>
       <c r="M939" s="6"/>
       <c r="N939" s="6"/>
-      <c r="O939" s="16"/>
+      <c r="O939" s="22"/>
       <c r="P939" s="6"/>
       <c r="Q939" s="6"/>
       <c r="R939" s="6"/>
@@ -27678,7 +27797,7 @@
       <c r="L940" s="6"/>
       <c r="M940" s="6"/>
       <c r="N940" s="6"/>
-      <c r="O940" s="16"/>
+      <c r="O940" s="22"/>
       <c r="P940" s="6"/>
       <c r="Q940" s="6"/>
       <c r="R940" s="6"/>
@@ -27705,7 +27824,7 @@
       <c r="L941" s="6"/>
       <c r="M941" s="6"/>
       <c r="N941" s="6"/>
-      <c r="O941" s="16"/>
+      <c r="O941" s="22"/>
       <c r="P941" s="6"/>
       <c r="Q941" s="6"/>
       <c r="R941" s="6"/>
@@ -27732,7 +27851,7 @@
       <c r="L942" s="6"/>
       <c r="M942" s="6"/>
       <c r="N942" s="6"/>
-      <c r="O942" s="16"/>
+      <c r="O942" s="22"/>
       <c r="P942" s="6"/>
       <c r="Q942" s="6"/>
       <c r="R942" s="6"/>
@@ -27759,7 +27878,7 @@
       <c r="L943" s="6"/>
       <c r="M943" s="6"/>
       <c r="N943" s="6"/>
-      <c r="O943" s="16"/>
+      <c r="O943" s="22"/>
       <c r="P943" s="6"/>
       <c r="Q943" s="6"/>
       <c r="R943" s="6"/>
@@ -27786,7 +27905,7 @@
       <c r="L944" s="6"/>
       <c r="M944" s="6"/>
       <c r="N944" s="6"/>
-      <c r="O944" s="16"/>
+      <c r="O944" s="22"/>
       <c r="P944" s="6"/>
       <c r="Q944" s="6"/>
       <c r="R944" s="6"/>
@@ -27813,7 +27932,7 @@
       <c r="L945" s="6"/>
       <c r="M945" s="6"/>
       <c r="N945" s="6"/>
-      <c r="O945" s="16"/>
+      <c r="O945" s="22"/>
       <c r="P945" s="6"/>
       <c r="Q945" s="6"/>
       <c r="R945" s="6"/>
@@ -27840,7 +27959,7 @@
       <c r="L946" s="6"/>
       <c r="M946" s="6"/>
       <c r="N946" s="6"/>
-      <c r="O946" s="16"/>
+      <c r="O946" s="22"/>
       <c r="P946" s="6"/>
       <c r="Q946" s="6"/>
       <c r="R946" s="6"/>
@@ -27867,7 +27986,7 @@
       <c r="L947" s="6"/>
       <c r="M947" s="6"/>
       <c r="N947" s="6"/>
-      <c r="O947" s="16"/>
+      <c r="O947" s="22"/>
       <c r="P947" s="6"/>
       <c r="Q947" s="6"/>
       <c r="R947" s="6"/>
@@ -27894,7 +28013,7 @@
       <c r="L948" s="6"/>
       <c r="M948" s="6"/>
       <c r="N948" s="6"/>
-      <c r="O948" s="16"/>
+      <c r="O948" s="22"/>
       <c r="P948" s="6"/>
       <c r="Q948" s="6"/>
       <c r="R948" s="6"/>
@@ -27921,7 +28040,7 @@
       <c r="L949" s="6"/>
       <c r="M949" s="6"/>
       <c r="N949" s="6"/>
-      <c r="O949" s="16"/>
+      <c r="O949" s="22"/>
       <c r="P949" s="6"/>
       <c r="Q949" s="6"/>
       <c r="R949" s="6"/>
@@ -27948,7 +28067,7 @@
       <c r="L950" s="6"/>
       <c r="M950" s="6"/>
       <c r="N950" s="6"/>
-      <c r="O950" s="16"/>
+      <c r="O950" s="22"/>
       <c r="P950" s="6"/>
       <c r="Q950" s="6"/>
       <c r="R950" s="6"/>
@@ -27975,7 +28094,7 @@
       <c r="L951" s="6"/>
       <c r="M951" s="6"/>
       <c r="N951" s="6"/>
-      <c r="O951" s="16"/>
+      <c r="O951" s="22"/>
       <c r="P951" s="6"/>
       <c r="Q951" s="6"/>
       <c r="R951" s="6"/>
@@ -28002,7 +28121,7 @@
       <c r="L952" s="6"/>
       <c r="M952" s="6"/>
       <c r="N952" s="6"/>
-      <c r="O952" s="16"/>
+      <c r="O952" s="22"/>
       <c r="P952" s="6"/>
       <c r="Q952" s="6"/>
       <c r="R952" s="6"/>
@@ -28029,7 +28148,7 @@
       <c r="L953" s="6"/>
       <c r="M953" s="6"/>
       <c r="N953" s="6"/>
-      <c r="O953" s="16"/>
+      <c r="O953" s="22"/>
       <c r="P953" s="6"/>
       <c r="Q953" s="6"/>
       <c r="R953" s="6"/>
@@ -28056,7 +28175,7 @@
       <c r="L954" s="6"/>
       <c r="M954" s="6"/>
       <c r="N954" s="6"/>
-      <c r="O954" s="16"/>
+      <c r="O954" s="22"/>
       <c r="P954" s="6"/>
       <c r="Q954" s="6"/>
       <c r="R954" s="6"/>
@@ -28083,7 +28202,7 @@
       <c r="L955" s="6"/>
       <c r="M955" s="6"/>
       <c r="N955" s="6"/>
-      <c r="O955" s="16"/>
+      <c r="O955" s="22"/>
       <c r="P955" s="6"/>
       <c r="Q955" s="6"/>
       <c r="R955" s="6"/>
@@ -28110,7 +28229,7 @@
       <c r="L956" s="6"/>
       <c r="M956" s="6"/>
       <c r="N956" s="6"/>
-      <c r="O956" s="16"/>
+      <c r="O956" s="22"/>
       <c r="P956" s="6"/>
       <c r="Q956" s="6"/>
       <c r="R956" s="6"/>
@@ -28137,7 +28256,7 @@
       <c r="L957" s="6"/>
       <c r="M957" s="6"/>
       <c r="N957" s="6"/>
-      <c r="O957" s="16"/>
+      <c r="O957" s="22"/>
       <c r="P957" s="6"/>
       <c r="Q957" s="6"/>
       <c r="R957" s="6"/>
@@ -28164,7 +28283,7 @@
       <c r="L958" s="6"/>
       <c r="M958" s="6"/>
       <c r="N958" s="6"/>
-      <c r="O958" s="16"/>
+      <c r="O958" s="22"/>
       <c r="P958" s="6"/>
       <c r="Q958" s="6"/>
       <c r="R958" s="6"/>
@@ -28191,7 +28310,7 @@
       <c r="L959" s="6"/>
       <c r="M959" s="6"/>
       <c r="N959" s="6"/>
-      <c r="O959" s="16"/>
+      <c r="O959" s="22"/>
       <c r="P959" s="6"/>
       <c r="Q959" s="6"/>
       <c r="R959" s="6"/>
@@ -28218,7 +28337,7 @@
       <c r="L960" s="6"/>
       <c r="M960" s="6"/>
       <c r="N960" s="6"/>
-      <c r="O960" s="16"/>
+      <c r="O960" s="22"/>
       <c r="P960" s="6"/>
       <c r="Q960" s="6"/>
       <c r="R960" s="6"/>
@@ -28245,7 +28364,7 @@
       <c r="L961" s="6"/>
       <c r="M961" s="6"/>
       <c r="N961" s="6"/>
-      <c r="O961" s="16"/>
+      <c r="O961" s="22"/>
       <c r="P961" s="6"/>
       <c r="Q961" s="6"/>
       <c r="R961" s="6"/>
@@ -28272,7 +28391,7 @@
       <c r="L962" s="6"/>
       <c r="M962" s="6"/>
       <c r="N962" s="6"/>
-      <c r="O962" s="16"/>
+      <c r="O962" s="22"/>
       <c r="P962" s="6"/>
       <c r="Q962" s="6"/>
       <c r="R962" s="6"/>
@@ -28299,7 +28418,7 @@
       <c r="L963" s="6"/>
       <c r="M963" s="6"/>
       <c r="N963" s="6"/>
-      <c r="O963" s="16"/>
+      <c r="O963" s="22"/>
       <c r="P963" s="6"/>
       <c r="Q963" s="6"/>
       <c r="R963" s="6"/>
@@ -28326,7 +28445,7 @@
       <c r="L964" s="6"/>
       <c r="M964" s="6"/>
       <c r="N964" s="6"/>
-      <c r="O964" s="16"/>
+      <c r="O964" s="22"/>
       <c r="P964" s="6"/>
       <c r="Q964" s="6"/>
       <c r="R964" s="6"/>
@@ -28353,7 +28472,7 @@
       <c r="L965" s="6"/>
       <c r="M965" s="6"/>
       <c r="N965" s="6"/>
-      <c r="O965" s="16"/>
+      <c r="O965" s="22"/>
       <c r="P965" s="6"/>
       <c r="Q965" s="6"/>
       <c r="R965" s="6"/>
@@ -28380,7 +28499,7 @@
       <c r="L966" s="6"/>
       <c r="M966" s="6"/>
       <c r="N966" s="6"/>
-      <c r="O966" s="16"/>
+      <c r="O966" s="22"/>
       <c r="P966" s="6"/>
       <c r="Q966" s="6"/>
       <c r="R966" s="6"/>
@@ -28407,7 +28526,7 @@
       <c r="L967" s="6"/>
       <c r="M967" s="6"/>
       <c r="N967" s="6"/>
-      <c r="O967" s="16"/>
+      <c r="O967" s="22"/>
       <c r="P967" s="6"/>
       <c r="Q967" s="6"/>
       <c r="R967" s="6"/>
@@ -28434,7 +28553,7 @@
       <c r="L968" s="6"/>
       <c r="M968" s="6"/>
       <c r="N968" s="6"/>
-      <c r="O968" s="16"/>
+      <c r="O968" s="22"/>
       <c r="P968" s="6"/>
       <c r="Q968" s="6"/>
       <c r="R968" s="6"/>
@@ -28461,7 +28580,7 @@
       <c r="L969" s="6"/>
       <c r="M969" s="6"/>
       <c r="N969" s="6"/>
-      <c r="O969" s="16"/>
+      <c r="O969" s="22"/>
       <c r="P969" s="6"/>
       <c r="Q969" s="6"/>
       <c r="R969" s="6"/>
@@ -28488,7 +28607,7 @@
       <c r="L970" s="6"/>
       <c r="M970" s="6"/>
       <c r="N970" s="6"/>
-      <c r="O970" s="16"/>
+      <c r="O970" s="22"/>
       <c r="P970" s="6"/>
       <c r="Q970" s="6"/>
       <c r="R970" s="6"/>
@@ -28515,7 +28634,7 @@
       <c r="L971" s="6"/>
       <c r="M971" s="6"/>
       <c r="N971" s="6"/>
-      <c r="O971" s="16"/>
+      <c r="O971" s="22"/>
       <c r="P971" s="6"/>
       <c r="Q971" s="6"/>
       <c r="R971" s="6"/>
@@ -28542,7 +28661,7 @@
       <c r="L972" s="6"/>
       <c r="M972" s="6"/>
       <c r="N972" s="6"/>
-      <c r="O972" s="16"/>
+      <c r="O972" s="22"/>
       <c r="P972" s="6"/>
       <c r="Q972" s="6"/>
       <c r="R972" s="6"/>
@@ -28569,7 +28688,7 @@
       <c r="L973" s="6"/>
       <c r="M973" s="6"/>
       <c r="N973" s="6"/>
-      <c r="O973" s="16"/>
+      <c r="O973" s="22"/>
       <c r="P973" s="6"/>
       <c r="Q973" s="6"/>
       <c r="R973" s="6"/>
@@ -28596,7 +28715,7 @@
       <c r="L974" s="6"/>
       <c r="M974" s="6"/>
       <c r="N974" s="6"/>
-      <c r="O974" s="16"/>
+      <c r="O974" s="22"/>
       <c r="P974" s="6"/>
       <c r="Q974" s="6"/>
       <c r="R974" s="6"/>
@@ -28623,7 +28742,7 @@
       <c r="L975" s="6"/>
       <c r="M975" s="6"/>
       <c r="N975" s="6"/>
-      <c r="O975" s="16"/>
+      <c r="O975" s="22"/>
       <c r="P975" s="6"/>
       <c r="Q975" s="6"/>
       <c r="R975" s="6"/>
@@ -28650,7 +28769,7 @@
       <c r="L976" s="6"/>
       <c r="M976" s="6"/>
       <c r="N976" s="6"/>
-      <c r="O976" s="16"/>
+      <c r="O976" s="22"/>
       <c r="P976" s="6"/>
       <c r="Q976" s="6"/>
       <c r="R976" s="6"/>
@@ -28677,7 +28796,7 @@
       <c r="L977" s="6"/>
       <c r="M977" s="6"/>
       <c r="N977" s="6"/>
-      <c r="O977" s="16"/>
+      <c r="O977" s="22"/>
       <c r="P977" s="6"/>
       <c r="Q977" s="6"/>
       <c r="R977" s="6"/>
@@ -28704,7 +28823,7 @@
       <c r="L978" s="6"/>
       <c r="M978" s="6"/>
       <c r="N978" s="6"/>
-      <c r="O978" s="16"/>
+      <c r="O978" s="22"/>
       <c r="P978" s="6"/>
       <c r="Q978" s="6"/>
       <c r="R978" s="6"/>
@@ -28731,7 +28850,7 @@
       <c r="L979" s="6"/>
       <c r="M979" s="6"/>
       <c r="N979" s="6"/>
-      <c r="O979" s="16"/>
+      <c r="O979" s="22"/>
       <c r="P979" s="6"/>
       <c r="Q979" s="6"/>
       <c r="R979" s="6"/>
@@ -28758,7 +28877,7 @@
       <c r="L980" s="6"/>
       <c r="M980" s="6"/>
       <c r="N980" s="6"/>
-      <c r="O980" s="16"/>
+      <c r="O980" s="22"/>
       <c r="P980" s="6"/>
       <c r="Q980" s="6"/>
       <c r="R980" s="6"/>
@@ -28785,7 +28904,7 @@
       <c r="L981" s="6"/>
       <c r="M981" s="6"/>
       <c r="N981" s="6"/>
-      <c r="O981" s="16"/>
+      <c r="O981" s="22"/>
       <c r="P981" s="6"/>
       <c r="Q981" s="6"/>
       <c r="R981" s="6"/>
@@ -28812,7 +28931,7 @@
       <c r="L982" s="6"/>
       <c r="M982" s="6"/>
       <c r="N982" s="6"/>
-      <c r="O982" s="16"/>
+      <c r="O982" s="22"/>
       <c r="P982" s="6"/>
       <c r="Q982" s="6"/>
       <c r="R982" s="6"/>
@@ -28839,7 +28958,7 @@
       <c r="L983" s="6"/>
       <c r="M983" s="6"/>
       <c r="N983" s="6"/>
-      <c r="O983" s="16"/>
+      <c r="O983" s="22"/>
       <c r="P983" s="6"/>
       <c r="Q983" s="6"/>
       <c r="R983" s="6"/>
@@ -28866,7 +28985,7 @@
       <c r="L984" s="6"/>
       <c r="M984" s="6"/>
       <c r="N984" s="6"/>
-      <c r="O984" s="16"/>
+      <c r="O984" s="22"/>
       <c r="P984" s="6"/>
       <c r="Q984" s="6"/>
       <c r="R984" s="6"/>
@@ -28893,7 +29012,7 @@
       <c r="L985" s="6"/>
       <c r="M985" s="6"/>
       <c r="N985" s="6"/>
-      <c r="O985" s="16"/>
+      <c r="O985" s="22"/>
       <c r="P985" s="6"/>
       <c r="Q985" s="6"/>
       <c r="R985" s="6"/>
@@ -28920,7 +29039,7 @@
       <c r="L986" s="6"/>
       <c r="M986" s="6"/>
       <c r="N986" s="6"/>
-      <c r="O986" s="16"/>
+      <c r="O986" s="22"/>
       <c r="P986" s="6"/>
       <c r="Q986" s="6"/>
       <c r="R986" s="6"/>
@@ -28947,7 +29066,7 @@
       <c r="L987" s="6"/>
       <c r="M987" s="6"/>
       <c r="N987" s="6"/>
-      <c r="O987" s="16"/>
+      <c r="O987" s="22"/>
       <c r="P987" s="6"/>
       <c r="Q987" s="6"/>
       <c r="R987" s="6"/>
@@ -28974,7 +29093,7 @@
       <c r="L988" s="6"/>
       <c r="M988" s="6"/>
       <c r="N988" s="6"/>
-      <c r="O988" s="16"/>
+      <c r="O988" s="22"/>
       <c r="P988" s="6"/>
       <c r="Q988" s="6"/>
       <c r="R988" s="6"/>
@@ -29001,7 +29120,7 @@
       <c r="L989" s="6"/>
       <c r="M989" s="6"/>
       <c r="N989" s="6"/>
-      <c r="O989" s="16"/>
+      <c r="O989" s="22"/>
       <c r="P989" s="6"/>
       <c r="Q989" s="6"/>
       <c r="R989" s="6"/>
@@ -29028,7 +29147,7 @@
       <c r="L990" s="6"/>
       <c r="M990" s="6"/>
       <c r="N990" s="6"/>
-      <c r="O990" s="16"/>
+      <c r="O990" s="22"/>
       <c r="P990" s="6"/>
       <c r="Q990" s="6"/>
       <c r="R990" s="6"/>
@@ -29055,7 +29174,7 @@
       <c r="L991" s="6"/>
       <c r="M991" s="6"/>
       <c r="N991" s="6"/>
-      <c r="O991" s="16"/>
+      <c r="O991" s="22"/>
       <c r="P991" s="6"/>
       <c r="Q991" s="6"/>
       <c r="R991" s="6"/>
@@ -29082,7 +29201,7 @@
       <c r="L992" s="6"/>
       <c r="M992" s="6"/>
       <c r="N992" s="6"/>
-      <c r="O992" s="16"/>
+      <c r="O992" s="22"/>
       <c r="P992" s="6"/>
       <c r="Q992" s="6"/>
       <c r="R992" s="6"/>
@@ -29109,7 +29228,7 @@
       <c r="L993" s="6"/>
       <c r="M993" s="6"/>
       <c r="N993" s="6"/>
-      <c r="O993" s="16"/>
+      <c r="O993" s="22"/>
       <c r="P993" s="6"/>
       <c r="Q993" s="6"/>
       <c r="R993" s="6"/>
@@ -29136,7 +29255,7 @@
       <c r="L994" s="6"/>
       <c r="M994" s="6"/>
       <c r="N994" s="6"/>
-      <c r="O994" s="16"/>
+      <c r="O994" s="22"/>
       <c r="P994" s="6"/>
       <c r="Q994" s="6"/>
       <c r="R994" s="6"/>
@@ -29163,7 +29282,7 @@
       <c r="L995" s="6"/>
       <c r="M995" s="6"/>
       <c r="N995" s="6"/>
-      <c r="O995" s="16"/>
+      <c r="O995" s="22"/>
       <c r="P995" s="6"/>
       <c r="Q995" s="6"/>
       <c r="R995" s="6"/>
@@ -29190,7 +29309,7 @@
       <c r="L996" s="6"/>
       <c r="M996" s="6"/>
       <c r="N996" s="6"/>
-      <c r="O996" s="16"/>
+      <c r="O996" s="22"/>
       <c r="P996" s="6"/>
       <c r="Q996" s="6"/>
       <c r="R996" s="6"/>
@@ -29217,7 +29336,7 @@
       <c r="L997" s="6"/>
       <c r="M997" s="6"/>
       <c r="N997" s="6"/>
-      <c r="O997" s="16"/>
+      <c r="O997" s="22"/>
       <c r="P997" s="6"/>
       <c r="Q997" s="6"/>
       <c r="R997" s="6"/>
@@ -29244,7 +29363,7 @@
       <c r="L998" s="6"/>
       <c r="M998" s="6"/>
       <c r="N998" s="6"/>
-      <c r="O998" s="16"/>
+      <c r="O998" s="22"/>
       <c r="P998" s="6"/>
       <c r="Q998" s="6"/>
       <c r="R998" s="6"/>
@@ -29271,7 +29390,7 @@
       <c r="L999" s="6"/>
       <c r="M999" s="6"/>
       <c r="N999" s="6"/>
-      <c r="O999" s="16"/>
+      <c r="O999" s="22"/>
       <c r="P999" s="6"/>
       <c r="Q999" s="6"/>
       <c r="R999" s="6"/>
@@ -29298,7 +29417,7 @@
       <c r="L1000" s="6"/>
       <c r="M1000" s="6"/>
       <c r="N1000" s="6"/>
-      <c r="O1000" s="16"/>
+      <c r="O1000" s="22"/>
       <c r="P1000" s="6"/>
       <c r="Q1000" s="6"/>
       <c r="R1000" s="6"/>
